--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="577">
   <si>
     <t>Title</t>
   </si>
@@ -43,7 +43,7 @@
     <t>2020-07-14</t>
   </si>
   <si>
-    <t>https://cn.linkedin.com/company/huawei?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/project-assistant-at-huawei-1917856196?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Administrative Assistant</t>
@@ -58,7 +58,7 @@
     <t>2020-07-09</t>
   </si>
   <si>
-    <t>https://ch.linkedin.com/company/decent-ch?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-decent-1942228640?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Program Assistant</t>
@@ -70,7 +70,7 @@
     <t>2020-07-15</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/simon-fraser-university?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/program-assistant-at-simon-fraser-university-1949779427?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Office Administrative Assistant</t>
@@ -85,12 +85,15 @@
     <t>2020-07-10</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/company/gaskets-inc-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/office-administrative-assistant-at-gaskets-inc-1942529487?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Huawei Technologies Canada Co., Ltd.</t>
   </si>
   <si>
+    <t>https://ca.linkedin.com/jobs/view/project-assistant-at-huawei-technologies-canada-co-ltd-1949493230?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
     <t>Assistant Editor</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>2020-07-12</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/bron-studios?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/assistant-editor-at-bron-studios-1944604310?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Clerk Typist/Office Assistant</t>
@@ -109,7 +112,7 @@
     <t>Fraser Health Authority</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/fraser-health-authority?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/clerk-typist-office-assistant-at-fraser-health-authority-1944295196?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Office Administrative Assistant (NOC 1241)</t>
@@ -118,7 +121,7 @@
     <t>Rhodes Wellness College</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/rhodes-wellness-college?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/office-administrative-assistant-noc-1241-at-rhodes-wellness-college-1942367973?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Burnaby - Office Assistant</t>
@@ -127,13 +130,13 @@
     <t>ParcelPal</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/parcelpal?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/burnaby-office-assistant-at-parcelpal-1949766188?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Shaw Communications</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/shaw-communications?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-shaw-communications-1947199191?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Omni PDP (Product Description Page) Education Specialist</t>
@@ -145,7 +148,7 @@
     <t>2020-07-11</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/lululemon?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/omni-pdp-product-description-page-education-specialist-at-lululemon-1916230043?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>MMS Assistant</t>
@@ -154,7 +157,7 @@
     <t>TD</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/td?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/mms-assistant-at-td-1911197110?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Education Coordinator</t>
@@ -163,7 +166,7 @@
     <t>The University of British Columbia</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/universityofbc?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/education-coordinator-at-the-university-of-british-columbia-1948498897?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Executive Assistant</t>
@@ -172,7 +175,7 @@
     <t>Hunt Personnel / Temporarily Yours</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/hunt-personnel-temporarily-yours?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/executive-assistant-at-hunt-personnel-temporarily-yours-1944640867?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Vizzion, Inc.</t>
@@ -181,19 +184,19 @@
     <t>2020-07-08</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/vizzion-inc-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-vizzion-inc-1939135424?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Point Blank</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/point-blank-ca?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/executive-assistant-at-point-blank-1947401136?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>TELUS</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/telus?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/executive-assistant-at-telus-1949094792?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Administrative Assistant 4</t>
@@ -202,7 +205,7 @@
     <t>Vancouver Coastal Health</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/vancouver-coastal-health?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-4-at-vancouver-coastal-health-1941767764?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Assistant to the CEO</t>
@@ -211,940 +214,1459 @@
     <t>Nexii Building Solutions</t>
   </si>
   <si>
-    <t>https://ca.linkedin.com/company/nexii-building-solutions?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/assistant-to-the-ceo-at-nexii-building-solutions-1913699150?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Robert Half</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/company/robert-half-international?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-robert-half-1947403941?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Gold's Gym</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/company/gold%27s-gym?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-gold-s-gym-1944229768?refId=e2e4bf9d-b320-48ba-880a-96b483931d75&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Marketing Assistant</t>
+  </si>
+  <si>
+    <t>PhoneBox</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/marketing-assistant-at-phonebox-1941392990?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=1&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Freedom Mobile</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-freedom-mobile-1947002485?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=2&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Fleet Services Assistant</t>
+  </si>
+  <si>
+    <t>Delta Police Department - British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Tsawwassen, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/fleet-services-assistant-at-delta-police-department-british-columbia-canada-1944671257?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=3&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Western Forest Products</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-western-forest-products-1911173946?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=4&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Laboratory Assistant/Data Entry Clerk</t>
+  </si>
+  <si>
+    <t>Provincial Health Services Authority</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/laboratory-assistant-data-entry-clerk-at-provincial-health-services-authority-1948702213?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=6&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant, Major Giving</t>
+  </si>
+  <si>
+    <t>British Columbia Institute of Technology</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-major-giving-at-british-columbia-institute-of-technology-1945266673?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=8&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>BioCan Inc.</t>
+  </si>
+  <si>
+    <t>Port Coquitlam, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-biocan-inc-1944250057?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=10&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrative Assistant / Proposal assistant</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-proposal-assistant-at-exp-1916284690?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=11&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Hemmera - Proposal Assistant, Burnaby</t>
+  </si>
+  <si>
+    <t>Ausenco</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/hemmera-proposal-assistant-burnaby-at-ausenco-1913649760?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=12&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrative Assistant - 1 month contract</t>
+  </si>
+  <si>
+    <t>David Aplin Group</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-1-month-contract-at-david-aplin-group-1922875701?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=13&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Accounting Assistant</t>
+  </si>
+  <si>
+    <t>Trulioo</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/accounting-assistant-at-trulioo-1941436857?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=14&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Adminstrative assistant</t>
+  </si>
+  <si>
+    <t>Mass &amp; CO</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/adminstrative-assistant-at-mass-co-1921415814?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=15&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Delivery Assistant</t>
+  </si>
+  <si>
+    <t>Trail Appliances BC</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/delivery-assistant-at-trail-appliances-bc-1944210354?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=16&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Danma Kitchen Cabinets Ltd</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-danma-kitchen-cabinets-ltd-1948275731?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=17&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Human Resources Assistant (F/T term contract)</t>
+  </si>
+  <si>
+    <t>Musqueam Indian Band</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/human-resources-assistant-f-t-term-contract-at-musqueam-indian-band-1941151444?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=18&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Rehabilitation Assistant - Seniors Wellness</t>
+  </si>
+  <si>
+    <t>Lifemark Health Group</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/rehabilitation-assistant-seniors-wellness-at-lifemark-health-group-1939228458?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=23&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Technical Assistant (Animation)</t>
+  </si>
+  <si>
+    <t>Animal Logic</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/technical-assistant-animation-at-animal-logic-1947442982?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=24&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant, RES, Graduation &amp; Transfer Credit</t>
+  </si>
+  <si>
+    <t>Langara College</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-res-graduation-transfer-credit-at-langara-college-1945313147?refId=1bffd3e9-3be2-4044-96da-75dd1df9bcd8&amp;position=25&amp;pageNum=1&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Care Support Assistant</t>
+  </si>
+  <si>
+    <t>Sienna Senior Living</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-support-assistant-at-sienna-senior-living-1916213277?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=1&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>administrative assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-decent-1942531724?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=2&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/mms-assistant-at-td-1911142817?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=3&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Pharmacy Assistant</t>
+  </si>
+  <si>
+    <t>London Drugs</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940839711?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=5&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Entry Level Administrative Assistant Bilingual (English/French)</t>
+  </si>
+  <si>
+    <t>Christopher Stewart Wine &amp; Spirits (Asia)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/entry-level-administrative-assistant-bilingual-english-french-at-christopher-stewart-wine-spirits-asia-1941651772?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=6&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-gold-s-gym-1944235119?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=7&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Metadata Assistant</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/metadata-assistant-at-simon-fraser-university-1945319234?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=8&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/receptionist-at-vancouver-coastal-health-1943552795?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=9&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrative Assistant - Operations</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-operations-at-hunt-personnel-temporarily-yours-1942385502?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=10&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Medical Receptionist (MOA) - Vancouver Clinic</t>
+  </si>
+  <si>
+    <t>Babylon Health</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/medical-receptionist-moa-vancouver-clinic-at-babylon-health-1913695674?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=11&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Legal Administrative Assistant-Float</t>
+  </si>
+  <si>
+    <t>STRIVE Recruitment Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/legal-administrative-assistant-float-at-strive-recruitment-inc-1949873773?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=12&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrative Assistant, Perinatal Services</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-perinatal-services-at-provincial-health-services-authority-1948700639?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=16&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Rehabilitation Assistant (Occupational Therapy/Physiotherapy)</t>
+  </si>
+  <si>
+    <t>Vancouver General Hospital</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/rehabilitation-assistant-occupational-therapy-physiotherapy-at-vancouver-general-hospital-1949830230?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=18&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>MOA - West Broadway Rheumatology Office</t>
+  </si>
+  <si>
+    <t>CANADIAN MEDICAL</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/moa-west-broadway-rheumatology-office-at-canadian-medical-1940632057?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=19&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Regional Coordinator Personal Banking</t>
+  </si>
+  <si>
+    <t>BMO Financial Group</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/regional-coordinator-personal-banking-at-bmo-financial-group-1911183223?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=22&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Aide pédagogique spécialisée (30.00 heures/semaine)</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/aide-p%C3%A9dagogique-sp%C3%A9cialis%C3%A9e-30-00-heures-semaine-at-csf-1941147291?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=23&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Care Assistant</t>
+  </si>
+  <si>
+    <t>Helping Hands Homecare</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/care-assistant-at-helping-hands-homecare-1922822587?refId=6de7d669-97a3-47a9-ad9f-b1c96b15fc72&amp;position=25&amp;pageNum=2&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-decent-1942531724?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=1&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>SAP iXp Intern - Global Channel Business Development Assistant Job</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/sap-ixp-intern-global-channel-business-development-assistant-job-at-sap-1949135600?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=2&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/rehabilitation-assistant-occupational-therapy-physiotherapy-at-vancouver-general-hospital-1949830230?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=3&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Personal Caregiver</t>
+  </si>
+  <si>
+    <t>Bayshore HealthCare</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/personal-caregiver-at-bayshore-healthcare-1949336792?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=4&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-biocan-inc-1944642112?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=6&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/care-assistant-at-helping-hands-homecare-1922822587?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=7&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940846292?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=8&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Academic Administrative Manager, Faculty of Nursing</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/academic-administrative-manager-faculty-of-nursing-at-langara-college-1945278969?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=9&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Alex Visa Immigration Services Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-alex-visa-immigration-services-inc-1950059214?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=12&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Aide pédagogique spécialisée (7.00 heures/semaine)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/aide-p%C3%A9dagogique-sp%C3%A9cialis%C3%A9e-7-00-heures-semaine-at-csf-1942536014?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=13&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-gold-s-gym-1944229769?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=15&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Landscape Maintenance Assistant</t>
+  </si>
+  <si>
+    <t>The Great Canadian Landscaping Company Ltd.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/landscape-maintenance-assistant-at-the-great-canadian-landscaping-company-ltd-1942361555?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=16&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Sr Program Asst-Gen (Gr8)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/sr-program-asst-gen-gr8-at-the-university-of-british-columbia-1948500763?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=17&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/personal-caregiver-at-bayshore-healthcare-1950097256?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=19&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940810668?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=20&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Rubicon HR Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/burnaby-office-assistant-at-rubicon-hr-canada-1946298468?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=21&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Nursing Unit Assistant (NUA)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/nursing-unit-assistant-nua-at-vancouver-coastal-health-1949506001?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=22&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Senior Administrative Assistant</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/senior-administrative-assistant-at-gold-s-gym-1944097714?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=24&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Coordinator, In-hospital Organ Donation</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/coordinator-in-hospital-organ-donation-at-provincial-health-services-authority-1947157940?refId=360485d3-4b6f-4b05-9d65-133ea559791f&amp;position=25&amp;pageNum=3&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Landscape Construction Install Assistant</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/landscape-construction-install-assistant-at-the-great-canadian-landscaping-company-ltd-1942364205?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=1&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Development Officer, Awards</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/development-officer-awards-at-the-university-of-british-columbia-1941098268?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=2&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/aide-p%C3%A9dagogique-sp%C3%A9cialis%C3%A9e-7-00-heures-semaine-at-csf-1942533299?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=3&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940808560?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=4&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Tier 2 Canada Research Chair (CRC) in Geographies of Racialization Date - posted: 6 July 2020</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/tier-2-canada-research-chair-crc-in-geographies-of-racialization-date-posted-6-july-2020-at-simon-fraser-university-1940604724?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=7&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Unique Telecommunications Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-unique-telecommunications-inc-1950056615?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=8&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Care Aide</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1941767765?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=9&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>New Westminster, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940810833?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=10&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/personal-caregiver-at-bayshore-healthcare-1943331128?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=11&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Dental Assistant 3</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/dental-assistant-3-at-the-university-of-british-columbia-1944505708?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=12&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/project-assistant-at-huawei-technologies-canada-co-ltd-1949493230?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=13&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1943556548?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=14&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940816094?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=15&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>STARLINE RE-BAR LTD.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-starline-re-bar-ltd-1942232552?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=16&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1943556549?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=17&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pharmacy-assistant-at-london-drugs-1940844198?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=18&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Shoreside Services Ltd.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-shoreside-services-ltd-1946923972?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=19&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1949503571?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=20&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1949500960?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=22&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/care-aide-at-vancouver-coastal-health-1949504350?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=24&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Vancouver Asbestos Removal</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-vancouver-asbestos-removal-1942232497?refId=09541f67-d425-478b-ac94-82669a82bd9b&amp;position=25&amp;pageNum=4&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Tooka Florist</t>
+  </si>
+  <si>
+    <t>North Vancouver, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-tooka-florist-1942231398?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=4&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Fraser Valley Stucco Ltd</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-fraser-valley-stucco-ltd-1945473184?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=5&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>DR. Hardip S. Thind, Optometric Corporation DBA Coquitlam Centre Eyecare</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/office-administrative-assistant-at-dr-hardip-s-thind-optometric-corporation-dba-coquitlam-centre-eyecare-1946930003?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=7&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Taseko Mines</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/executive-assistant-at-taseko-mines-1939233382?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=8&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Everfresh Processing</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-everfresh-processing-1945465333?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=11&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Lifewise Financial Group Inc. DBA Desjardins Financial Security Independent Network-Richmond South</t>
   </si>
   <si>
-    <t>Western Forest Products</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/western-forest-products?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant</t>
-  </si>
-  <si>
-    <t>Equity Law Group</t>
-  </si>
-  <si>
-    <t>Administrative Assistant - Operations</t>
-  </si>
-  <si>
-    <t>Tsawwassen, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>Medical Receptionist (MOA) - Vancouver Clinic</t>
-  </si>
-  <si>
-    <t>Babylon Health</t>
-  </si>
-  <si>
-    <t>https://uk.linkedin.com/company/babylonhealth?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Pharmacy Assistant</t>
-  </si>
-  <si>
-    <t>London Drugs</t>
-  </si>
-  <si>
-    <t>Port Coquitlam, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/london-drugs?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-lifewise-financial-group-inc-dba-desjardins-financial-security-independent-network-richmond-south-1938947951?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=12&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Junior Legal Administrative Assistant</t>
+  </si>
+  <si>
+    <t>Eva Lee &amp; Associates Recruitment</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/junior-legal-administrative-assistant-at-eva-lee-associates-recruitment-1941013895?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=14&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>MKD Janitorial Services and Consulting Ltd</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-mkd-janitorial-services-and-consulting-ltd-1941042445?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=15&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Impact Recruitment</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/junior-legal-administrative-assistant-at-impact-recruitment-1942769812?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=21&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Office Administrator</t>
+  </si>
+  <si>
+    <t>Mountain Fire Protection Ltd</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/office-administrator-at-mountain-fire-protection-ltd-1910391263?refId=7e547e03-8701-405b-a97d-ce27811f3ff8&amp;position=24&amp;pageNum=5&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Cantroni Systems (Canada) Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-cantroni-systems-canada-inc-1947036115?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=1&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/junior-legal-administrative-assistant-at-eva-lee-associates-recruitment-1941013895?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=2&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-tooka-florist-1944636373?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=8&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-at-lifewise-financial-group-inc-dba-desjardins-financial-security-independent-network-richmond-south-1938947951?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=9&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Policy Analyst (Assistant Manager), Intergovernmental Relations</t>
+  </si>
+  <si>
+    <t>City of Vancouver</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/policy-analyst-assistant-manager-intergovernmental-relations-at-city-of-vancouver-1943616741?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=10&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Investment Associate</t>
+  </si>
+  <si>
+    <t>National Bank of Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/investment-associate-at-national-bank-of-canada-1916257465?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=11&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant, Investment Advisor, IR</t>
+  </si>
+  <si>
+    <t>CIBC</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-investment-advisor-ir-at-cibc-1916219238?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=12&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Coordinator + Writing Specialist, Writing Centre</t>
+  </si>
+  <si>
+    <t>Emily Carr University of Art and Design</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-coordinator-%2B-writing-specialist-writing-centre-at-emily-carr-university-of-art-and-design-1945278394?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=13&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Property Manager</t>
+  </si>
+  <si>
+    <t>BentallGreenOak</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-property-manager-at-bentallgreenoak-1948331993?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=15&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Champs Sports</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-at-champs-sports-1859126556?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=16&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Fountain Tire</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-at-fountain-tire-1949512982?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=17&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrative Assistant / Customer Service Representative</t>
+  </si>
+  <si>
+    <t>Modu-Loc Fence Rentals LP</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-customer-service-representative-at-modu-loc-fence-rentals-lp-1942268471?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=18&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Construction Manager</t>
+  </si>
+  <si>
+    <t>McMillen Jacobs Associates</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-construction-manager-at-mcmillen-jacobs-associates-1911196536?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=19&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Site Superintendent</t>
+  </si>
+  <si>
+    <t>New City Contracting</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-site-superintendent-at-new-city-contracting-1949419342?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=20&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Accounts and Project Management Associate</t>
+  </si>
+  <si>
+    <t>War Room</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/accounts-and-project-management-associate-at-war-room-1946136862?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=21&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Proposal Coordinator</t>
+  </si>
+  <si>
+    <t>EllisDon</t>
+  </si>
+  <si>
+    <t>Greater Vancouver Metropolitan Area</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/proposal-coordinator-at-ellisdon-1942372860?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=22&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager - Merchandising (Full-Time) - Metropolis</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-merchandising-full-time-metropolis-at-gap-1945237418?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=23&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-at-foot-locker-1912765998?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=24&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant E-Commerce Retail Manager</t>
+  </si>
+  <si>
+    <t>Best Buy Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-e-commerce-retail-manager-at-best-buy-canada-1926248107?refId=de24da52-597b-4465-9c1a-d95c3a984d95&amp;position=25&amp;pageNum=6&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Project Manager</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-project-manager-at-hays-1917871078?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=1&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-e-commerce-retail-manager-at-best-buy-canada-1926248107?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=2&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Business Controller</t>
+  </si>
+  <si>
+    <t>Kiewit</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-business-controller-at-kiewit-1866251874?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=3&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Department Supervisor – Full Time</t>
+  </si>
+  <si>
+    <t>The Home Depot Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/department-supervisor-%E2%80%93-full-time-at-the-home-depot-canada-1916235483?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=4&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager #1104 Vancouver, BC</t>
+  </si>
+  <si>
+    <t>Walmart Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-%231104-vancouver-bc-at-walmart-canada-1922812873?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=5&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>On-Site Manager / Property Manager Assistant</t>
+  </si>
+  <si>
+    <t>Workhoppers</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/on-site-manager-property-manager-assistant-at-workhoppers-1941116120?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=6&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Information Technology Manager - (15388)</t>
+  </si>
+  <si>
+    <t>Rosewood Hotel Georgia</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-information-technology-manager-15388-at-rosewood-hotel-georgia-1911156585?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=7&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Media Health &amp; Safety Monitor (Field Based)</t>
+  </si>
+  <si>
+    <t>ERM: Environmental Resources Management</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/media-health-safety-monitor-field-based-at-erm-environmental-resources-management-1941444735?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=8&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Branch Manager</t>
+  </si>
+  <si>
+    <t>Westland Insurance Group Ltd.</t>
+  </si>
+  <si>
+    <t>Coquitlam, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-branch-manager-at-westland-insurance-group-ltd-1922844529?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=10&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Roots Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/team-lead-at-roots-canada-1949741057?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=12&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Executive Assistant &amp; HR Administrator</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/executive-assistant-hr-administrator-at-robert-half-1941012269?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=13&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Store Manager</t>
+  </si>
+  <si>
+    <t>Tommy Bahama</t>
+  </si>
+  <si>
+    <t>West Vancouver, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-store-manager-at-tommy-bahama-1941528583?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=14&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Good Life Fitness</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/personal-trainer-at-good-life-fitness-1941150385?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=15&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-tooka-florist-1944636373?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=16&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Warehouse Sort Assistant</t>
+  </si>
+  <si>
+    <t>Greater Vancouver Food Bank</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/warehouse-sort-assistant-at-greater-vancouver-food-bank-1944622554?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=17&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Renovation Consultant</t>
+  </si>
+  <si>
+    <t>Skylight.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/renovation-consultant-at-skylight-1943962844?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=18&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Manager, First Nations Schools Programs</t>
+  </si>
+  <si>
+    <t>First Nations Education Steering Committee</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/manager-first-nations-schools-programs-at-first-nations-education-steering-committee-1913614515?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=19&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Restaurant Assistant Manager</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-at-subway-1946922754?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=20&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Department Supervisor: Full Time</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/department-supervisor-full-time-at-the-home-depot-canada-1913619555?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=22&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Intellectual Property (IP) Legal Administrator</t>
+  </si>
+  <si>
+    <t>Zymeworks Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/intellectual-property-ip-legal-administrator-at-zymeworks-inc-1911129495?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=23&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Meat/Seafood Associate Team Leader (Assistant Department Manager), Full-Time</t>
+  </si>
+  <si>
+    <t>Whole Foods Market</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/meat-seafood-associate-team-leader-assistant-department-manager-full-time-at-whole-foods-market-1947138232?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=24&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Payroll Manager</t>
+  </si>
+  <si>
+    <t>Tree Island Steel</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/payroll-manager-at-tree-island-steel-1943298146?refId=f854277d-1a1d-42f2-95d8-18b95bb47bbc&amp;position=25&amp;pageNum=7&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/payroll-manager-at-tree-island-steel-1943298146?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=1&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Certified Dental Assistant (CDA)</t>
+  </si>
+  <si>
+    <t>WORKFORCE - Staffing Solutions</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/certified-dental-assistant-cda-at-workforce-staffing-solutions-1909098156?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=2&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Legal Assistant - Labour &amp; Employment</t>
+  </si>
+  <si>
+    <t>Hunter West Legal Recruitment</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/legal-assistant-labour-employment-at-hunter-west-legal-recruitment-1944611212?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=3&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Little Burgundy Store Manager (Full-Time)</t>
+  </si>
+  <si>
+    <t>Little Burgundy Shoes</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/little-burgundy-store-manager-full-time-at-little-burgundy-shoes-1948771481?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=5&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/personal-trainer-at-good-life-fitness-1941150385?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=6&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Retail Shop Manager on Duty, Vancouver - Equinox Fitness Clubs</t>
+  </si>
+  <si>
+    <t>Equinox</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/retail-shop-manager-on-duty-vancouver-equinox-fitness-clubs-at-equinox-1949490432?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=7&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>White Rock, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-branch-manager-at-westland-insurance-group-ltd-1922847586?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=8&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-e-commerce-retail-manager-at-best-buy-canada-1926248107?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=10&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-information-technology-manager-15388-at-rosewood-hotel-georgia-1911156585?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=11&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Front Store Manager LG VOL</t>
+  </si>
+  <si>
+    <t>Shoppers Drug Mart</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/front-store-manager-lg-vol-at-shoppers-drug-mart-1913649116?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=13&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Branch Manager (White Rock, Central Plaza)</t>
+  </si>
+  <si>
+    <t>IBABC - Instituto de biomedicina</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-branch-manager-white-rock-central-plaza-at-ibabc-instituto-de-biomedicina-1948446501?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=14&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-at-subway-1942236034?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=15&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Meat &amp; Seafood Team Leader (Department Manager), Full Time</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/meat-seafood-team-leader-department-manager-full-time-at-whole-foods-market-1939202410?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=16&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/department-supervisor-%E2%80%93-full-time-at-the-home-depot-canada-1916235483?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=17&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Psychological Assistant</t>
+  </si>
+  <si>
+    <t>Psychodynamic Counselling Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/psychological-assistant-at-psychodynamic-counselling-inc-1946926669?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=18&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Media Health &amp; Safety Supervisor (Field Based)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/media-health-safety-supervisor-field-based-at-erm-environmental-resources-management-1941446428?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=20&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Accountant - CPA</t>
+  </si>
+  <si>
+    <t>BackStretch Recruitment Group</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/accountant-cpa-at-backstretch-recruitment-group-1887470786?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=21&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Manager in Training</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/manager-in-training-at-fountain-tire-1949514559?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=22&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Store Leader (Manager)</t>
+  </si>
+  <si>
+    <t>7-Eleven</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-store-leader-manager-at-7-eleven-1939770154?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=23&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>LWS - Department Manager - Sales Floor</t>
+  </si>
+  <si>
+    <t>Lowe's Companies, Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/lws-department-manager-sales-floor-at-lowe-s-companies-inc-1949777560?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=24&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>restaurant assistant manager This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>Freshslice Pizza</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-freshslice-pizza-1948464993?refId=8bd0d79c-a363-4ec1-b50b-c533391c6862&amp;position=25&amp;pageNum=8&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-at-subway-1942236034?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=1&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-freshslice-pizza-1948464993?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=2&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/manager-in-training-at-fountain-tire-1949514559?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=3&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Site Superintendent - Building Envelopment</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/site-superintendent-building-envelopment-at-new-city-contracting-1949418349?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=4&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/front-store-manager-lg-vol-at-shoppers-drug-mart-1913681049?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=6&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>LWS - Customer Service Associate - ProServices</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/lws-customer-service-associate-proservices-at-lowe-s-companies-inc-1942349307?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=7&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>PA/Driver Vancouver</t>
+  </si>
+  <si>
+    <t>Attraction</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/pa-driver-vancouver-at-attraction-1942375873?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=9&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Customer Service Representative</t>
+  </si>
+  <si>
+    <t>U-Haul International, Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/customer-service-representative-at-u-haul-international-inc-1944947495?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=10&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Manager, Academic &amp; Administrative Services</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/manager-academic-administrative-services-at-simon-fraser-university-1949771946?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=11&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Port Moody, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-store-leader-manager-at-7-eleven-1943473450?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=12&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1948387782?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=13&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>MD Admissions Administrative Coordinator</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/md-admissions-administrative-coordinator-at-the-university-of-british-columbia-1922843761?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=14&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/little-burgundy-store-manager-full-time-at-little-burgundy-shoes-1948771481?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=15&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/lws-department-manager-sales-floor-at-lowe-s-companies-inc-1949777560?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=16&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-fraser-valley-stucco-ltd-1944632871?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=17&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>MOA - General Surgeon New Westminster</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/moa-general-surgeon-new-westminster-at-canadian-medical-1949821222?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=18&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Air Conditioning Mechanic</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/air-conditioning-mechanic-at-hays-1917837406?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=19&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Senior Litigation LAA</t>
+  </si>
+  <si>
+    <t>Forge Recruitment</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/senior-litigation-laa-at-forge-recruitment-1942540699?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=20&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1948390435?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=23&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1944594953?refId=184f4338-f081-408e-ba0b-ab65335f9e2f&amp;position=25&amp;pageNum=9&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>administrative assistant - office This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>NUMIS Consulting Inc</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-office-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-numis-consulting-inc-1942365166?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=1&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1944596768?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=2&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Store Pricing Coordinator</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/store-pricing-coordinator-at-london-drugs-1940833918?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=3&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1948387782?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=5&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-shoreside-services-ltd-1948506517?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=6&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Store Systems and Administration</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/store-systems-and-administration-at-london-drugs-1940810973?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=7&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-subway-1948390435?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=8&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>office administrative assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/office-administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-dr-hardip-s-thind-optometric-corporation-dba-coquitlam-centre-eyecare-1948525386?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=10&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-tooka-florist-1944636373?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=12&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Physiotherapist 2 - Long Term Care - Geriatric/Elderly/Long Term Care</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/physiotherapist-2-long-term-care-geriatric-elderly-long-term-care-at-vancouver-coastal-health-1941765916?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=13&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-starline-re-bar-ltd-1944651192?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=17&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>marketing assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/marketing-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-phonebox-1942517269?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=20&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-everfresh-processing-1942532499?refId=d3734103-3990-402f-b4e3-e063e79a1562&amp;position=22&amp;pageNum=10&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/legal-assistant-labour-employment-at-hunter-west-legal-recruitment-1944611212?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=2&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Global Fortune Commerce and Business Group Inc</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-global-fortune-commerce-and-business-group-inc-1948556181?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=3&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-starline-re-bar-ltd-1944651192?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=11&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/office-administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-dr-hardip-s-thind-optometric-corporation-dba-coquitlam-centre-eyecare-1948525386?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=12&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>PROLINK SUPPLY LTD.</t>
+  </si>
+  <si>
+    <t>Maple Ridge, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-prolink-supply-ltd-1939142454?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=13&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>CRC CHOICE CONTRACTING LTD.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrative-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-crc-choice-contracting-ltd-1938930221?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=14&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Infants' Daycare Worker</t>
+  </si>
+  <si>
+    <t>BrightStart Children's Academy Ltd.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/infants-daycare-worker-at-brightstart-children-s-academy-ltd-1942230447?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=15&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Housekeeping and Laundry Aides</t>
+  </si>
+  <si>
+    <t>Little Mountain</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/housekeeping-and-laundry-aides-at-little-mountain-1947104548?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=18&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/housekeeping-and-laundry-aides-at-little-mountain-1948590692?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=22&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/housekeeping-and-laundry-aides-at-little-mountain-1948590694?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=23&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>infants' daycare worker This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/infants-daycare-worker-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-brightstart-children-s-academy-ltd-1942503347?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=24&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>psychological assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
   </si>
   <si>
-    <t>Psychodynamic Counselling Inc.</t>
-  </si>
-  <si>
-    <t>MKD Janitorial Services and Consulting Ltd</t>
-  </si>
-  <si>
-    <t>Rehabilitation Assistant - Seniors Wellness</t>
-  </si>
-  <si>
-    <t>Lifemark Health Group</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/lifemark-health-corp?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Care Support Assistant</t>
-  </si>
-  <si>
-    <t>Sienna Senior Living</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/sienna-senior-living?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Psychological Assistant</t>
-  </si>
-  <si>
-    <t>2020-07-13</t>
-  </si>
-  <si>
-    <t>Assistant, Major Giving</t>
-  </si>
-  <si>
-    <t>British Columbia Institute of Technology</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/bcit?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Administrative Assistant / Proposal assistant</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/exp-global-inc?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Junior Legal Administrative Assistant</t>
-  </si>
-  <si>
-    <t>Eva Lee &amp; Associates Recruitment</t>
-  </si>
-  <si>
-    <t>Fleet Services Assistant</t>
-  </si>
-  <si>
-    <t>Delta Police Department - British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/delta-police-department?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant, RES, Graduation &amp; Transfer Credit</t>
-  </si>
-  <si>
-    <t>Langara College</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/langara-college?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Entry Level Administrative Assistant Bilingual (English/French)</t>
-  </si>
-  <si>
-    <t>Christopher Stewart Wine &amp; Spirits (Asia)</t>
-  </si>
-  <si>
-    <t>https://hk.linkedin.com/company/christopherstewartwinespiritsasia?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Regional Coordinator Personal Banking</t>
-  </si>
-  <si>
-    <t>BMO Financial Group</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/bank-of-montreal?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Technical Assistant (Animation)</t>
-  </si>
-  <si>
-    <t>Animal Logic</t>
-  </si>
-  <si>
-    <t>https://au.linkedin.com/company/animal-logic?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Bus Driver/Teaching Assistant</t>
-  </si>
-  <si>
-    <t>Squamish Nation</t>
-  </si>
-  <si>
-    <t>West Vancouver, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/squamish-nation?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Aide pédagogique spécialisée (30.00 heures/semaine)</t>
-  </si>
-  <si>
-    <t>CSF</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/csf?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Metadata Assistant</t>
-  </si>
-  <si>
-    <t>Laboratory Assistant/Data Entry Clerk</t>
-  </si>
-  <si>
-    <t>Provincial Health Services Authority</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/provincial-health-services-authority?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Research Asst/Tech 4</t>
-  </si>
-  <si>
-    <t>Irrigation &amp; Lighting Install Assistant</t>
-  </si>
-  <si>
-    <t>The Great Canadian Landscaping Company Ltd.</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/the-great-canadian-landscaping-company-ltd-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Rehabilitation Assistant (Occupational Therapy/Physiotherapy)</t>
-  </si>
-  <si>
-    <t>Vancouver General Hospital</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/vancouver-general-hospital?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>administrative assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>SAP iXp Intern - Global Channel Business Development Assistant Job</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>https://de.linkedin.com/company/sap?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Personal Caregiver</t>
-  </si>
-  <si>
-    <t>Bayshore HealthCare</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/bayshore-health-care?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>BioCan Inc.</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/biocan-inc.?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Care Assistant</t>
-  </si>
-  <si>
-    <t>Helping Hands Homecare</t>
-  </si>
-  <si>
-    <t>https://uk.linkedin.com/company/helping-hands-homecare?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Academic Administrative Manager, Faculty of Nursing</t>
-  </si>
-  <si>
-    <t>Alex Visa Immigration Services Inc.</t>
-  </si>
-  <si>
-    <t>Aide pédagogique spécialisée (7.00 heures/semaine)</t>
-  </si>
-  <si>
-    <t>Landscape Maintenance Assistant</t>
-  </si>
-  <si>
-    <t>Sr Program Asst-Gen (Gr8)</t>
-  </si>
-  <si>
-    <t>Unique Telecommunications Inc.</t>
-  </si>
-  <si>
-    <t>Nursing Unit Assistant (NUA)</t>
-  </si>
-  <si>
-    <t>Senior Administrative Assistant</t>
-  </si>
-  <si>
-    <t>Coordinator, In-hospital Organ Donation</t>
-  </si>
-  <si>
-    <t>Dental Assistant 3</t>
-  </si>
-  <si>
-    <t>Care Aide</t>
-  </si>
-  <si>
-    <t>Tier 2 Canada Research Chair (CRC) in Geographies of Racialization Date - posted: 6 July 2020</t>
-  </si>
-  <si>
-    <t>New Westminster, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>Landscape Construction Install Assistant</t>
-  </si>
-  <si>
-    <t>Rubicon HR Canada</t>
-  </si>
-  <si>
-    <t>Rizwan Holding Ltd.</t>
-  </si>
-  <si>
-    <t>Fraser Valley Stucco Ltd</t>
-  </si>
-  <si>
-    <t>Everfresh Processing</t>
-  </si>
-  <si>
-    <t>Shoreside Services Ltd.</t>
-  </si>
-  <si>
-    <t>Impact Recruitment</t>
-  </si>
-  <si>
-    <t>STARLINE RE-BAR LTD.</t>
-  </si>
-  <si>
-    <t>Taseko Mines</t>
+    <t>https://ca.linkedin.com/jobs/view/psychological-assistant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-psychodynamic-counselling-inc-1948387070?refId=ced80d48-aea6-41bd-822c-18f59b6c48c8&amp;position=25&amp;pageNum=11&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/housekeeping-and-laundry-aides-at-little-mountain-1948590694?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=1&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/housekeeping-and-laundry-aides-at-little-mountain-1944666613?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=3&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Event Management Entry Level - Student Friendly Job - Full Time</t>
+  </si>
+  <si>
+    <t>Alliance Concepts Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/event-management-entry-level-student-friendly-job-full-time-at-alliance-concepts-inc-1949645383?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=5&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>early childhood educator (E.C.E.) This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>My Little School Daycare</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/early-childhood-educator-e-c-e-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-my-little-school-daycare-1948544369?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=6&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>early childhood educator assistant - kindergarten This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>Roc Tone School Inc. DBA Harbourside Children's Centre</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/early-childhood-educator-assistant-kindergarten-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-roc-tone-school-inc-dba-harbourside-children-s-centre-1944625341?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=7&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Early Childhood Educator Assistant - Kindergarten</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/early-childhood-educator-assistant-kindergarten-at-roc-tone-school-inc-dba-harbourside-children-s-centre-1944248336?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=8&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>KFC Program Assistant (After school kids club)- 3 positions</t>
+  </si>
+  <si>
+    <t>The Salvation Army</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/kfc-program-assistant-after-school-kids-club-3-positions-at-the-salvation-army-1946219392?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=14&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Early Childhood Educator (E.C.E.)</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/early-childhood-educator-e-c-e-at-my-little-school-daycare-1946930027?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=15&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>ESL teachers needed in private schools! =&gt; Relocate to China</t>
+  </si>
+  <si>
+    <t>Shenyang SUNRISE Cultural Communication Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/esl-teachers-needed-in-private-schools%21-%3D-relocate-to-china-at-shenyang-sunrise-cultural-communication-co-ltd-1941149884?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=16&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Baby Steps Infant and Toddler Care</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/early-childhood-educator-e-c-e-at-baby-steps-infant-and-toddler-care-1950059297?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=17&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Communications Officer / Executive Assistant</t>
+  </si>
+  <si>
+    <t>The Old School House Arts Centre</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/communications-officer-executive-assistant-at-the-old-school-house-arts-centre-1941073730?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=18&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Administrators Needed</t>
+  </si>
+  <si>
+    <t>Agilus Work Solutions</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/administrators-needed-at-agilus-work-solutions-1945212417?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=19&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Guest Service Manager</t>
+  </si>
+  <si>
+    <t>JOEY Coquitlam</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-guest-service-manager-at-joey-coquitlam-1939111276?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=20&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Warehouse Assistant</t>
+  </si>
+  <si>
+    <t>Rubicon Organics</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/warehouse-assistant-at-rubicon-organics-1938939726?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=21&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager: Serious Opportunity in Victoria</t>
+  </si>
+  <si>
+    <t>PeopleFind Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1946309104?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=23&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1947109067?refId=c861570e-414b-433a-885c-8439e9292523&amp;position=24&amp;pageNum=12&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager - Retail</t>
   </si>
   <si>
     <t>Persia Food Products Inc.</t>
   </si>
   <si>
-    <t>DR. Hardip S. Thind, Optometric Corporation DBA Coquitlam Centre Eyecare</t>
-  </si>
-  <si>
-    <t>Cantroni Systems (Canada) Inc.</t>
-  </si>
-  <si>
-    <t>Assistant Property Manager</t>
-  </si>
-  <si>
-    <t>BentallGreenOak</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/bentallgreenoak?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Coordinator + Writing Specialist, Writing Centre</t>
-  </si>
-  <si>
-    <t>Emily Carr University of Art and Design</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/emilycarru?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Administrative Assistant / Customer Service Representative</t>
-  </si>
-  <si>
-    <t>Modu-Loc Fence Rentals LP</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/modu-loc-fence-rentals-ltd?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Site Superintendent</t>
-  </si>
-  <si>
-    <t>New City Contracting</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/new-city-contracting?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Accounts and Project Management Associate</t>
-  </si>
-  <si>
-    <t>War Room</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/war-room-inc-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant, Investment Advisor, IR</t>
-  </si>
-  <si>
-    <t>CIBC</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/cibc?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Housekeeping Manager - (15431)</t>
-  </si>
-  <si>
-    <t>Rosewood Hotel Georgia</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/%C2%A0rosewood-hotel-georgia?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Policy Analyst (Assistant Manager), Intergovernmental Relations</t>
-  </si>
-  <si>
-    <t>City of Vancouver</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/city-of-vancouver?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Manager - Merchandising (Full-Time) - Metropolis</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/gap-inc--gap?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Branch Manager</t>
-  </si>
-  <si>
-    <t>Westland Insurance Group Ltd.</t>
-  </si>
-  <si>
-    <t>Coquitlam, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/westlandinsurance?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Manager</t>
-  </si>
-  <si>
-    <t>Fountain Tire</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/fountain-tire?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Investment Associate</t>
-  </si>
-  <si>
-    <t>National Bank of Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/national-bank-of-canada?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Manager #1104 Vancouver, BC</t>
-  </si>
-  <si>
-    <t>Walmart Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/wal-mart-canada?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Foot Locker</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/footlocker?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>On-Site Manager / Property Manager Assistant</t>
-  </si>
-  <si>
-    <t>Workhoppers</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/workhoppers?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Proposal Coordinator</t>
-  </si>
-  <si>
-    <t>EllisDon</t>
-  </si>
-  <si>
-    <t>Greater Vancouver Metropolitan Area</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/ellisdon?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Donor Care Associate (Phlebotomist)</t>
-  </si>
-  <si>
-    <t>Canadian Blood Services</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/canadian-blood-services?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Retail Assistant Manager</t>
-  </si>
-  <si>
-    <t>Skechers</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/skechers?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Store Manager</t>
-  </si>
-  <si>
-    <t>Tommy Bahama</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/tommy-bahama1?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Team Lead</t>
-  </si>
-  <si>
-    <t>Roots Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/roots-canada?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Business Controller</t>
-  </si>
-  <si>
-    <t>Kiewit</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/kiewit?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Intellectual Property (IP) Legal Administrator</t>
-  </si>
-  <si>
-    <t>Zymeworks Inc.</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/zymeworks?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Manager, First Nations Schools Programs</t>
-  </si>
-  <si>
-    <t>First Nations Education Steering Committee</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/first-nations-education-steering-committee-fnesc?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Warehouse Sort Assistant</t>
-  </si>
-  <si>
-    <t>Greater Vancouver Food Bank</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/greater-vancouver-food-bank-society?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Champs Sports</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/champs-sports?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Construction Manager</t>
-  </si>
-  <si>
-    <t>McMillen Jacobs Associates</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/jacobs-associates?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Meat/Seafood Associate Team Leader (Assistant Department Manager), Full-Time</t>
-  </si>
-  <si>
-    <t>Whole Foods Market</t>
-  </si>
-  <si>
-    <t>North Vancouver, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/whole-foods-market?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Department Supervisor: Full Time</t>
-  </si>
-  <si>
-    <t>The Home Depot Canada</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/the-home-depot-canada?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Restaurant Assistant Manager</t>
-  </si>
-  <si>
-    <t>Freshslice Pizza</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/freshslice-franchise?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Customer Service Representative</t>
-  </si>
-  <si>
-    <t>U-Haul International, Inc</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/u-haul-international-inc-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Store Manager Canada</t>
-  </si>
-  <si>
-    <t>Journeys</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/journeys?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Project Manager</t>
-  </si>
-  <si>
-    <t>Hays</t>
-  </si>
-  <si>
-    <t>https://uk.linkedin.com/company/hays?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Media Health &amp; Safety Monitor (Field Based)</t>
-  </si>
-  <si>
-    <t>ERM: Environmental Resources Management</t>
-  </si>
-  <si>
-    <t>https://uk.linkedin.com/company/erm?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/subway?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Renovation Consultant</t>
-  </si>
-  <si>
-    <t>Skylight.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/skylight.?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Executive Assistant &amp; HR Administrator</t>
-  </si>
-  <si>
-    <t>LWS - Customer Service Associate - ProServices</t>
-  </si>
-  <si>
-    <t>Lowe's Companies, Inc.</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/lowe%27s-home-improvement?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Payroll Manager</t>
-  </si>
-  <si>
-    <t>Tree Island Steel</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/tree-island-steel-ltd-?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Personal Trainer</t>
-  </si>
-  <si>
-    <t>Good Life Fitness</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/good-life-fitness?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>White Rock, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>Little Burgundy Store Manager (Full-Time)</t>
-  </si>
-  <si>
-    <t>Little Burgundy Shoes</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/little-burgundy?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Retail Shop Manager on Duty, Vancouver - Equinox Fitness Clubs</t>
-  </si>
-  <si>
-    <t>Equinox</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/equinox?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Assistant Information Technology Manager - (15388)</t>
-  </si>
-  <si>
-    <t>Assistant Branch Manager (White Rock, Central Plaza)</t>
-  </si>
-  <si>
-    <t>IBABC - Instituto de biomedicina</t>
-  </si>
-  <si>
-    <t>https://br.linkedin.com/company/ibabc-instituto-de-biomedicina?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Legal Assistant - Labour &amp; Employment</t>
-  </si>
-  <si>
-    <t>Hunter West Legal Recruitment</t>
-  </si>
-  <si>
-    <t>Front Store Manager LG VOL</t>
-  </si>
-  <si>
-    <t>Shoppers Drug Mart</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/shoppers-drug-mart?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Department Supervisor – Full Time</t>
-  </si>
-  <si>
-    <t>Meat &amp; Seafood Team Leader (Department Manager), Full Time</t>
-  </si>
-  <si>
-    <t>Accountant - CPA</t>
-  </si>
-  <si>
-    <t>BackStretch Recruitment Group</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/backstretch-recruitment-group?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Media Health &amp; Safety Supervisor (Field Based)</t>
-  </si>
-  <si>
-    <t>Assistant Store Leader (Manager)</t>
-  </si>
-  <si>
-    <t>7-Eleven</t>
-  </si>
-  <si>
-    <t>Port Moody, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/7-eleven?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Manager in Training</t>
-  </si>
-  <si>
-    <t>restaurant assistant manager This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Site Superintendent - Building Envelopment</t>
-  </si>
-  <si>
-    <t>PA/Driver Vancouver</t>
-  </si>
-  <si>
-    <t>Attraction</t>
-  </si>
-  <si>
-    <t>Manager, Academic &amp; Administrative Services</t>
-  </si>
-  <si>
-    <t>MD Admissions Administrative Coordinator</t>
-  </si>
-  <si>
-    <t>LWS - Department Manager - Sales Floor</t>
-  </si>
-  <si>
-    <t>MOA - General Surgeon New Westminster</t>
-  </si>
-  <si>
-    <t>CANADIAN MEDICAL</t>
-  </si>
-  <si>
-    <t>https://cz.linkedin.com/company/canadian-medical-care?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>Air Conditioning Mechanic</t>
-  </si>
-  <si>
-    <t>Senior Litigation LAA</t>
-  </si>
-  <si>
-    <t>Forge Recruitment</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/company/forgerecruitment?trk=public_jobs_job-result-card_result-card_subtitle-click</t>
-  </si>
-  <si>
-    <t>administrative assistant - office This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>NUMIS Consulting Inc</t>
-  </si>
-  <si>
-    <t>Store Pricing Coordinator</t>
-  </si>
-  <si>
-    <t>Store Systems and Administration</t>
-  </si>
-  <si>
-    <t>office administrative assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Tooka Florist</t>
-  </si>
-  <si>
-    <t>Physiotherapist 2 - Long Term Care - Geriatric/Elderly/Long Term Care</t>
-  </si>
-  <si>
-    <t>marketing assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>PhoneBox</t>
-  </si>
-  <si>
-    <t>ENAGIC CANADA CORPORATION</t>
-  </si>
-  <si>
-    <t>Vancouver Asbestos Removal</t>
-  </si>
-  <si>
-    <t>office assistant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Cantronic Systems (Canada) Inc.</t>
-  </si>
-  <si>
-    <t>CRC CHOICE CONTRACTING LTD.</t>
-  </si>
-  <si>
-    <t>Maple Ridge, British Columbia, Canada</t>
-  </si>
-  <si>
-    <t>PROLINK SUPPLY LTD.</t>
-  </si>
-  <si>
-    <t>Housekeeping and Laundry Aides</t>
-  </si>
-  <si>
-    <t>Little Mountain</t>
-  </si>
-  <si>
-    <t>Infants' Daycare Worker</t>
-  </si>
-  <si>
-    <t>BrightStart Children's Academy Ltd.</t>
-  </si>
-  <si>
-    <t>Event Management Entry Level - Student Friendly Job - Full Time</t>
-  </si>
-  <si>
-    <t>Alliance Concepts Inc.</t>
-  </si>
-  <si>
-    <t>KFC Program Assistant (After school kids club)- 3 positions</t>
-  </si>
-  <si>
-    <t>The Salvation Army</t>
-  </si>
-  <si>
-    <t>early childhood educator (E.C.E.) This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>My Little School Daycare</t>
-  </si>
-  <si>
-    <t>early childhood educator assistant - kindergarten This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Roc Tone School Inc. DBA Harbourside Children's Centre</t>
-  </si>
-  <si>
-    <t>Early Childhood Educator Assistant - Kindergarten</t>
-  </si>
-  <si>
-    <t>Early Childhood Educator (E.C.E.)</t>
-  </si>
-  <si>
-    <t>ESL teachers needed in private schools! =&gt; Relocate to China</t>
-  </si>
-  <si>
-    <t>Shenyang SUNRISE Cultural Communication Co.,Ltd.</t>
-  </si>
-  <si>
-    <t>Baby Steps Infant and Toddler Care</t>
-  </si>
-  <si>
-    <t>Communications Officer / Executive Assistant</t>
-  </si>
-  <si>
-    <t>The Old School House Arts Centre</t>
-  </si>
-  <si>
-    <t>Administrators Needed</t>
-  </si>
-  <si>
-    <t>Agilus Work Solutions</t>
-  </si>
-  <si>
-    <t>Assistant Guest Service Manager</t>
-  </si>
-  <si>
-    <t>JOEY Coquitlam</t>
-  </si>
-  <si>
-    <t>Warehouse Assistant</t>
-  </si>
-  <si>
-    <t>Rubicon Organics</t>
-  </si>
-  <si>
-    <t>Assistant Manager: Serious Opportunity in Victoria</t>
-  </si>
-  <si>
-    <t>PeopleFind Inc.</t>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-retail-at-persia-food-products-inc-1948271905?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=1&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Manager, Restaurant</t>
+  </si>
+  <si>
+    <t>Sands Holdings Ltd. DBA Subway</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-restaurant-at-sands-holdings-ltd-dba-subway-1948277291?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=2&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Commercial Property Manager Assistant (18 Month Contract)</t>
   </si>
   <si>
-    <t>Assistant Manager - Retail</t>
-  </si>
-  <si>
-    <t>Assistant Manager, Restaurant</t>
-  </si>
-  <si>
-    <t>Sands Holdings Ltd. DBA Subway</t>
-  </si>
-  <si>
-    <t>Entry Level Representative -Customer Service/Marketing/Sales/Events</t>
+    <t>https://ca.linkedin.com/jobs/view/commercial-property-manager-assistant-18-month-contract-at-impact-recruitment-1942767981?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=4&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Robin Enterprises Ltd. dba Subway</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-at-robin-enterprises-ltd-dba-subway-1948559882?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=6&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1944673114?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=7&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/restaurant-assistant-manager-at-robin-enterprises-ltd-dba-subway-1941138121?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=9&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Assistant Restaurant Manager</t>
+  </si>
+  <si>
+    <t>0856319 BC Ltd dba Subway</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-restaurant-manager-at-0856319-bc-ltd-dba-subway-1939104663?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=11&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1946309104?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=12&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1947109067?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=13&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1948598187?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=14&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-serious-opportunity-in-victoria-at-peoplefind-inc-1948597273?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=15&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Farmers Market Manager</t>
+  </si>
+  <si>
+    <t>Grow Local Society - Tricities</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/farmers-market-manager-at-grow-local-society-tricities-1942525492?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=16&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>assistant manager, restaurant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>Sands Holdings Ltd. dba Subway</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-restaurant-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-sands-holdings-ltd-dba-subway-1950177566?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=17&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/farmers-market-manager-at-grow-local-society-tricities-1942526484?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=19&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Technician, Production</t>
@@ -1153,58 +1675,76 @@
     <t>New Beta Innovation Canada Limited</t>
   </si>
   <si>
+    <t>https://ca.linkedin.com/jobs/view/technician-production-at-new-beta-innovation-canada-limited-1941055814?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=21&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>assistant manager - retail This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-retail-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-persia-food-products-inc-1948497309?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=22&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/assistant-manager-retail-this-job-posting-has-been-provided-directly-by-the-employer-through-job-bank%E2%80%99s-employer-job-posting-system-at-persia-food-products-inc-1948502042?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=23&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
     <t>Moving2Canada</t>
   </si>
   <si>
-    <t>KARTAR KAUR INVESTMENTS LTD. D/B Subway</t>
-  </si>
-  <si>
-    <t>Product Designer</t>
-  </si>
-  <si>
-    <t>AG Globe Services</t>
-  </si>
-  <si>
-    <t>assistant manager, restaurant This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Sands Holdings Ltd. dba Subway</t>
-  </si>
-  <si>
-    <t>Robin Enterprises Ltd. dba Subway</t>
-  </si>
-  <si>
-    <t>assistant manager - retail This job posting has been provided directly by the employer through Job Bank’s employer job posting system.</t>
-  </si>
-  <si>
-    <t>Assistant Restaurant Manager</t>
-  </si>
-  <si>
-    <t>0856319 BC Ltd dba Subway</t>
-  </si>
-  <si>
-    <t>Internal Medicine</t>
+    <t>https://ca.linkedin.com/jobs/view/department-supervisor-full-time-at-moving2canada-1946261039?refId=c9088188-637a-483e-ad92-a6db03671200&amp;position=24&amp;pageNum=13&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Family Practitioner/General Practitioner</t>
   </si>
   <si>
     <t>HealthMatch BC</t>
   </si>
   <si>
-    <t>Family Practitioner/General Practitioner</t>
+    <t>https://ca.linkedin.com/jobs/view/family-practitioner-general-practitioner-at-healthmatch-bc-1938953888?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=1&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/family-practitioner-general-practitioner-at-healthmatch-bc-1947059657?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=2&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/family-practitioner-general-practitioner-at-healthmatch-bc-1946153838?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=3&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/farmers-market-manager-at-grow-local-society-tricities-1942525492?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=4&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/farmers-market-manager-at-grow-local-society-tricities-1942526484?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=5&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
+    <t>Confidential Senior Securities Paralegal - 4 day week</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/confidential-senior-securities-paralegal-4-day-week-at-hunter-west-legal-recruitment-1944606925?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=6&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
   <si>
     <t>Senior Technician, Production</t>
   </si>
   <si>
+    <t>https://ca.linkedin.com/jobs/view/senior-technician-production-at-new-beta-innovation-canada-limited-1941060212?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=7&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
     <t>Structural Superintendent - High-Rise Construction</t>
   </si>
   <si>
+    <t>https://ca.linkedin.com/jobs/view/structural-superintendent-high-rise-construction-at-impact-recruitment-1948941768?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=8&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
     <t>Finishing Superintendent - Port Coquitlam</t>
   </si>
   <si>
+    <t>https://ca.linkedin.com/jobs/view/finishing-superintendent-port-coquitlam-at-impact-recruitment-1948945085?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=9&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
+  </si>
+  <si>
     <t>Software Development Engineer, Alexa Devices</t>
   </si>
   <si>
     <t>Amazon.com, Inc</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/jobs/view/software-development-engineer-alexa-devices-at-amazon-com-inc-1938928662?refId=c06d254c-c975-41d9-87e2-d8b1445b4df9&amp;position=10&amp;pageNum=14&amp;trk=public_jobs_job-result-card_result-card_full-click</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,30 +2193,33 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1685,15 +2228,15 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1702,15 +2245,15 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1719,7 +2262,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1727,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1736,32 +2279,32 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1770,15 +2313,15 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1787,24 +2330,24 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1812,24 +2355,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1838,15 +2381,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1855,15 +2398,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1872,15 +2415,15 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1889,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1897,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1906,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1914,30 +2457,33 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1945,216 +2491,228 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -2162,285 +2720,288 @@
       <c r="D37" t="s">
         <v>13</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
@@ -2449,83 +3010,83 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
         <v>21</v>
@@ -2534,15 +3095,15 @@
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
         <v>21</v>
@@ -2551,581 +3112,593 @@
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
         <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
         <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
@@ -3134,21 +3707,24 @@
         <v>17</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3156,13 +3732,16 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3170,55 +3749,67 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
         <v>21</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3226,83 +3817,101 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3310,621 +3919,636 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="C108" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
+      <c r="E109" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="B139" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="C143" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
@@ -3933,134 +4557,134 @@
         <v>22</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="D147" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="B152" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
@@ -4069,66 +4693,66 @@
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="B154" t="s">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>203</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
@@ -4137,216 +4761,219 @@
         <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>193</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="B159" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="B160" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="B161" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="D161" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>257</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="C163" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C164" t="s">
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="B165" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C166" t="s">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="B167" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C167" t="s">
         <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>206</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="B168" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>260</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C170" t="s">
         <v>21</v>
@@ -4355,32 +4982,32 @@
         <v>22</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D171" t="s">
         <v>8</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="C172" t="s">
         <v>21</v>
@@ -4389,15 +5016,15 @@
         <v>17</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C173" t="s">
         <v>21</v>
@@ -4406,15 +5033,15 @@
         <v>17</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="B174" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -4423,32 +5050,32 @@
         <v>22</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="B175" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="C175" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
         <v>22</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>281</v>
+        <v>418</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -4456,27 +5083,30 @@
       <c r="D176" t="s">
         <v>22</v>
       </c>
+      <c r="E176" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>423</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
@@ -4488,32 +5118,32 @@
         <v>17</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>18</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="B179" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="C179" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="D179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -4522,15 +5152,15 @@
         <v>8</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>274</v>
+        <v>429</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C181" t="s">
         <v>21</v>
@@ -4539,15 +5169,15 @@
         <v>8</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>49</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="B182" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C182" t="s">
         <v>21</v>
@@ -4556,15 +5186,15 @@
         <v>17</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="C183" t="s">
         <v>21</v>
@@ -4573,46 +5203,49 @@
         <v>17</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>281</v>
+        <v>433</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s">
-        <v>323</v>
+        <v>155</v>
       </c>
       <c r="C185" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D185" t="s">
         <v>17</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>437</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -4621,15 +5254,15 @@
         <v>8</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>269</v>
+        <v>438</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="C187" t="s">
         <v>21</v>
@@ -4638,49 +5271,49 @@
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B188" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>274</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C189" t="s">
         <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>274</v>
+        <v>443</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="B190" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
@@ -4688,30 +5321,33 @@
       <c r="D190" t="s">
         <v>22</v>
       </c>
+      <c r="E190" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B191" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C191" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>274</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="B192" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C192" t="s">
         <v>21</v>
@@ -4720,15 +5356,15 @@
         <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>83</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -4737,15 +5373,15 @@
         <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>274</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -4753,13 +5389,16 @@
       <c r="D194" t="s">
         <v>8</v>
       </c>
+      <c r="E194" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>452</v>
       </c>
       <c r="B195" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -4768,60 +5407,66 @@
         <v>13</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>83</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="B196" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="B197" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C197" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
       </c>
+      <c r="E197" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B198" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
@@ -4830,29 +5475,32 @@
         <v>22</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
       <c r="B201" t="s">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
@@ -4860,195 +5508,237 @@
       <c r="D201" t="s">
         <v>22</v>
       </c>
+      <c r="E201" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B202" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C202" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D202" t="s">
         <v>22</v>
       </c>
+      <c r="E202" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="B203" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="C204" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B205" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="C205" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>340</v>
+        <v>455</v>
       </c>
       <c r="B206" t="s">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="C206" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="B207" t="s">
-        <v>318</v>
+        <v>469</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>470</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B208" t="s">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="C208" t="s">
-        <v>343</v>
+        <v>470</v>
       </c>
       <c r="D208" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="B209" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
       <c r="C209" t="s">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="D209" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="C210" t="s">
         <v>21</v>
       </c>
       <c r="D210" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>478</v>
       </c>
       <c r="C211" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="B213" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D213" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>345</v>
+        <v>484</v>
       </c>
       <c r="B214" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C214" t="s">
         <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="B215" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
@@ -5056,27 +5746,33 @@
       <c r="D215" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="B216" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>349</v>
+        <v>488</v>
       </c>
       <c r="B217" t="s">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
@@ -5084,13 +5780,16 @@
       <c r="D217" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>353</v>
+        <v>491</v>
       </c>
       <c r="B218" t="s">
-        <v>354</v>
+        <v>492</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
@@ -5098,27 +5797,33 @@
       <c r="D218" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>355</v>
+        <v>494</v>
       </c>
       <c r="B219" t="s">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="C219" t="s">
         <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>357</v>
+        <v>497</v>
       </c>
       <c r="B220" t="s">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
@@ -5126,41 +5831,50 @@
       <c r="D220" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>351</v>
+        <v>499</v>
       </c>
       <c r="B221" t="s">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="B222" t="s">
-        <v>354</v>
+        <v>492</v>
       </c>
       <c r="C222" t="s">
         <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="B223" t="s">
-        <v>360</v>
+        <v>505</v>
       </c>
       <c r="C223" t="s">
         <v>21</v>
@@ -5168,13 +5882,16 @@
       <c r="D223" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="B224" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
@@ -5182,13 +5899,16 @@
       <c r="D224" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>362</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="C225" t="s">
         <v>21</v>
@@ -5196,97 +5916,118 @@
       <c r="D225" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>364</v>
+        <v>512</v>
       </c>
       <c r="B226" t="s">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="C226" t="s">
         <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>366</v>
+        <v>515</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>516</v>
       </c>
       <c r="C227" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D227" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>368</v>
+        <v>518</v>
       </c>
       <c r="B228" t="s">
-        <v>369</v>
+        <v>519</v>
       </c>
       <c r="C228" t="s">
         <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="B229" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="C229" t="s">
         <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="B230" t="s">
-        <v>371</v>
+        <v>522</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>370</v>
+        <v>525</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>370</v>
+        <v>528</v>
       </c>
       <c r="B232" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
@@ -5294,153 +6035,186 @@
       <c r="D232" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>370</v>
+        <v>531</v>
       </c>
       <c r="B233" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="C233" t="s">
         <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B234" t="s">
-        <v>167</v>
+        <v>533</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D234" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>521</v>
       </c>
       <c r="B235" t="s">
-        <v>170</v>
+        <v>522</v>
       </c>
       <c r="C235" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B236" t="s">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D236" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="B237" t="s">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="C237" t="s">
         <v>21</v>
       </c>
       <c r="D237" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>521</v>
+      </c>
+      <c r="B238" t="s">
+        <v>522</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" t="s">
+        <v>75</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>521</v>
+      </c>
+      <c r="B239" t="s">
+        <v>522</v>
+      </c>
+      <c r="C239" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" t="s">
+        <v>75</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>521</v>
+      </c>
+      <c r="B240" t="s">
+        <v>522</v>
+      </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>376</v>
-      </c>
-      <c r="B238" t="s">
-        <v>350</v>
-      </c>
-      <c r="C238" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>377</v>
-      </c>
-      <c r="B239" t="s">
-        <v>378</v>
-      </c>
-      <c r="C239" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240" t="s">
-        <v>379</v>
-      </c>
-      <c r="C240" t="s">
-        <v>21</v>
-      </c>
-      <c r="D240" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>258</v>
+        <v>521</v>
       </c>
       <c r="B241" t="s">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="C241" t="s">
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="B242" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
       <c r="D242" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="B243" t="s">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="C243" t="s">
         <v>21</v>
@@ -5448,41 +6222,50 @@
       <c r="D243" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>544</v>
       </c>
       <c r="B244" t="s">
-        <v>385</v>
+        <v>545</v>
       </c>
       <c r="C244" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>258</v>
+        <v>551</v>
       </c>
       <c r="B245" t="s">
-        <v>385</v>
+        <v>552</v>
       </c>
       <c r="C245" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>386</v>
+        <v>554</v>
       </c>
       <c r="B246" t="s">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="C246" t="s">
         <v>21</v>
@@ -5490,13 +6273,16 @@
       <c r="D246" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>386</v>
+        <v>554</v>
       </c>
       <c r="B247" t="s">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5504,173 +6290,195 @@
       <c r="D247" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B248" t="s">
-        <v>388</v>
+        <v>557</v>
       </c>
       <c r="C248" t="s">
         <v>21</v>
       </c>
       <c r="D248" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>389</v>
+        <v>559</v>
       </c>
       <c r="B249" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
       <c r="C249" t="s">
         <v>21</v>
       </c>
       <c r="D249" t="s">
+        <v>55</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>559</v>
+      </c>
+      <c r="B250" t="s">
+        <v>560</v>
+      </c>
+      <c r="C250" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" t="s">
+        <v>75</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>559</v>
+      </c>
+      <c r="B251" t="s">
+        <v>560</v>
+      </c>
+      <c r="C251" t="s">
+        <v>211</v>
+      </c>
+      <c r="D251" t="s">
+        <v>75</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>544</v>
+      </c>
+      <c r="B252" t="s">
+        <v>545</v>
+      </c>
+      <c r="C252" t="s">
+        <v>427</v>
+      </c>
+      <c r="D252" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>391</v>
-      </c>
-      <c r="B250" t="s">
-        <v>390</v>
-      </c>
-      <c r="C250" t="s">
-        <v>21</v>
-      </c>
-      <c r="D250" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>392</v>
-      </c>
-      <c r="B251" t="s">
-        <v>378</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="E252" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>544</v>
+      </c>
+      <c r="B253" t="s">
+        <v>545</v>
+      </c>
+      <c r="C253" t="s">
+        <v>90</v>
+      </c>
+      <c r="D253" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>566</v>
+      </c>
+      <c r="B254" t="s">
+        <v>369</v>
+      </c>
+      <c r="C254" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>568</v>
+      </c>
+      <c r="B255" t="s">
+        <v>552</v>
+      </c>
+      <c r="C255" t="s">
         <v>7</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D255" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>381</v>
-      </c>
-      <c r="B252" t="s">
-        <v>382</v>
-      </c>
-      <c r="C252" t="s">
-        <v>21</v>
-      </c>
-      <c r="D252" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>393</v>
-      </c>
-      <c r="B253" t="s">
-        <v>167</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="E255" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>570</v>
+      </c>
+      <c r="B256" t="s">
+        <v>248</v>
+      </c>
+      <c r="C256" t="s">
         <v>7</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D256" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
-        <v>394</v>
-      </c>
-      <c r="B254" t="s">
-        <v>167</v>
-      </c>
-      <c r="C254" t="s">
-        <v>82</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="E256" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>572</v>
+      </c>
+      <c r="B257" t="s">
+        <v>248</v>
+      </c>
+      <c r="C257" t="s">
+        <v>90</v>
+      </c>
+      <c r="D257" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
-        <v>389</v>
-      </c>
-      <c r="B255" t="s">
-        <v>390</v>
-      </c>
-      <c r="C255" t="s">
-        <v>21</v>
-      </c>
-      <c r="D255" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>395</v>
-      </c>
-      <c r="B256" t="s">
-        <v>396</v>
-      </c>
-      <c r="C256" t="s">
-        <v>21</v>
-      </c>
-      <c r="D256" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>391</v>
-      </c>
-      <c r="B257" t="s">
-        <v>390</v>
-      </c>
-      <c r="C257" t="s">
-        <v>21</v>
-      </c>
-      <c r="D257" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>391</v>
+        <v>574</v>
       </c>
       <c r="B258" t="s">
-        <v>390</v>
+        <v>575</v>
       </c>
       <c r="C258" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
-        <v>391</v>
-      </c>
-      <c r="B259" t="s">
-        <v>390</v>
-      </c>
-      <c r="C259" t="s">
-        <v>21</v>
-      </c>
-      <c r="D259" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5679,165 +6487,259 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="E12" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E14" r:id="rId12"/>
-    <hyperlink ref="E15" r:id="rId13"/>
-    <hyperlink ref="E16" r:id="rId14"/>
-    <hyperlink ref="E17" r:id="rId15"/>
-    <hyperlink ref="E18" r:id="rId16"/>
-    <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E20" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
-    <hyperlink ref="E22" r:id="rId20"/>
-    <hyperlink ref="E24" r:id="rId21"/>
-    <hyperlink ref="E26" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E28" r:id="rId24"/>
-    <hyperlink ref="E29" r:id="rId25"/>
-    <hyperlink ref="E32" r:id="rId26"/>
-    <hyperlink ref="E33" r:id="rId27"/>
-    <hyperlink ref="E35" r:id="rId28"/>
-    <hyperlink ref="E36" r:id="rId29"/>
-    <hyperlink ref="E38" r:id="rId30"/>
-    <hyperlink ref="E39" r:id="rId31"/>
-    <hyperlink ref="E40" r:id="rId32"/>
-    <hyperlink ref="E41" r:id="rId33"/>
-    <hyperlink ref="E42" r:id="rId34"/>
-    <hyperlink ref="E43" r:id="rId35"/>
-    <hyperlink ref="E44" r:id="rId36"/>
-    <hyperlink ref="E45" r:id="rId37"/>
-    <hyperlink ref="E46" r:id="rId38"/>
-    <hyperlink ref="E47" r:id="rId39"/>
-    <hyperlink ref="E48" r:id="rId40"/>
-    <hyperlink ref="E49" r:id="rId41"/>
-    <hyperlink ref="E50" r:id="rId42"/>
-    <hyperlink ref="E51" r:id="rId43"/>
-    <hyperlink ref="E52" r:id="rId44"/>
-    <hyperlink ref="E53" r:id="rId45"/>
-    <hyperlink ref="E54" r:id="rId46"/>
-    <hyperlink ref="E55" r:id="rId47"/>
-    <hyperlink ref="E56" r:id="rId48"/>
-    <hyperlink ref="E57" r:id="rId49"/>
-    <hyperlink ref="E58" r:id="rId50"/>
-    <hyperlink ref="E59" r:id="rId51"/>
-    <hyperlink ref="E60" r:id="rId52"/>
-    <hyperlink ref="E61" r:id="rId53"/>
-    <hyperlink ref="E62" r:id="rId54"/>
-    <hyperlink ref="E63" r:id="rId55"/>
-    <hyperlink ref="E64" r:id="rId56"/>
-    <hyperlink ref="E66" r:id="rId57"/>
-    <hyperlink ref="E67" r:id="rId58"/>
-    <hyperlink ref="E68" r:id="rId59"/>
-    <hyperlink ref="E69" r:id="rId60"/>
-    <hyperlink ref="E70" r:id="rId61"/>
-    <hyperlink ref="E71" r:id="rId62"/>
-    <hyperlink ref="E73" r:id="rId63"/>
-    <hyperlink ref="E74" r:id="rId64"/>
-    <hyperlink ref="E75" r:id="rId65"/>
-    <hyperlink ref="E76" r:id="rId66"/>
-    <hyperlink ref="E77" r:id="rId67"/>
-    <hyperlink ref="E78" r:id="rId68"/>
-    <hyperlink ref="E79" r:id="rId69"/>
-    <hyperlink ref="E80" r:id="rId70"/>
-    <hyperlink ref="E81" r:id="rId71"/>
-    <hyperlink ref="E82" r:id="rId72"/>
-    <hyperlink ref="E83" r:id="rId73"/>
-    <hyperlink ref="E84" r:id="rId74"/>
-    <hyperlink ref="E85" r:id="rId75"/>
-    <hyperlink ref="E87" r:id="rId76"/>
-    <hyperlink ref="E88" r:id="rId77"/>
-    <hyperlink ref="E89" r:id="rId78"/>
-    <hyperlink ref="E90" r:id="rId79"/>
-    <hyperlink ref="E91" r:id="rId80"/>
-    <hyperlink ref="E92" r:id="rId81"/>
-    <hyperlink ref="E93" r:id="rId82"/>
-    <hyperlink ref="E95" r:id="rId83"/>
-    <hyperlink ref="E112" r:id="rId84"/>
-    <hyperlink ref="E114" r:id="rId85"/>
-    <hyperlink ref="E115" r:id="rId86"/>
-    <hyperlink ref="E116" r:id="rId87"/>
-    <hyperlink ref="E117" r:id="rId88"/>
-    <hyperlink ref="E118" r:id="rId89"/>
-    <hyperlink ref="E119" r:id="rId90"/>
-    <hyperlink ref="E120" r:id="rId91"/>
-    <hyperlink ref="E121" r:id="rId92"/>
-    <hyperlink ref="E122" r:id="rId93"/>
-    <hyperlink ref="E123" r:id="rId94"/>
-    <hyperlink ref="E124" r:id="rId95"/>
-    <hyperlink ref="E125" r:id="rId96"/>
-    <hyperlink ref="E126" r:id="rId97"/>
-    <hyperlink ref="E127" r:id="rId98"/>
-    <hyperlink ref="E128" r:id="rId99"/>
-    <hyperlink ref="E129" r:id="rId100"/>
-    <hyperlink ref="E130" r:id="rId101"/>
-    <hyperlink ref="E131" r:id="rId102"/>
-    <hyperlink ref="E132" r:id="rId103"/>
-    <hyperlink ref="E133" r:id="rId104"/>
-    <hyperlink ref="E134" r:id="rId105"/>
-    <hyperlink ref="E135" r:id="rId106"/>
-    <hyperlink ref="E136" r:id="rId107"/>
-    <hyperlink ref="E137" r:id="rId108"/>
-    <hyperlink ref="E138" r:id="rId109"/>
-    <hyperlink ref="E139" r:id="rId110"/>
-    <hyperlink ref="E140" r:id="rId111"/>
-    <hyperlink ref="E141" r:id="rId112"/>
-    <hyperlink ref="E142" r:id="rId113"/>
-    <hyperlink ref="E143" r:id="rId114"/>
-    <hyperlink ref="E144" r:id="rId115"/>
-    <hyperlink ref="E145" r:id="rId116"/>
-    <hyperlink ref="E146" r:id="rId117"/>
-    <hyperlink ref="E147" r:id="rId118"/>
-    <hyperlink ref="E148" r:id="rId119"/>
-    <hyperlink ref="E149" r:id="rId120"/>
-    <hyperlink ref="E150" r:id="rId121"/>
-    <hyperlink ref="E151" r:id="rId122"/>
-    <hyperlink ref="E152" r:id="rId123"/>
-    <hyperlink ref="E153" r:id="rId124"/>
-    <hyperlink ref="E154" r:id="rId125"/>
-    <hyperlink ref="E155" r:id="rId126"/>
-    <hyperlink ref="E156" r:id="rId127"/>
-    <hyperlink ref="E157" r:id="rId128"/>
-    <hyperlink ref="E158" r:id="rId129"/>
-    <hyperlink ref="E159" r:id="rId130"/>
-    <hyperlink ref="E161" r:id="rId131"/>
-    <hyperlink ref="E162" r:id="rId132"/>
-    <hyperlink ref="E163" r:id="rId133"/>
-    <hyperlink ref="E164" r:id="rId134"/>
-    <hyperlink ref="E165" r:id="rId135"/>
-    <hyperlink ref="E166" r:id="rId136"/>
-    <hyperlink ref="E167" r:id="rId137"/>
-    <hyperlink ref="E168" r:id="rId138"/>
-    <hyperlink ref="E169" r:id="rId139"/>
-    <hyperlink ref="E170" r:id="rId140"/>
-    <hyperlink ref="E171" r:id="rId141"/>
-    <hyperlink ref="E172" r:id="rId142"/>
-    <hyperlink ref="E173" r:id="rId143"/>
-    <hyperlink ref="E174" r:id="rId144"/>
-    <hyperlink ref="E175" r:id="rId145"/>
-    <hyperlink ref="E177" r:id="rId146"/>
-    <hyperlink ref="E178" r:id="rId147"/>
-    <hyperlink ref="E179" r:id="rId148"/>
-    <hyperlink ref="E180" r:id="rId149"/>
-    <hyperlink ref="E181" r:id="rId150"/>
-    <hyperlink ref="E182" r:id="rId151"/>
-    <hyperlink ref="E183" r:id="rId152"/>
-    <hyperlink ref="E185" r:id="rId153"/>
-    <hyperlink ref="E186" r:id="rId154"/>
-    <hyperlink ref="E187" r:id="rId155"/>
-    <hyperlink ref="E188" r:id="rId156"/>
-    <hyperlink ref="E189" r:id="rId157"/>
-    <hyperlink ref="E191" r:id="rId158"/>
-    <hyperlink ref="E192" r:id="rId159"/>
-    <hyperlink ref="E193" r:id="rId160"/>
-    <hyperlink ref="E195" r:id="rId161"/>
-    <hyperlink ref="E196" r:id="rId162"/>
-    <hyperlink ref="E199" r:id="rId163"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E187" r:id="rId186"/>
+    <hyperlink ref="E188" r:id="rId187"/>
+    <hyperlink ref="E189" r:id="rId188"/>
+    <hyperlink ref="E190" r:id="rId189"/>
+    <hyperlink ref="E191" r:id="rId190"/>
+    <hyperlink ref="E192" r:id="rId191"/>
+    <hyperlink ref="E193" r:id="rId192"/>
+    <hyperlink ref="E194" r:id="rId193"/>
+    <hyperlink ref="E195" r:id="rId194"/>
+    <hyperlink ref="E196" r:id="rId195"/>
+    <hyperlink ref="E197" r:id="rId196"/>
+    <hyperlink ref="E198" r:id="rId197"/>
+    <hyperlink ref="E199" r:id="rId198"/>
+    <hyperlink ref="E200" r:id="rId199"/>
+    <hyperlink ref="E201" r:id="rId200"/>
+    <hyperlink ref="E202" r:id="rId201"/>
+    <hyperlink ref="E203" r:id="rId202"/>
+    <hyperlink ref="E204" r:id="rId203"/>
+    <hyperlink ref="E205" r:id="rId204"/>
+    <hyperlink ref="E206" r:id="rId205"/>
+    <hyperlink ref="E207" r:id="rId206"/>
+    <hyperlink ref="E208" r:id="rId207"/>
+    <hyperlink ref="E209" r:id="rId208"/>
+    <hyperlink ref="E210" r:id="rId209"/>
+    <hyperlink ref="E211" r:id="rId210"/>
+    <hyperlink ref="E212" r:id="rId211"/>
+    <hyperlink ref="E213" r:id="rId212"/>
+    <hyperlink ref="E214" r:id="rId213"/>
+    <hyperlink ref="E215" r:id="rId214"/>
+    <hyperlink ref="E216" r:id="rId215"/>
+    <hyperlink ref="E217" r:id="rId216"/>
+    <hyperlink ref="E218" r:id="rId217"/>
+    <hyperlink ref="E219" r:id="rId218"/>
+    <hyperlink ref="E220" r:id="rId219"/>
+    <hyperlink ref="E221" r:id="rId220"/>
+    <hyperlink ref="E222" r:id="rId221"/>
+    <hyperlink ref="E223" r:id="rId222"/>
+    <hyperlink ref="E224" r:id="rId223"/>
+    <hyperlink ref="E225" r:id="rId224"/>
+    <hyperlink ref="E226" r:id="rId225"/>
+    <hyperlink ref="E227" r:id="rId226"/>
+    <hyperlink ref="E228" r:id="rId227"/>
+    <hyperlink ref="E229" r:id="rId228"/>
+    <hyperlink ref="E230" r:id="rId229"/>
+    <hyperlink ref="E231" r:id="rId230"/>
+    <hyperlink ref="E232" r:id="rId231"/>
+    <hyperlink ref="E233" r:id="rId232"/>
+    <hyperlink ref="E234" r:id="rId233"/>
+    <hyperlink ref="E235" r:id="rId234"/>
+    <hyperlink ref="E236" r:id="rId235"/>
+    <hyperlink ref="E237" r:id="rId236"/>
+    <hyperlink ref="E238" r:id="rId237"/>
+    <hyperlink ref="E239" r:id="rId238"/>
+    <hyperlink ref="E240" r:id="rId239"/>
+    <hyperlink ref="E241" r:id="rId240"/>
+    <hyperlink ref="E242" r:id="rId241"/>
+    <hyperlink ref="E243" r:id="rId242"/>
+    <hyperlink ref="E244" r:id="rId243"/>
+    <hyperlink ref="E245" r:id="rId244"/>
+    <hyperlink ref="E246" r:id="rId245"/>
+    <hyperlink ref="E247" r:id="rId246"/>
+    <hyperlink ref="E248" r:id="rId247"/>
+    <hyperlink ref="E249" r:id="rId248"/>
+    <hyperlink ref="E250" r:id="rId249"/>
+    <hyperlink ref="E251" r:id="rId250"/>
+    <hyperlink ref="E252" r:id="rId251"/>
+    <hyperlink ref="E253" r:id="rId252"/>
+    <hyperlink ref="E254" r:id="rId253"/>
+    <hyperlink ref="E255" r:id="rId254"/>
+    <hyperlink ref="E256" r:id="rId255"/>
+    <hyperlink ref="E257" r:id="rId256"/>
+    <hyperlink ref="E258" r:id="rId257"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="325">
   <si>
     <t>Company</t>
   </si>
@@ -31,844 +31,928 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Smiles By Pocock</t>
-  </si>
-  <si>
-    <t>Orthodontic Lab Assistant</t>
+    <t>Trulioo</t>
+  </si>
+  <si>
+    <t>Accounting Assistant</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6EGmjn1OqI6xIyqJQAHh7r1kULZF86X39mm485H7VJsE3uW-QdqEh1s8Za7WrySlUbt3KCw7xMLBAnXQ3GEXgAZ6tQRWAVFzPDjJynXS426_maduWiuq0rm6caYSCzmrA-UlCqjWo7ey4V71Kbh7TLoROcOJrL9D5wXdHD2STryUsugNRMQU1UFgaU1lKxJMgpkFML6KN5YsWKF8PZyPbZY_T762tvk3rPEYUQcX8lsl-ttGTovH00BUKnn2kDl4CjzkSx64xWoPOEpveIj7z63yOawtAQXhPUYsrXj4SfEebKCt7iW-v3B3_GTmTilQeoz-sjsvXSnoek1idNIh-tl--RWQUBZ62Pm_DQsDyApnTijsFwKTwaN9VbisysCW2YRV4z3EzLkZVYpvHJM_9HBXNvC9e1_E7eRFeHx48YdKVE7KMtwETXNfOp0vxZROxFP22Wp4-6EXua3ADjLos&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>CIBC</t>
-  </si>
-  <si>
-    <t>Mobile Mortgage Advisor Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi0lGgnVEz0jnynBRLUCqWddhDUAhCXh4bN4vz1IWRCILBgmRXhRndwYxqcqlXDgH7XWTjaJ7l09_tO1vk5wEsTmT2v1XJ54a6HiZm4Ja4eHiQvABIwWP31_n47Y7E_hWkL7xhO3kL1C9LAxft0xm9B87h6xpTPQOqqLkN46l1PdCtPGN-XcktoLTCJnfxEE8RFrvqQWQpfCZ-3IGV36VXpj0SbSVTwPq0Xwo-rghCmQWZ40fY1iCqGYMXuYHHEgRm7UfnEND_oC_IClhUiLyaaMqITJlVU-mec_ZEcGFJLS3ZMPhztIhJ2ofVBTdXgoBF1RAW6mpA_X45zgcQElbfDpcX4nEU787FeFnyEY_BR6nUAoTVQA3nsvmTmOCZS8dQYOA5t_5TYJfyqs_I1PfBwZ&amp;p=1&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Stryder</t>
-  </si>
-  <si>
-    <t>Data Entry Clerk</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjf3WR9SOEjwEn39I0hSuyiADW7EoFE35FN0cW8a2r8boPNS0_d9lXWix8LUkDCdaQYXJs4STho5JDvsFVurAqfI9hHoGBBbh0qpfVqfhP7LqPXqf5fW5hHiZbYrn1tm0I0zgcpdtFkX9CFZxoFb4PsIr_7hmfnX3lCu3MSW0ETAXkgrbxgGtJZjCCtsHZfa-qDBVogaAyYjJHYIRIHlkMTlhv7E-55eSWtojwxEnUutY7dBkvCZ-7tGQKYcgRv8KRCSYNEPaJA10avjKafMMRj0w==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Smart Travels Club</t>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_6fb1184b&amp;cb=1594935689298&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>BC Centre for Excellence in HIV/AIDS</t>
   </si>
   <si>
     <t>Administrative Assistant</t>
   </si>
   <si>
-    <t>https://ca.indeed.com//company/Smart-Travels-Club/jobs/Administrative-Assistant-23d86fcd8228c4d3?fccid=a3832d2149a85930&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>GTM Real Estate Group</t>
-  </si>
-  <si>
-    <t>Administrative Assistant &amp; Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP28rbWOQhhRKjfcbPgZy7bta7E3crr3zy_IAojEAGz4lRedb6dLaxbg_BV2FjTtRQ-wI-h3NDFHh9Z8Ysz7CrQBrZZgIBxWr7hQgttVFQmOuzWYRCYJOtliJqCu6rNkPcQITQMMMcLXPCPmWhTSMGzbUPcSlOXy3OURsE2k0MUqStC0hRYxHjcIDMqXqoLuOTyt5nuWB81klEtZNOFjLGBtmrkMHrV5jn4n0O-p56m1gX7eCnElqJc2EZO0QVq0zCiXzsvj9gKV2L6YgrfUIjF_xt02WabS6Pj7uYmF7G-OCs=&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Mariner Seafoods Ltd</t>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_938cf987&amp;cb=1594935689298&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>Huawei Technologies Canada Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Project Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_be01cc97&amp;cb=1594935689298&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>Jacob Bros Construction</t>
+  </si>
+  <si>
+    <t>Survey Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d95730f4&amp;cb=1594935689299&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>Nexii</t>
+  </si>
+  <si>
+    <t>Assistant to the CEO</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_286a83e2&amp;cb=1594935689299&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>Program Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=3949&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2475d990&amp;cb=1594935689299&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>Point Blank Creative</t>
+  </si>
+  <si>
+    <t>Executive Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=14295&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_32d663fb&amp;cb=1594935689299&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>Concert Properties</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_98375e68&amp;cb=1594935689299&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>BRON Studios</t>
+  </si>
+  <si>
+    <t>Assistant Editor</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=14295&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_55e61eb6&amp;cb=1594935689299&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_cec88698&amp;cb=1594935689299&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>Immigration Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_03110644&amp;cb=1594935689299&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>Sugarfina</t>
+  </si>
+  <si>
+    <t>Assistant Shop Leader</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_012b780b&amp;cb=1594935689299&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>Targeted Talent</t>
+  </si>
+  <si>
+    <t>Legal Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=148364&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5d4ad362&amp;cb=1594935689299&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>Forum Home Appliances Inc.</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_313a59a6&amp;cb=1594935689300&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>Richmond Steel Recycling</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=483012&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_dde1a9b2&amp;cb=1594935689300&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>Freedom Mobile</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=37049&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5178212a&amp;cb=1594935689300&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>GeoScan Subsurface Surveys</t>
+  </si>
+  <si>
+    <t>Human Resources Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=66506&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_5cf23a19&amp;cb=1594935689300&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>Engineers and Geoscientists BC</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=483012&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_413b4794&amp;cb=1594935689300&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>Shaw Communications</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=37049&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6f38a627&amp;cb=1594935689300&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>TELUS</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0feee70b&amp;cb=1594935689300&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>Swiss Post Solutions</t>
+  </si>
+  <si>
+    <t>Receptionist/Office Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_dce7177a&amp;cb=1594935689300&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>Drake International</t>
+  </si>
+  <si>
+    <t>Administrative Assistant - Reception</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=102921&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_7973f114&amp;cb=1594935689300&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>Nelcos Distribution Inc</t>
   </si>
   <si>
     <t>Operations Assistant</t>
   </si>
   <si>
-    <t>https://ca.indeed.com//company/Mariner-Seafoods-Ltd/jobs/Operation-Assistant-5508077b99faba14?fccid=26ee670af4444bcf&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>iFinance Canada Inc.</t>
-  </si>
-  <si>
-    <t>Bilingual Junior Marketing &amp; Admin Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqL5RDpQt1HA3QTCsnnn8U3e2rYtxk2c3IKWUbq1e8KXe5zJKH9cjSIv0-b_F04-DAL1PWrrYrMmVpyNFnnqo7cYrvSjygW9_oUaRaTshjbZzRO0yhIjfBpHc_D3YtReBoz7bhZue77x5afngTsvGHpXmrTVKt9BbJILKoMr5nxuQsYm8q1hJWPYDvaTBtBP_LQVwxqQI0YmpfaA0B7TVWJKAGkyc1Ffxgmx0I9PhsgYMwMlhMLlgqD2O1HunWxLGYv-RUySeHYs5bCyFBk1T27fr3oaukLIcVjsOj3yxrFA2&amp;p=6&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Alex Visa Immigration Services Inc.</t>
-  </si>
-  <si>
-    <t>administrative assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=1801d02d959d3fa6&amp;fccid=c16cf6a6323c3c19&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Dr. Bill - RBC Ventures</t>
-  </si>
-  <si>
-    <t>Admin/Data Entry</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Dr.-Bill/jobs/Admin-Data-Entry-6fdfb7b743456878?fccid=95db39e7258800e3&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Vancouver Coastal Health</t>
-  </si>
-  <si>
-    <t>Receptionist/Clerk/Typist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=1906631cbf8a0d5f&amp;fccid=3513825c36972737&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Psychodynamic Counselling Inc.</t>
-  </si>
-  <si>
-    <t>psychological assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=992aff2fcd54cb9d&amp;fccid=9c31b2c880064116&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>GENEX DIAGNOSTICS INC</t>
-  </si>
-  <si>
-    <t>Administrative and Marketing Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/GENEX-DIAGNOSTICS-INC/jobs/Administrative-Marketing-Assistant-89e746ede7e25273?fccid=349f2a2018f54153&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=e4828a92685f9c48&amp;fccid=3513825c36972737&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>iData Research Inc.</t>
-  </si>
-  <si>
-    <t>Research Assistant/Analyst (Fresh Grads Welcome)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/iData-Research-Inc./jobs/Research-Assistant-Analyst-50530f736ddf933c?fccid=09616331811b497e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>College of Physicians and Surgeons of British Colu...</t>
-  </si>
-  <si>
-    <t>Administrative Assistant (0.6 FTE)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=2a9421906cbc6257&amp;fccid=dd5a46ab1f87a89d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfV9DbqGc3LGstgq4u1ZThgd2Eq2ylzcMa5oTrGf-6J-tEsv044O83ruKfLUVdrIBwU-78JaGlOQO-9SZSTYjpUe-HtZn1z40sMwgM9vZ2UIn-SwvmO-uoCUpktQv_l9U9a0EZELmsXBGjY9BaWMnfGQjKKWykyTTrJ3KhTgm9RndY0HebSKURwibNJpuBwSnZsTnQSyRwp_utd8q7pm395oi7m2qOm8LHHyW6BBzgmxkVomgWlopkG20e7U-A0ht35LjOC8POQCWP8R4HdmldRw==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Future Living Developments</t>
-  </si>
-  <si>
-    <t>Construction Site Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPmUfdpVtpHnv6SMKQJN1grkDKLkenUHOdIo-f3r6_giQmadOm1KyHfamOhfVEl5Hjr7tOmzciVKx_WW4mbNVUcmiPycOdoE7sPk0UiXDo29DONrmuaTF31vK1l1JOjYRRDjbV9Wb3XKyT-eTwovQUK7gUgTQOfv5qofYrFXkKCRtfiDJsy7B1VoUapqtqstx-9wVTO1Ae1AQAR8p67FTmfDYZbUID-WxDq2hEgHNGNiZsGg5rAUxiu0ANvCH9ysz6TM9tblWLmX3r97v3lybplJEgihnI-_PW&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Nelcos Distribution Inc</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Nelcos/jobs/Operation-Assistant-0921aea723e7730d?fccid=f2eb369f21a22495&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Fire-Pro Fire Protection</t>
-  </si>
-  <si>
-    <t>Office Coordinator</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Fire--Pro-Fire-Protection/jobs/Office-Coordinator-da72730d53a5d147?fccid=b278c014b926d1ec&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>GI Research Institute</t>
-  </si>
-  <si>
-    <t>Research Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/GI-Research-Institute/jobs/Research-Assistant-43f7f44bdc71934c?fccid=fc36a54a5646796d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Taseko Mines</t>
-  </si>
-  <si>
-    <t>Executive Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=5940b1ca7546d937&amp;fccid=08c37e3a4ce35e4d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Langara College</t>
-  </si>
-  <si>
-    <t>Assistant, RES, Graduation &amp; Transfer Credit</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=493b2e3e21f2a412&amp;fccid=45b82f277883e4ea&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>TELUS</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=b137c9e982c0fc45&amp;fccid=4512634d9e7338a8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Christine Kopr Realty</t>
-  </si>
-  <si>
-    <t>Real Estate Administrative Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Christine-Kopr-Realty/jobs/Real-Estate-Administrative-Assistant-829605dd110205ee?fccid=4e18f7860a3d0d06&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Progressive Intercultural Community Services Socie...</t>
-  </si>
-  <si>
-    <t>Program Assistant and Facilitator</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Progressive-Intercultural-Community-Services/jobs/Program-Assistant-Facilitator-d62cd917989f137e?fccid=949abc95a822f4d2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>PHSA</t>
-  </si>
-  <si>
-    <t>Administrative Assistant, Perinatal Services</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=613878c911fcda07&amp;fccid=f66f721a44de3765&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>KT International Education Corporation</t>
-  </si>
-  <si>
-    <t>Resource Teacher/Teaching Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0DNrH_ZtU2dbziMEFDGw9D6_CWdmL_ZpIemqDHmFxCd56f2zmd0bkuiUp7RZ3UDniFTgz9p4O9ukvC_Xuq6iQfFUxclvcbZ_6v38q5fx04lpAkK_BWONBTOSYtQHlqplbflvVV90wjC3Ijglb7LeHhtCCL4KCZX4xGTzsEdi5OSRCO9L-W7cdxiUNsFe_8bJy-PwKDDY01S0gGuN_Kbl2mdJLvcvSC81kUMenbPKLmUET5pUIwbPx-mBj3Fnpk5iHgQo4mISZrYLrH1mMHzQhw1bZAmTPE5DZ07a4AGKdKHiEcbOB8to1PmN5JFhsAnf5kAQVsZ67uql2W43wDV0rn1OSbQB8CWfKTE97maxXKra4IgHLI8bnw25rutXBmpun_x55h1fMm2Rxujr7PZTgj29R-qp4EnhfkBGWsYMXo-4t-tcrGfG-qPnLs21ufmqtBCMWEy1-C0VuwkZmebKIfk&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP227nC5WwYDQHwotb7_jcPcGkM6CfWUZc_mUtDlw7RuXDOXGUelJuMZC3sCgt2MWx5-qsudasCuARWEqdMIKJpxXcy60-L8R-gyn1sU5rkWQUIXfCbAyG1mcIVhhsrYWjd5DP9UxG8Mh5EhdXAAA-3tp-fAu-UsFQ-IUPUhH0jkW2-Eeb4sDdLxYadpK6cyZjdBIYJ3tvXpPNj9QXDBgPxQRzmXjeb2P9eLioYA-j6Sj0MJDPFWcvQM9l22RFKsKicHuDdviUhW7cl9635A_5Tk8qBUZHA9vMGfj-g9F57G44=&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dvz8Va28BG_GOOGAowN3kNZlK-7bafkuqu2atK1HobewJRgJneRaig8aIteW5M-VJ0RDbntthccSdgLN_6kby6oPFg6R0s3avOM56OW4NAHvXNY1xVAHvNoJUmoSr5O6EGyLyWGsr5hIM6yD8YhiIwX7jdPeFySbCQWm6_yBz5fa4rVVW3FMryWCkH58gq5ehhBSucDlKleSN5hAxhAS4DqALf1kSKS-BEQ2cCxX0flFm3b-QkOLwzPt9U1zemTfLDC8yQSnbEJ8IwuVAu-mOIHpsANQY2Z6G8bxlWxAsj9xTqX_8OjuV18tPM8_we93w5ZdNTBcw0aLIge7U9N5uagP1WB9AM32loJkb4QCTlCJFvbIuLZrZQY3kkNLlfJxJVhQmQ7sH4fSenxIuEjAAcQM7-j9Ud-MLZ047jmjYYxfLnhffzRHQtChTGntOS1vJvw2vir3jXzg==&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi3G7eYidRud3zw1m8NRFTpvmd81-ZECuYrvZswFcIkPpUMWKyhgMZEXO1ufD2mxuBz5457Av5YduiljvdZjzrUkzCGPi4ZZjFZciPnngEPrmVb5mLPNj4V4Kjh4k9i5JCr-wwOyv5GSAnhi0KfH5JxLbWkKsCEyz7z37-8EmqOy_UTnqq3nKLkmlG-q0OWKdNF5DRl0DckKT36sayKTptL04tOJV-sK1GFbq8VGL4TmjSdGMpHLP-SmNU8BtTOUx3M4-4ZopWNotHgNwucNyi0vZ3FHwn5TB1EnmFDs6f59cPnLXFA5bJFL4vlE5cW8w0OFHli8rRLNb0jXHnxatokXwTEzy7F1x2xQsxm_lNuJ02Myk199H68RI4WCyjErhaOEp3Vvkg5pih0EyfQD0_ES&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2I2543XP77a281UoB_GxWK1gzcGMcWRZRM5ZOPeZVE6Lj9hg33fPkz5LYo7D8prUa5x0jDsMCHEtmGysFOkJZe13C_WbHVO37GZVgU9TdG8t7WnHFVPd65xR5Tx-HWy5D3eHQjLFgRjmIlpSAKAlrD63IPNJSvHzyU1BSHUMlnxqvxmCb-V-WfOVeSPtwQ-VJ2I6q5ELC0o4F80IzN3-zMt2_L9jrVKQOe-r2CJnMtLoihpMbRpdtFAUZiYlsstfe1bwWhCjjbHnL3GeEaxVjU3MsBl-gi48dqk2Zpmz9vQQ=&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Pine Family Dental</t>
-  </si>
-  <si>
-    <t>Dental Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C_jYOSeFX6Gz-4GRGJ1EMeEoTOS6nXPOpdiCEA9HDb3rJri4Btt0JqTynTcEfgtQJMQLOI3NBQFE_F5vVZkzG0l0g-bZhb0jJxv1aKRK8R7lQ3j8nhi8iOmTtSnpQNfWjk7sTZnDeZQIIguJSwOmcOio-B4Sp2SUyq7rxgOPski9M3d-st5SV86vWAYCWQsQNvzJtEUZMS58MjtkNAgjNOi6pd7e5bcbc32p1PMpxc2WekCRpvkQIjfvk_Syej9q_0MMahcw8yxUgmjHrxW3aC6JTCwC4NAz65V0F3EolhybrDlM8_yApA9KMTL8utJu-C6l1UL0SHHynOq3wZnacL3NHLP7JNVdikA9S7sfVm98KNRMjSg5GXJ6aHdcKuft9Vv0DGaDIvAUnksjarrMGNJ4MQrbJWQhxHgKLq9q31pLCVvB4-foAkMgK3Um9WrE4i93OXIPBUjA==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfHyZWbDDoFiPkIw9_kavlspencXXF_QTLqu79zqk29gbeZwHgenMs7y69NdXuuPUOrDQDKJiqtYicUN0pzzGO_QbPW_I1aAKK7Ge6iRwgsqg941wswj9jY4-hvavE45_2nyVrQxfJKdtFQwHZ9x-wIycIzdGTjEqDGSK-MxVVyei7K3WD_nLQMtCxRxXDSzX_CqBGkZp7fhCf7SjAFwf35nbYEC5qHSrCMXQxMMLJCPqO0CXrg3MI9r_LUMmMQ4YGyElvfIZqjKkM--_tS_t4ZA==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>TerraCana Foundation Solutions Inc.</t>
-  </si>
-  <si>
-    <t>Driller's Assistant for Micropiling</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dv3akfkDSIJNDIaM4IYdlGx62_DOB900Nj-reuzWuvY16QqBRRCGRRM5CnZWpfuR0-BmhcKyqFSIpMWTg1v48WHbZiQH5bpvB79tTJm-gm4QxWWybTeEzb47gdH6ZAatpPq4gm9Cta8zlUV5jCounS5heSven4kB3x4a-BpZXw8RyN7XeoVBWjEpA7BWIaMMH1nkU-_dKopjCTyJiWiLfu1p4dOzIB3OM4haZWXeUl75hmmD0nQFL_lXXcF8xVcdm9BloTfvYMpsnqSRPaLO39UYpGjA-T2sflRNuJf_vYEdRg6tmU1esu6cCtzjQizdeKmQFDr6vr5ARxO_XB9yIyJnu3Qsz5HKfQJ5ZZRSQ_2Z-LeEzG3cHvPIKmyzl9oEY620IXDOhJWSHadz5pzG9b0S5bsRK4gOLBVovLalK-9v-QeusGwVK0WzBWqWbiHp5wP-UvGU4IuhsSqQhrTeyV&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi2F6_YfM_UHD7gg8w2HB-XfftdAR5tkyIayE78kvUoqT_rjeOyLCrzYfhBd-Jb8z0BKEIbXdIrraSfTaxmAmAm1swPsonkxet8lNBzZgKZs6uRwGx4t0xujTIzO_rkbg_RtVjkRKHZqZ5X1uJ4vjeveqsx95CjjEvcMuJ56MeB2F7uTjHguvCjLTKuv6akaNmOvTy_4FObXq3bhJp1nc-FZ-kI98BWi3ySwE1H-zsUBXnJl-6EssPFP9qmzUpkIqGnt3Ijf6VajQ2QhcS-HmCvBIpMWz8nfbqIBqO4kPGKnnfxQnbdZofiFZCCI-agHXiExQOK40dHfyM-d6EGa8vwFbJU0EO8O7T_3-UGTAlg8CkGs_orjH6asx3EoQ6jqviKoKy6gL4RTMXjLqxvq6EHd&amp;p=4&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPe-7Xfl9NpiJcBqOCdIv4XkGHa7elLDPgE5VJ1JinZ0j6tH_u8gjH2E7RFoZ2JPZHZDjFq3L0kwPHdY2L_bo6JybVvrosHoiPMdJ4tdftaEB6vn0fqeRrEv7vGsBqrwJ8H7zO6pbO1299g4F3YBf7i2xn6c9xWyT90nco9T3fKoNTcIH17rQUxSqVBK7lcU5sHwLpXio1-_MvbsnqWuoG3YJZcJQ57z1hNbQ9HPPgnO1roLe4XBjd2vfh96JIopF4BvlX-XyNTEluhTIODGVd50ZdJ7Oc3953&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>DTC Dental Treatment Center</t>
-  </si>
-  <si>
-    <t>P/T F/T Dental Receptionist in Richmond Dental Clinic</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/DTC-Dental-Treatment-Center/jobs/P-T-F-T-Dental-Receptionist-Dental-Clinic-bff6a9c797a84d53?fccid=e9a6bc4e0bf96a2e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Action Electric</t>
-  </si>
-  <si>
-    <t>Project Coordinator - Electrical Construction</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=fa978fd9182dcc3c&amp;fccid=d837a782cf24d307&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Dental Clinic, Burnaby BC</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/High-Gate-Medical-Dental/jobs/Dental-Receptionist-becfcf0727d516bf?fccid=81655063ad128f18&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Point Blank Creative</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=ac6899c6d0a12339&amp;fccid=6fec631067fa4f6e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Back in Motion Rehab</t>
-  </si>
-  <si>
-    <t>APPLICANT POOL - Medical Receptionist - Burnaby | Legacies</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=3e57ab9fe02a21b6&amp;fccid=63b703d1a4874855&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Canadian Medical Office Associates</t>
-  </si>
-  <si>
-    <t>Medical Office Assistant - Experienced MOA for an OBGYN offi...</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Canadian-Medical-Office-Associates/jobs/Medical-Office-Assistant-cef849089d23a867?fccid=ac24c024877ea2f0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Comfort Keepers</t>
-  </si>
-  <si>
-    <t>Health Care Aide</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=e541085fb41a6a68&amp;fccid=a870e1797622c870&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Sunrise Senior Living</t>
-  </si>
-  <si>
-    <t>Care Giver, Care Aide $21.00, Full Time with Benefit</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=0222346f064f97dc&amp;fccid=12ec9ebac3e5aaec&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dvz8Va28BG_GOOGAowN3kNZlK-7bafkuqu2atK1HobewJRgJneRaig8aIteW5M-VJ0RDbntthccSdgLN_6kby6oPFg6R0s3avOM56OW4NAHvXNY1xVAHvNoJUmoSr5O6EGyLyWGsr5hIM6yD8YhiIwX7jdPeFySbCQWm6_yBz5fa4rVVW3FMrygPSMwy9-TdAisphD-Nr94n7TSqEee71FbFsezLT-C-LXCkS48zMpmhf-Gqkhyu9BSH3yWhhyveus1L4WqbxFWiFNNHZH2_JDEG_N9Fl95AMr0EuPNj6oRsvX0Xk6JIBF539om_6waZhMJSL_dCQODv9D3qWsktWIoVnH4V6RiXWwBEFyB_PirBvUzClrHT6kaTxKqxtJGW4TZGDMhgS7BUyku1KvHo5eDsgLIWAzIF5bfT1gOT5fMfsTbf5RwwNNoOjeovWko-3cjV09pgiu4w==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Reportex Agencies Ltd.</t>
-  </si>
-  <si>
-    <t>Receptionist/Administrative Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A1a4ftfaKhgfN2RdJ0FbPAcitoqho82KhYSrgk7DgHh3_fIiCu9w0MksM4EyerzBlhOtYkpPovN4uX7_M0cjrL-fcvBr-yl__Kwa8vLusYhrZiDnT_nZkINpU5ZqSDoiosq6e32Tkvz7a7ZFJtMvIWJs8hE3-9C3eiVI0B45a4RdHcopNrY_1HtxPH2yvPrA0bpcB0Xlbhkoomy28XCCqcNQVyYkiKJkMjKgZNcDtW6ycf9uVmnBNZ_nTHMUqsnjqdNKicXCz_c7IloMXfLrdYiUWPXWIbQPD4kaexAPH06qxN7QmzFf_lemxMVEIYZMZ3DzvWA5NYE53EksghCXYsGB7yH0ON4_ELaTEwjLphTxHdmkimbU02nkFT50fplS0utmmR2s_bql8HoGtSvrJ0E_oa84tJlqFYcI6AmPgRoUfj1UhrDYlz34UBxAeKbIr3i2HQkKuRYLE1ABEteDxjlhv5tqrfVhU=&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi30Cj8Ho8ZJaAad1tZ_T_jtYGHTgyP5RGsdmwsCfEEwto7gckZ4S8xNca5PTjsIT7UnGirTtDIWBFOIKhStJ-PiBy8pRPRSUgFKBn4Vc3Q_29kKdji2kstysK-o5PBYkMRFm-MA5ZcvocnXO_f-KIUblPyZkXED6eT18eCC8H6RhcDiL0C3-7svdZCPhYdr482qgauN0PBNz4NGzc76yclRsyJP4aPoxAHVjR343FJWRmpR6ut1INbLDRblDmo8QUtbJn8NbpJ8vAsAd257GjpIMTCW-HzTQs1qD2pFaYtqsUxqcapn_VAUXKBnT9NqXtwqmSo3pC87D8TpiX73OohV1u9x7zNeQESMDN3LWl2Vjx0Tc751-Z5ZuYZ1KEHdWLT-fUWXY5wXq6VvReIadWQW&amp;p=2&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfAANnrLn1rxp7h271pgyZMxO1SXqO-q8VLenYSwTKXEOqesX5a-_e117lVpVF777bNhT5xUdOv_vICgq_1nVdztj8qno0GTIe7uZi6sRh15ZxHHLTx-bJcx69gbiiCCCp6cjJLjtJgiP1VqRQIEjVc48CwMZl7rvyfaNySTDZv4AT4CwEvgBYGHREKV7OdRLrxfQ6DqPsHFk4oE1c6iwj_PuZ9fa3DF9B4rm8i5miWe257xiNFsEmsSDeGDaqbMsr35AhOPmy1IuXNFrHVmhB2g==&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2AnFREYstJvNe1CXyfkN2y4gUJuJ6i7Vkehk2JF22SFku1NOqpPJLZIEpXET0ZLUBjXl--oZ6tQ7KQqk8DRl5vBzxsJRSfMbchP8YqdFw5C7TRrOPbxA1uS8bBGCss8xRT6AzcoDwaojIkrAEGKnh592hAG5ebNam6ItUK4w42vLxYTJwhX9-SI7zKr3IZOraZ69qb8unDE0HpLmocekDpTuNfpgLT6n_eGKex4HTzt0Io6Amn_MmRf9T5q-67NKina7E9hPko89VXFdxE4H9FpT9ud9ETRxSa2vCAycXdUw=&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mP2QzlUP7t4UAr2k-dLQjjlH-mWWaFd6Uk3gadsmSWNbN56Il_s3KYEZEOvIUGWoHvP7XhWr3u9et4t1JXPI0ygzXXFck-AAmyeYeOw4xW4hus1rgYhilVRyoMcVQk8IF3Wfvd3bZwQaFYwz8W5_uaMn9v4Z9cGwS1MDThUHpPaDR_u2ongVKyAfHXNLdFJ9crA-RGelH0vlRZX_NObEYxd9Ew3j6aNlyG3kEdx3bhEuDg1ze2CHFwryrD03jaFGS_w7nbF9DQEMRcFbSCwevGJ3RwKGEmQviy&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Fraser Health</t>
-  </si>
-  <si>
-    <t>Health Unit Aide</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=f4373f7704963479&amp;fccid=7b6e906d0289e400&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Time Immigration Ltd.</t>
-  </si>
-  <si>
-    <t>Bilingual Immigration Consultant/Case Assistant (English&amp;Man...</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Time-Immigration-Ltd./jobs/Bilingual-Immigration-Consultant-Case-Assistant-a65a65fadfea4445?fccid=22386ba78639152d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>R.JOHNSON Legal Recruitment</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant - Personal Injury Litigation</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ay-aQteTULoQlIZOJabjjGXzXSY7kmqQYrEqh5Q9EP9iyrnAzJSWkbeE655E0whgSYBnMkUeJ9EHW4pnDOf73vAChSx60uHshhxxaZXVAZphVC5b3uAIn_A3hp-6DFAOK3O561J7sdz3pw8rjI5cQ00z_Ys997Q2XIxJ1kymyeCrPxAvUSF1zOzx4tkKhzYmps59D0iSQ82ZsxsPomJwRsfSHavGFYR_24wUr-ClDyUysJbziWEYaTBX7LWRYATOypl-Y11TSjkLrNLIKkEOhdn2FPvcqwUri0IfTq0rEk90KPMcXOpnE3xv03CTGLOj1O04cRM3CvfsiP6Sp5HodPUd9xiRVaV3PkrYIUMDlrmCou7yIH4EQXFfb_QTbrNi24eQ1gknSGbSeOtJhTkVuh0Hssu8AOkU_eoSut1ji7tAtNEmlu6N_sQ5lHZRCSB55xY72fUXonVDYtWYhN0Ctg0Icl46UmrAusmGgB3jIih0wuzM4x28MYgZfRWgw06S3BIGQAPtbj-w==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant/Executive Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ay-aQteTULoQlIZOJabjjGXzXSY7kmqQYrEqh5Q9EP9iyrnAzJSWkbeE655E0whgR7vAxVvyWVwteEX4JDpgYsx06XWtq83aU6eVkTc_OG1HC9LvPnxA7vH8T94Ua69I0aq5t03y_ziM50XO1CjVHEwjU28cnc-u3chbiwSo0Sqqp4gbJqHjJEFKhKZXMHFbbucbOUeSCT8jS0L8bB1DsOeSARSSgi1yGlOIlzhLoTNcQjQXHfCPjjze9lQVmuPP74ges_Qx-bVhlA5Hfd-rd0AEJtKp4IHmvKGMktdIEREhzzjIhHb9q91ly4E9tARJhQa0xOKf2NGdYwh3OxPAI2TrRYJ0gmwm2iqs5EiFmHydCDNvuf_Yhfwk8J9kdzscrjHJN3ZmXErCWCEz3cEkN-eTNOCiGsbykY_a_0TMBtSzvI_hJlu_GaY97bi5mDTKMdztxzNJ45CvlqNS7DwsGeLiAi6C0SbJ01PpcC-6HBq4qOCClFfoAmAsOnYxiyDCg=&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant - ICBC</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ay-aQteTULoQlIZOJabjjGXzXSY7kmqQYrEqh5Q9EP9iyrnAzJSWkbeE655E0whgR3few6-2GP97TuQPrBNo8q-xG490w3NdrUVtYLqTMPmRwwtECB4HAvYWhhvpfi8MFkCSBikZ7vily5pP0A3TySIJBvdvXgo8hxY-vZbIAQDohWtFa3jPfR-StP4jgOW3uttSG1qNSgwHBd7DGclBKoD9-lw6rB5rLasUTTrlKIB7d7I2UVfS2KZsiM8gyIRFs6deh787ybikD5Oy650U4L3Ix-M1Iyif-D8TDYhhfeqXV9UPDxYuU-1DiZGyRUgkE5R95nIwnbHSY5t9Oh8CijI7gfib5CNPgjqIo21Q8hVNOTRlCy43-aVirf9yCMqUibpI2GTlEq31z6emqXvbyGUnYtcJb-81eMZlcKJWL68ns80-qQGflKO7FOclvAbOHkDXf2eRN0vP6fI5KIl_t01bpXMPiP1TjBqKjsKFzlMw==&amp;p=6&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Arlyn Recruiting</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant (Health &amp; Insurance)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ap05D9EGORElBug5sjLk7IZu9XNljbyPWhjQnKrHPbg6a5vlkGknJq522L0LNvuN4XDZvzh14Y5xy179KyFy0IVwJGD-edproiRBF3QY2WC72NDypoxuJPcPDQx5fv-qujCQLWRsPJBiDX580IAFlnGy8rjgn1c148W-6zSK2oObP4a9_8K1OzykOvxAIfYkLurPmpXIaHzvHQ0ZF9SkmW2FW1E0WbvLEVE0yFTJeUhYtet-sk4l55QtcVt3NF6VscppNMhF0hHo9AmLi2G-AHszFATpxzSLt2UnJbR4dyK-R629l6eRusc9weJTWZqzKX5fvHCeFGwQ7RaKMb2WwgyVxqzH3g2raPYrrAkLQUvRdlCiLS6Dp40xhRmM5kWwByfWoVa2qZeL7KkwQWKAwfDXHhQS9kZ1hZZQrRVU-X9L1iEkwqIFDo4tZmdgKYKf40Md80nvOazPikmbkEnOkTN9b3T0_-KKO9akDp2o9HEepy4cvNPBY3&amp;p=7&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Litigation Legal Administrative Assistant (Float)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ap05D9EGORElBug5sjLk7IZu9XNljbyPWhjQnKrHPbg6a5vlkGknJq522L0LNvuN5kkpw34BqlpdIh7tM2aPrTM_ELWEn36t7_Unt-swQnsZ67Mquh2RPkj5oyx00Cei8LWL1U-jPrgDOI2uctiHLUq3skjhiDNXgIGrKGFuzCHjcNhDqYd1bxuHkaxiz1goMqjUGsXt2SW5jw02mZSdmtXH0XpiXhfw0CxCsr1iDMQkQNKE5BmLA_c0h31z_eqjdqK7rYpm5sa_uQ6ZAqT_1ToijLKhWQwEAWUT_8Bpfhi4zWzHcmCy8lAy5onw91WBwSfPRqNvGFVdiCgLZgOFAynm1ERYbPKpNs3zrvVbRXniEN8saDkQIT0_Xhdnj0eKGUAkFNmlImzI8lfaXgnSJ9Nhh0OxC6sCeLCYJgJZh5jA7t_A10uvmVOmrQ-RyVQuAv_7Z4skX7hKE7xFZTyZIhtlyhyEf5mpYWppTCJr_u3Rh21C6eB17u&amp;p=10&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Wills and Estates Legal Administrative Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ap05D9EGORElBug5sjLk7IZu9XNljbyPWhjQnKrHPbg6a5vlkGknJq522L0LNvuN4XDZvzh14Y536ys2oQjXUG2aun51gAKv1O8S-pZBBGQa65_CiaJzvAHnKcrB4WNApPbYiJncXWtOdLMse05D1DvIILBSLwJ5baWUHvASUHbufrWlv265x0rLMj3aseTBEgkl5tMozVVnDRj93HaZ5vN14Y9uBCtLaDJ4Qx7omk0TYWd3uDQpvNN32Z0a4vTh7_bISmsThQhbRdVSULxxSt12AM6AI0PVYJfspDVYx-kjQ1mIzoqq687PRAHQozkDmI267apZHY9C-R8tr4dzxfTnvzMMbV_SXn7ZHFSnVnwO_y5S2JNy73G98rfZ3kzRwp9QV_sH5jXy4SG02KEoSaoJqMG8KL0OGrFeamyZiMJ7SBw5CrhHq7-CzwhOFd0NsS13iHu4jApKWrCbh00yupWaiB-waIGcjln48_ZAXGTTY0sPCs6Do7&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Litigation Legal Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ap05D9EGORElBug5sjLk7IZu9XNljbyPWhjQnKrHPbg6a5vlkGknJq522L0LNvuN78gOHKba3fG1CaG4Si5HNHW0TVwdkWduw0WxjENwFkEaK0t9e5DtzD-4jpQdS7DEw7ugj2K9o3nBmbfupc750a3JGW8z-7yUenyoHc6D-OJ38hqHXH4L2X2BKVjDiVEID7fcGDt3A4q7lVt0dQWuSNb3235nKfjyN8i2g4i-FHdV0SA0fZaJoV62b5bapnTiqpDNebVIrY0BUOjz4CjrwmGkwm4NEYJ-RsXiQ1asEbP3wGVU7iRaFoN_SBUG5S3Zgj-9xkx3pFdxIautNtEY4sq0FFHaH8NMYYFySlnc1c0nnu5XwHoQc1kJR7Ei-mz7oaAFzySPa0XD9O0yxV-5ienVQ-75vDXjqQJ7AfbflHq_uJQDEwUfkXJi4vOvJTku7UjxsjnII6IM-QLZcC1GAP&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0D0IbpE9_ne9K6AhG0nKROIY2CLcr6l2-Eaelt9_GKMGNVtlg4hsfHpKio4x0ExaqiU4vrvqvt8Ai7PFcr0up2BMtcJI5Ne1bAqHOV5a8ozWa0g2JfLr9rd-G_jwP2pL3PtKzkhCsqoR0wF_f1jEBnEA-XWtTPSpohCWjTRzsmIYN26P_QY6ty7GVvwaKkDQdUOtmljYoTdi6IOIJ_qmIxnlsDAfWuuM_0tbAsPPnrTTppQEd-AZRXq-0zRjxexdgy9r23ugCaLnEJGGVQ26KvwbjYJwCVoD-GpUjPCepkRB497UCy0dNaIWwhjN95X1ye8REgpjpElsFhf-VgpaGsL9ExYut7DfBroQ3QAj1u9gkgkTfxtKXdXnRXDdPGUCLg7mxmIezvj0Cyo-y5gySR1ER4x12RHgJVe1JOPpyA7Rjg3nXEkRFn3f1pT5jOGuwOux807omNH6g==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi1vppYnwz4Hj_32XZxP1N8T4-0bmY1VVgdyWs7eig7HaiyOLVCSF4KaykmagF9uEeM3_MqXMMQTnkGbvFv34YQxbbd7dJy_wMpz6gJR2l-ZPTS7BzdYuQQVP03X1BTgoLVKPxsTnxZgz0BzhHh7g4LKCFqtH24pGsT1DuASlrjU1nYhZJUlXkfZi0rKbTtVkIk3NLrbzqHys0B5srPDHmvtL412vKddd4nfo-E9YoyFbYEZqYPqIus5bVo3EecEACXq53hamVf7V3Rq3XBFAuhnAJ44VBp1iJGZDi-FW0eGkIw_rJ-Qpu94Zl4f71xsqNf4JAeP5VYi4t11W55PHJ2nyKAOElTsX3PGacVvz70qKz3ari9qPmN2EHEYQar4i4PrHvuGmO4KkqERmySnM2cS&amp;p=1&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfaEE6eKHE7D31ujVjW5qY5oPmu95vfQaivXQ8XfhQKC--dUuzfQnOj9xVTEcFW5pIOhP2r8S9yDK7VYV4mby9V8edOcULaFOs8jxRn3xhcZ-MmAF5oVPxyU8H6ZZ2xV_caiG5-H-EqykKGsxrAn2MGRIkf3UEuXz3uOed-MzW-jfxPSk4XWzRr6LieldUDFLn7KxDQrgZWXby4EPgnFyfcDIkDL85ekR8bDtsgbYP06Z3FpXF1QCVieBVoSOmlN25_gJ4Y_IEUoKEhqm6mnPQjA==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2iBiO42N03e8PFeA8znL12yNq71felm8cPSwrH3Soi2jJygT-bLel6gJERzeqNTLmLs7pytp3NkK0COSgQJA-ZQ9NHmf3EbJNKcXFiAaeEOCnIj2eBsurFXqVMTRN6b1nqreTQiA_gwYxfV65eHmKl50id_R-nJJBb2e86x9n40YUso8Fgwj5KVR1gCxMgZQkISfs9jbLsGVidrYRBIFVpq6S5gUJVd_BynWmC6BlIBn1ywCQ6R2QJ3jVNpU5KwkFChkSJcexwePyqhaJIwJ-rj95wc_bT0-zCc1DCkcSlcU=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Arbutus North Dental</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0DTxwgydKQ1OV50i7jiSaSUr6ZFblMdy_BVnttGyDfU3k6_GWKe4uRLUr7Mdauue7KnvBBkqhRQKzLhB7tOCyHaPEwcbV7sAPRMAjCSLOwOlZ8il0BKd4qbYSpXqmH4fqsb9RGeiydVGojgSekmSACJN0GUs9z8-OdzlY-WRMNQP3mUb61SMemt9FQOxoKvACKorCdGFfS7WzvbQqGRwLJMOsyXWgCXiFqzK1bHWoaDqoQ7bIzdYvwD3ZifiHHPBOHTM0Nl2IuTH5-lqQ_mQu70HA3D_GlpQutgLzUIIJP8-_kGt6hZ4Y9YDsKgidwtfo8YnKdxCgjipzMTRduUMkMXukWeK6WP3wSh10we-bYAa2XmHSM4Dzak3yUSdrHDwFUYv1CEwH3JbJZ0vSVAUX3uYgIhhtZgDu1WFxtmQS9virpBWeEFXeOIaAJ15Wi7wCE7bB5SY6gXUBAkntF2qEwk&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPvYVWwgAguC0K4OKT72L7apb8MAZyGgMt5k_qrbRCx9-VLqg5kgS-vbnhkyYt0gqGUKR3zo94H0VfWR2DEZuFa0NiEFUZ8TbJop_UOjKMsleYQV37frGdXnkQtBDpZi3vHx6-SLKWjr7pok64vaTdCf68UEjHNDpnBPwdOxBfvMKYAV7hZsU8-l558FEvzx9Hpr89u6kQzH5-x1ptcv0Mwl5-aGM_QYmGot0R650g2j7ggaOOQg3BXn2wcnYUHvcdqzHYycNy1lG6Fa2C959DJBc0MzT7aXwY&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Atomy Canada Inc.</t>
-  </si>
-  <si>
-    <t>Marketing Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AAuv40cjFToo23y7Sw-ngiEcGMM6wm9BrnT0S8o4n4KVPvMJNxCkFAd68a3Ur9b-VoyMeNnhO5DC6TX0VgSFJnO_zV6Y0ptUS16lP8WupWsBPntCGtHc-IHdJUpC0xHpi62U-yPhrS57bYB-eR2ugO6T9N9CxeA9LymscesXbVasuV9xwSMU3nhLj7fhqBuk14YcMdmAt9Rczx0wvaAU15-kXp61w8lQmc6dz7trouz9plslgUqAymXRp6JCFxSzbfvy4cgSFD7FNtuDKWTwG9GhULhkNNXTFyP0ckwSShRfNGz1PpeKe6Vsag0d6Z5syvk36qqNygVlS3Zu0ke2KOlF6ka9E9Hmto3lqIMEfcg0ivP0WjPRdLSyS1mez4cdux3J7xQNdvWuzsJ305z3grY_k34Is7nBJdvqsTC_jWxDS5KOTYO2npPtVblYDL4jss26GNVGrghQ==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfnwM1WyStidzpAxX4LSouva1zmEbcnknPeau82UyD_9vwqqL9fevOieq4clkFOsXcncrVaQhSq76OntB5GYlcxilI-qiSDHYsA7_Dqtp9KnZwIUqNOk0DukPFF4EHfZWTdnguAWFbooveILJD0sVIKFcA1Jb8EVinR40B0jI1vPxro7hxEF9MM5vJjeOL9qzrPs7fWnazPf7LTH3HdEnrzl4g8Y8LutV_fk_w_xsBrcVqjij-EgfhWS4F8KHgZqwj0KTU2385kTmE10RjlRCYhA==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2P-t8pNOLm7mzPmAlbBkbmHlREawSIUMPrU2cD426D9W0cYRvFpyla39Fbw4JVxrSi_qivW0fgjC4QqA5ICqvgG37o-gAEzruCOjZHHx-rrlzILu2sNpnZieDnF6GGVbF4PFOZBukUxKY6hz44basZiAVncs1fg01T1GyBLpH17_sWYW32AF8vG-5exZ12PVU1_r0rZfBM5E5-v7U9GjjTllmBOa_IJL_46M7sOROvJK5TUrDz6aucKrkmqZ5H3_pkFeuMCHUnx9aRXyNq1ItBRDF3p1XkI1dm2kp7ZmhZnk=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=1ca0a14e86a1d0f4&amp;fccid=3513825c36972737&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>NUMIS Consulting Inc</t>
-  </si>
-  <si>
-    <t>administrative assistant - office</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=1bd03d3c18affd9b&amp;fccid=b3be8628dbd330d8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Doctors of BC</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=abb7ffe2ad711073&amp;fccid=cf23e6e35480343a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Shaw Communications</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=47711f5f032d9210&amp;fccid=0261b4753802fd26&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dv3akfkDSIJNDIaM4IYdlGx62_DOB900Nj-reuzWuvY16QqBRRCGRRM5CnZWpfuR0-BmhcKyqFSIpMWTg1v48WHbZiQH5bpvB79tTJm-gm4QxWWybTeEzb47gdH6ZAatpPq4gm9Cta8zlUV5jCounS5heSven4kB3x4a-BpZXw8RyN7XeoVBWj9SStPT5TscRAfJ5wC9JeR4bEu7NkFWndzPJ2tqs2pnhSV9WdzOkBgCRaQAJCC-WTjpRdz939DdITCEm5FP0TrsRb_z9nBc02aPUC4WZHsDUNnT3YGV7xy_ufjC5qRqAD0JfgVUVombj9pai90Q6uA8wxDJZGr4TTTdE9CLWCSVaTZQextgYNuj2DzTEzTHoCbLa2vKmKcqN_SPs_gcWjI_aEsN-8z5uc7chyZH8sDS2AzBpljZIQV3s9I08FFSQXlT79joXKNiHk1ybiQM_vnRN04_r5B97v2MYLo7TNqZk=&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfuelLJNv7C1mUzA_mF82iD7ZN_lzetTAyup-ijebFBvHdTzjbaeEtGkXAfsGBUNOL68waIyFIK5y38ARWHQcac__QihKNMrAUH2edueXxJzSCk0W_LwcraXtxUg6abjM01CHxRz7CRT9D2xWtD9orx-TP6Zs5YQUrAAokvEsOten_vioR63nHHbM4qgtr6USLmBLTIEK-CUWFlSXXwDWPmcT3SQ10V3mq3PQbOxnCQntL_hvHyTMwy6h93yMAHDw7XtesgH1dBXjBasWP9JQ7cw==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP26f-qfbfsvsk3C2cVKK2sM2HZ0ls7PoHUY2Z13UVcpc2ZDkW-UGuXMFJt1LbfvEde3KjJ_jWpFzvbe6t9d21uSLx6_h7lq55H5csKpmzODG8z_lSAhsjQIhy30qNhnntYx_LSKZqpmYwMQXQ0ZRGvecqTCe-HMbm058yIvRzsYbzBT075Oo3GUGVDwyURZ8yfm4gcsFuds4aBWpv8vIRUuCz1cTYtkJCkLkDY-9A_eot8tYsPsShmwUWACo8CNvBYi0hE00mBWVO5bc2pK68YGudl5Qraxko6bLxrgtVJtMs=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi3HKfnd46CeqdVwvSF8iKyf7ymuL8dUuLtEuLsFq5jOeURHHGKLtjEwSEJZ7VhT9NeWVlm0dMP1ZTeHFXMWHpWXctDnZKFczW3pHFsjIdPrFj3LlmfyrO0aAptcr53GpE4O69ikWfpTc5miJPhYsjIxOH6xKfUsB1vgwkBMCgeZgDddsMr7PR2syjT9MO5mfkMlbzWSdBe25CmbUP_9XgZABfJ9aQhbMEiyvhl_Cc1twQtj3c3KR-oh0kFBtwY1Ez74kekFZqnD0M66XqMvI8dJvHii0MWJhsF475G58PAFOxMXPhUOvYpTRCeldKB_6O0uf7dNb90gk5-7nFdbQp2yDeUTIxg5CCvVYnmUeUB-302W-hPL3E7oWHHG7L2CtCilDHPLCG_x0Pj5YIVR59sy&amp;p=4&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>AIS</t>
-  </si>
-  <si>
-    <t>Immigration Assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Adventure-Immigration-Services/jobs/Immigration-Assistant-7bc0700c0d2d8250?fccid=453e7aba243da2fb&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>D-Thind Development Ltd</t>
-  </si>
-  <si>
-    <t>architectural assistant</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=0526b743d87250f3&amp;fccid=1d07991a25be4de1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Beneath the Surface Capital Corp.</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0D_Ub04e-i9VqOw77zIfCseK2PuB5p9KExAv5Q_imW0DeV0vV7B8FVkwlkPaxebHTemNIr7fzllyEoNWO8y7la0Vj4dqeH6ZmMvd7wUjgogr7pms1vX4ykM2EyvKA4eT52DZTpjrRlg8-93yhXOAa_Rcw1Rh_yYzG3KaN87qKiKwbCWzWPPjziMzabPCakIznXRDeaiYnTgsUwSvsNKNvx7Z_zwjX4NVg84XyxytLt35j8x96gAu43IrpaL2t1uy1Hc_pgJH2Mg6S4M4mvVgFuF2fYO1k_xK9RfjyxgF1bib6eofgfevgnQ008QPi6HSY2gAZZsGVv04QagghxNcdYbWqzEEOlB2xLk-r22ds53lgpqRikVcrW-5M-gRmlaNHPmK4pEgMay9o--OCryjI8G66-bBiOj4otsxPChVUYMsW__yFCW6y9simQaGH7EMS0OFPq8tzaJ1Q_zMj0icb9W&amp;p=15&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi0CuG4sF5a-CBIATxlBAI44yZ7MGuOONwRdLyC7ZroDqdd1yuxQbl5FO4wdHZan9TmuqwU0NU9sJ87Xhn6S5ws2HMWNIun6ciIY9DQ7WFcoZ6-R-qrZ6hc98KXCMo4ccgZoVH-9LHV2T9i3XPceI9iZXODOLnKh72mhv78gkX5lFFJGxL27jfZVoHM2pk-wiGHvHFS5LcFfenPB25WtlLQ0D-j7MbuuggM1ccelcc30u8jU055io6fjsu2qeAUgVj9wAG2Ioa4Ir__-WixfG-5k8y85biykplaa7vl5OeDrfGGnWVwcpMz_wu_LxV3ryxfeDO3rFi-jC_R3RQb-MGgjt9q2Frklgviz9tl_Thk-FSBiMjVwb70Wz2fzkyOI2TUNRuyixTxwL2viro34ciOl&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfGF9a_Zg951vWZP3T8g6fbFmzy3DciW27Nqbxj_A7VZLhmoifWIvKNiNNPjqkMVFqNgwdAUkL_QMrWCtHrgKSz3w0Dxf0JbYqH1D-38cOwzWQ8snT7moYZNEzfTKCRj9l03OGeSfS9qdFqo0GkgfdlI8e-a_SbfsceW6IdI_Y0pND-hWKy6uspgFNX0YsQx4ce65l_heme1ld-OZ-_T_khRAS5WQSVUya3oYP6Us_2dg0crAAHtCKslIa8mzmTIA3ANY3OKkCT9ycNNplfnL4GA==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2_UF8nfkJB67N-nNwagBNyWW5IcfdpdqtFlZ3aWtQQxL-Ek_GLpWaEHrRP9-SfEyr8U1iRD1OEt_VfSl0XPFktDTuK8bpQjdB5eTxiXqSlAqQjTs7fCata1NW5-Ij0lvQ_YY3jWsyAzUUV_TrWvLEOXRnBrST2_R25ibBz4aunXyZIXFGvFNy-fcOPCLpomI14OCvRnZyp80hwi0GW81Zwne3pdl-si4ogBksTLZ9ngHNGqdYd2Cz7uLYbwlc1tRlyTlJREBRA9cNibNX2k7UsnoiTjE37Pv56y4tYUnvVbg=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPB3-4Kqpwn90VnzSSK_BKPqhNffVzce1qeVwNTZfEgwtO9QnaCv2sDVBf3s1GkNZhJU6iYig_HxwVCdVZs0R-k_3XvmoIiM6S60EUujJ6er4OEWIcFfr4Fjtk4kgb2bPsSubTI8naaSooMFxFmTq7RvgEmM9uGgl6DqWU5mgT-cxkpBfVqB5VWGi1KFX9uWVHFaxphB1ZDuo9C2orbt3vHX8emUsXE5nMsFDHIBpDIcLDblsV4vuiDFMUGydDBzME0oIdVmG8_U9ivVhO4T9yX4zyu0Im3k1c&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Behroyan &amp; Associates Real Estate Services</t>
-  </si>
-  <si>
-    <t>Full Time Administrative Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AIqOFhgrUzV0jr5Ii_mxwOrXCznyCI3UWzHqEvDANO7ixiE7kGna_vLT6NH8gr5Nzl3SxtrfBGnZaU9QZT6kwNRRaRoNcqb-gK-TC3ROPVnN1Sk6VRZfuLE8puHC4X_ASYsGABXPByS6hvoVxSjJugrEpfeov83akSucMF2UG0qvtqubTWvu38HdMtip4dtVKL0GhhiO35p3Q2eRum780hY9wEFCkvXhB5HVZ4dNyJgLYGWj_4EBIKQxeZT3cGSyy143FyNJ3zz3YAXsBhLXKuZSq-7pVYsUwxLaf8_W0sJMh1EIlPo7CuhBcYdUQ8U5xZIq2Po-gjQJeXasIaN4wqfyzFE73LG239IFjZSU09Ucq1ifmzY6v4fm_WWJUT1OG8TqRsD4Z-mbYGxg5Z-LCZbA5zhoqoS7-itPPcGBY84qg2AQbPpMF0uctErgMevjsH7Ts_ljQOwg==&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqKwfk2kbO6p68rCg3pShvr0RLLfHA9FEHtOtHsFsU5raoE37IHkPFrjEN6H3VgYXFHMJ063JtE5tj-1ZeHdiLHaOnrdkSaVeTb5_yLVNJ9r9WGnVX8mD5gXScGxomOIFOsZ5y42WWucaGvtsdLaKqc8pWUOURJrRhb-bOxyJdG2Vg5wlScLXjqrRsFRiXjCc8xo_e1oGr1TkRKfmDcbVUQywIaLSeXlDv8d2QRWdeO8SGZZ3S87uAkB9jI4z1sLxTcjF9MGoLrgrus9tBrw8LX_yLfEpH8CMXLWuCdzJWQpV&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi22IimvUQl3jgVDSYKVihy0duraJNZT9yQnsNNOHor-qBB76CPWxhy_198KP0TQ71C2VPqKK-Pl4catj6tQ4B4mBClLU43hUC1ovM-E9-nk1TkENZhuOieXzRxdJWqo6wBoHuSbWK6BoXYE6wrpsqQhCpO2_GddSD5DaIPyZxAqQ4bAdoa6bfzJHgrOFq1jOpVY744_Gk0V1mSaVdh91TJb2IGi9qwkhg5W4hVdOxNJwjhtC10optbZV6NXH9mw_Fx-O6t4KmG89k-Zj9Rc_0Sv1CYYwJEvj5g6Ba1hUNVNjpW2f1BuQ3rxgE4GL8sUf28E2El0Do3x5qbbdYGNuqnOUwcDe2_h0mMhQBLrLkv5hrfh0E4NPePlFlaROU6QIL1E_btJ9X-UL1GcBaE5McHH&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfx8Tr1N9q-XNLsPI04B4dkdstGBv6CE0THDJGfvHBGUr45p0beq5LMO8weJrYdHffl5Xf5e04BODRiHfx4Ekr3lC5CWiDnIvRrCu_l_aZEdUOzTYj9YL_uGyfKLegiaPXkMdmOflSwjVJg7ufXtYq6cBMb0RmIZL-lEZIRkFcrv4uV5rkrxrrFMHJrTC3Ro94PSX6DM6uO3OaAZYgNkVLkAoC8qRaxgojhMkyM6hlLiItjl6H03C417o1W4lFmgBKygZKYsKFPiG6KTbDdjF0Zg==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Hollyburn Physiotherapy</t>
-  </si>
-  <si>
-    <t>Full Time Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0D0JUzObdga5Rd7yYsErVk_5_7jbOUAE6zuGF7BY_4yppJ2wamB1DF89Ac_J-SiMJ0SVCxNCLZWay0rS89YT3McPOiy-eWdBnTbnrZN7OpHaqPtSq-6imFZoZ8NAmYKhgPJv6GT5jY6wulT4F9H8MIaO1l40vecLvIZV2qY4a_4sIChCAmnR3S9vuJ3WE0JmDN1HI32FIsXBUq0C9rU7LDeSAlOgZvP1MftWOy8I1hcf7DCux5LTNZ9g7GEipqKMxJUXcgusSaQTtkb-AoUyiVhFrr83ag9hUDGhZDd6Kny6oZC30jHfmpdkPzUHZfLjcVdbVeTVa86fmTCI2k3eGdmQtAwHZAyJHeHPy0fLBpUlCPcmEHVB04ah7MsGDorzNTxm4LlpZn_madpKu3iw5gcxNLn0yLFM4ZZXjMFkr1nqmKj-mv2qzmhn0Hb2xkvaxr7d6Jw8_Pyh9Nw3elQMRoz&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2pqWd8VCQCwhA9BCQzf_RwzdOMTII7XU3MCsBX0-wvJ6b6FamTLd0Y_QilX02_pinnQSNvWI4X14F59E2hvbIV8wFRIjzK5RRH3gHIbb1M2Sx34HIGpwpcy6EHlLcO2ktLOxtU2rcyQ8DYhBXTrClZesFrXxM9F9BFpWDhPOyTeuzn9gKXbAgreHf8ELrvzCOJQb3kMGfFounNIUkvJNwG5IG65zh71bJEJKSlMluGxB5Br6AuNH_fVHe-DdFk-D5joQP7B1jbF4PUKu8XeLcxmOKu16l8Rx2JczNaH8cDp4=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqIanQnWzP86Rhu_IXzWnvnLfiBaS6xMH-4w1vrBo0pqm_UCH35uf5Holj7BvCCn8qneCLYAySzBzPaP-K8p_oiB_7AQkYg2kL6CBjezx_Hs4D_t6dRqTjQGRFiMwZ-uzUiJcEALcI1XAzH-jQlWOinihHVfdssEd5OsxLNdz1mn51qBfdCq1CDrAWugp0eP1HGk64I_TEudYM6HRZ8KZzWf-voOg0F1gbYgjOx88TR500TJMjiVoI_FdO7hw8er9M0Vk217KInE5sJtdino2eEDDjLLlELknOiyZ0jV430EX&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Legal Administrative Assistant - Corporate/Banking</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ay-aQteTULoQlIZOJabjjGXzXSY7kmqQYrEqh5Q9EP9iyrnAzJSWkbeE655E0whgSxdstJS0XiKDUZQfYAJTXk6OEy9i6LYZW8EjhA62Ks9xcP_HRn62HGzyEnnjIPfGVs-rfG1FWLeIgprgCodLEeBArUU2W3byckepYjmAbcnzwzxmpHq1nmsmyvhyh91KDqq-k1osbjmBplPVTSWa4450QsqoywKrPf-HSbdg6GIbnXBWESXJ86mBx93jbVS0FvPoOcWOwgm5kSKxtEO-EQ0jWoex1XJgBuVYCVBPDw5yqYH38zSHqUVaRv6FQ2oP_qaUAjy5JU6zPUQQREROBzEKYUmRKu49lAhGVHwMDjbFgV4b_GO4jlrSlWtb65wv1UG13o3KEfMjoya1Okjz_23671fMTLTBnnpWvSxjvUk46vF0pjiWfXP5bKsSUSBRayuGUwo4msdBGLFgf6qsxn_HSwhh310TjhZAcSdk7kMPqUcpqC7DDECzUxoasPtts=&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi1VzdX4xlqSUMGix-7LTWccvEhrHw_HYlLxlx99vI3k_m3Rur3mw-nNbr-fgWjt2_HWWs8BnGKPa-JA83VDgInwP2MqKyw7xu_4xnK0UZ0b9HF2_LLubyhCK5t-6PoJpSrbuMYiCHfOAtrswW6c1qZcPei5RNxQhxb-kN1ebPu_HrwtwnBibQly2WqO1lWN8Wcas82GWsQJiyhCuiVN7vjbwN3kulgPpwb6LWDZAD6BcBjuVXyldgGXQnt8S7E00-HdKIx7flxQ91z3sIcwx5uLU2YFE5_0VY4TmR3OPhg_AcNRbDdCn3_BoDUq_c9PNEPig3KvXR389jbg-s8AKM4QCdwyxv-2K5QQiUmO3BCCc9zlZ-I9-wImxse-Syd-wWQR9PEQab5x2-lV2RhbQaX0&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfpi3g0LnTnOzPZEffKXd8aQHxl4ittBXkFRh6IOej77rn59mcDhVN2_F_IvDs38hZrHhOzE8jEDCUjscPH8vJ4WzvDw0L_qht8Iy9G3iMnbOgE-wui_RL3-6lf9pki5zC9iu7_zHw6UM4hX9fCYQHBUcKNXoDvlbe7ifhLnA514XBhkHLzTNaNTpJjfmX6SV6vlVR10qyIPJe5m-_wGrGRUZyQ5UIdsTgzLlUsCQE5s_OkvtHZNpefxZgXaSwnfjoDHxmVDNieQ7Y_HYK6hJvpg==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0D0JUzObdga5Rd7yYsErVk_5_7jbOUAE6zuGF7BY_4yppJ2wamB1DF89Ac_J-SiMJ0SVCxNCLZWay0rS89YT3McPOiy-eWdBnTbnrZN7OpHaqPtSq-6imFZoZ8NAmYKhgPJv6GT5jY6wulT4F9H8MIaO1l40vecLvIZV2qY4a_4sIChCAmnR3S9sd9hxNkJqvbxKj0SMT5Y80vHUG2pYOfHNbASVwErF0rbST2K8bhdGgkvAM0_7d9dhFG9Hm4WrZ2PIejC884zo526PTvm8C1a34RQ9DvKU0CEllGK3ErF1ixj-fwOpHs9gNLIYPStnd4YG-ED-cErG9CZEd0a107sV_AIuYDjSsKjoZwebZ17lWsW9H911cfoXMbnLPfB526v00OwBZ8mHP92fWqtgjF8bo_rnjI85b0j9pEOvrkwQmjqoZ_C3QH_lK7K_lYwsNQ0-fNfgzFM6NW8AJiJSFTK&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>My Smile Health Centre</t>
-  </si>
-  <si>
-    <t>Dental Receptionist/Appointment Coordinator</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6XMSOu7a8KCGfjcI_iZBVLN71IIWBqsnnVw-wS8fYHJ-c7C1YMhoWksyAp02V93ltwyxW6RAiYEAw60hyb6xHga3PFe_eu0YSNAro5zRcfC2SYEnO5bxrh6CpvnpsYVLEIsHNKDGgG1WPyzrtykt1QcXiMVG1-NJ7kdOTJMY0iwQDQyCpcyjMKpBz8SZQhzYsNvJtITvN7YDAj7LgKJIeJ77oX_IyKzpcYQnkIwWyWaficbDbxvqBkDBtVKIQ7tMH7n_7X2BywqPjWUXfJTJkakq231Nora94mnDdozvVDPJzTimifCOGXCuP_BlBagkfqZAIlpoQ0v4dXO0IhCM_0GBCBnE6ND2jRAF2i0LtD_pO_5XhM2OPThFHk1fsex7mReMcgXZuE_2ofYsAwd49Z_ps0ou-TJoW969GK4ZiQHR7YlItJXuOyy5GhlwmFSVZbHvP5QbfHk1JHi0Ajjnnoiwy_rBjso8=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2KgEHzJ4Ug3wX4gSRdaMuSyAEw3Ff3q56wAs9ZXtWuz_I3nqIxQLx0WmnIgEiONDX1gY2bHaOpazPLxeE0jXbBHJWVxymPOPCq9xLKt-l11GhRVvvnWwTbMC7DNXYPe4slSIWpo0D_fHRBPEk-nbPu_adYrWMETG7882LOArkJ8Ruq-RcLcVtmz3yuP_E74nuTqGacNJHlLvubYM5qcSSRjYw-DGzgHWGstLIUo4v35Y2FG68J63kqF0K4bJAEJzfLQKlafJ8A9iN23RrzltObAD-tAKkH_APA-OhXByyakc=&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPTvpegjQHovLNrKv4yNvrBiDm0Fi2ZVFvKE053rQPpfP8jkAKzsoUZ_PvJLI7jLyNLw7OLZKVuLlH6_swWF1oQMWQWKjmtPeoD9yvlOsPeDcvTVTn488B3rROxxpYTnbIfzAz_8tw2XDNsRt0Jb8Sa1OFdBFA5fgZ9DtBxwTUnMibuxMhlMQRVzMAb99TjQ5BKkV1_pXuJHY1222CRznf1ItJtyczxfPrfVSMKfOqQmGDj_c-rXahu2aj1Qi2Tfhe4fSyBlYo3JHHemVMWPQ570PHN0jzet8z&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqIanQnWzP86RhH1tIfWYoFMn9EvhIYtp-UfwgmhFHKitUB-2Jc_xm_l348lOEXpYqgyJ-EMmK09Fd_vcURYcZyln-d6Fvyf95pZdlEI34MbYdgf0SlsEDboZjpmj0R3Z93FavZEXygozXCRM0uphNDo2_I9BJ4cubmbWXesJPcmBCxlgA1Nq-TPWzA6bic4vJ_YtxbfHbEX0jCvo0I7SUgM8Z1HoVLOws1D3rRVmdeMc97T8UJqpkMXlHW6EHaO9C8bgQ-TVMbQ8DtyJ8Cgp0mGlwLM_PTlSEZ_jikpeLRGw&amp;p=6&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AIqOFhgrUzV0jr5Ii_mxwOrXCznyCI3UWzHqEvDANO7ixiE7kGna_vLT6NH8gr5Nzl3SxtrfBGnZaU9QZT6kwNRRaRoNcqb-gK-TC3ROPVnN1Sk6VRZfuLE8puHC4X_ASYsGABXPByS6hvoVxSjJugrEpfeov83akSucMF2UG0qsnJ-JjUk6pOb5_T70Wj8fzyq72ZgQNGNV-UJSTqUPp-qGMOxr-2AHcGWxWzee5hYVWax5Y2XOPCOyICwkxm_p3WcF-O9B3LPTmUmvnHv18dB3wvxntoegpzkFjdZuNTLhHU3s7t1ioeGQ2MtLhQH_vqvR32ArahHsXacDLVuZcRtVQplwG_WVfh_z3iItqhDcLe6nrMbNbgThK0oIWgzVm_PAba_Y7kX5dPmDFH2ezsi5H332Z-O25h95pWIF9VnJVqnPUn5EA-lGL3nmVMs8rFiAjd68_HNw==&amp;p=9&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi3NzMi6-T9YRbhQQOwvKnI2sTLR7EtpZz2d2BTa3CtENnHG0nRxX8hn2pez-qiBsGG-G6jTE8bIB2MMzmqTSMFRVQljLRO7Zn4msjAa7O_gZcB_Dvm4HNyty1Tp_p0_2ksPwdxL5WfC1sVlkDr0mKxk6Ef__OHCgRin8SRXlNIYnA3HnB7KU1o960LtyR8xgMDuO_1_vhgbj64OLCLwl2g6GhLeO7rclJlf8PO5dmTXvHcdHwiqK__LEV3v9g76JW28SGgekYY7v3-8mEng5B2yh1QquaA6Px6QxjYk79czTeddyppOJMuigsMs7Ce9zc8GavHnL7qacDHCs8KwqI879_bG_0RxschHHx_1iC3gXPOnVjC3qErJ85G0Lc2ksj2gBO1f_YLGU6fm3GSM_kdp&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfdgHklS79w0PhV5BrRUV3qON_FBKGlrvFrRyJeI5LFRsknAn47E2CAreQdsh9xrB8tnHbPL8feMsQ_m9_9FEBvcJ47uN9aISSD5XMb1UTvLbQEnybG5js3kIQJ1wlw8YVPqDi_CdvEQDIZKE9xgH26QlXOtUAh3KYsaDFCwl9tYZDEZkH5g3M1O6teCKTj9AtoJX5I40x4UyFj2ZNTYF8937s5Yfi_9l4G63FMR3sQz2QHKLACfTSCsz4bgr-dfNxgocdUCS6rAAQI7WKBzF2Vw==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>TFG Financial Corporation</t>
-  </si>
-  <si>
-    <t>Administrative Support, Credit</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0B5BbXc2Uuh7IOr5BlUOSkosTw9Ai4P7ovdQ_FAyDCxx8malIpZFcpN5Fs2bdxriqXfH2PD3VHwGmSqkkr85aXLIIHwSVg-AP0B-4rHMYIxr7Felhyt5d8wb2uTRLyM4IbofO_QkQcUQWpfVNS8eqPFxft1M2s3QBX-wOhUl6Xh6jxPtk1orrzbJPYtbPN2MfammmlTi4vBZpvwFgeZ5d1HuLYbTdKddZLshTUI5RYhwlVabpo4o60yy8QAUP2FUu2w_0VUl4yn2oyIZS5abXKPdLNJpTcJPqDUv3835u4a54pI__uGHxB9j9a_t0euOw3fIFxJnuyVpU4ttMzDyaId74FPeumdXJVCaMJYNC16Hj1Hy_nV0Hkag7u18i0F7XPHTxKm0EWBnv9E-kkKsqwPQqt2zQYvnK7nvLV041ut8odbRNY7EOvNWaVOEHucMw06YFdOGRdArobWk14kttGA&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2XX8pH0N_FCqScij2OkvPOFxzLkvpr_G1PBUs6OH4Ln3WHpxyH0ivB1GQfF8MnFMr5lJKWGGlnRNh3xzUWKQhz3jvlsv3i1NCvDFwvihjLFSRBzQrccJen2-k6ewJl1fDaZvPOgBJJi7fxb5ry967ZOCAqOm1vi6uqx_wsRwapocdmwb0tlV-z7ztJHPuc_zSIxtpxoTIFaTQzw8_wAoM1c94A7xlpIB5fxFARP0UmSi-x-b7nrny6KB7b8eWvHjvILu48QgNn2pFyfvg-jsjxMLDqgcaWphXcZhaxZPEUeM=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqJIY35q_sYkYkv1YiyHPfiyBwvqhUtXNgjdOen422QZ5QfZEyaUbjZu24GXg4QR6kjB93-CpuH8u4c_tt2W5DvUjKOxg0p8rfkXLivG3lh71KqUQZ5emxxUTMAvJ1Bf9p9waSquAX8OYhofRHfp_d-f-rjloqBsyCSASQHfULXrUM5MSEEFcAOrKKJNLFwcT6Ps31QI5rim_yJUjeCvFm1nl6F4QJrcOgh_cFBAHCmYnYzgXPKQ--_g50vMQxlzs7fwIReOv3jdXCJmP98OLf0etGZoDjmOaCaHSuaBjCJaw&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ay-aQteTULoQlIZOJabjjGXzXSY7kmqQYrEqh5Q9EP9iyrnAzJSWkbeE655E0whgSxdstJS0XiKDUZQfYAJTXk6OEy9i6LYZW8EjhA62Ks9xcP_HRn62HGzyEnnjIPfGVs-rfG1FWLeIgprgCodLEeBArUU2W3byckepYjmAbcnzwzxmpHq1nmJ3lhmkzM1WCiuFF3FOO6bODw3wdMsXjmqRVtRMUa0LI-zXQQZtvzpotUPupXhBVVehLNhXKH6tX-JRppASI0TNav1Lk60crbYo1igNdL7hZoXpcz7iT6U6ofDHZnee8Fxh9qLgyHuaaL_S8acJwLaPQSLTze82kw0oLeWNLXg6YY-cct3956vHptRzs7MV2WnvMK5927fFJQoh-ifPw_Wm7kjfu_QLMaz9ubOf_p3w6XdnfQEdKgIl-JkjTj_RH9nuwFg87kXF58oLT5qGde2Ppmm7_ABHsjECL7BCy9Khst2ILivwcPTRlQSJ-P5ZHyQzS2VVlp0LM=&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi1mYe3I337S950lNMtIsc0qVTmZxdKpPyJsqMSNu8X-eD2dWVdU36Lk6AyF3mhDKnIXgzhsUCw8kTWYhidpxM-rV0U8u0q5U1Ubdy-bFn4o1T9KZ84T0DMl19V89tTfhQ7E-BYcMbgxKftrOkA656pfrdJ_kqNW_QkuyblHwrOcm7At1p_bv-QmqbsxdUzhRbvXQXVoYlHCvQL9RU9COM5bO5XpX75BdwEHRgbbmQDgxePpF4ofIUsGV1nfuMxf1YxhsPd-ta6kCp1a14yjal3BOfGnVjrHiLGn0x9Rtjc-SX0fYiGS0gQTpjyvart76Cia-0F0DdT5MY5_4szg7EmZNE5if2FuzlC7rA0xZpqg9scWieeR396FzW_XDX7meeSd6NpERpEI2qCYxEQd2xB5&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AAuv40cjFToo23y7Sw-ngiEcGMM6wm9BrnT0S8o4n4KVPvMJNxCkFAd68a3Ur9b-VoyMeNnhO5DC6TX0VgSFJnO_zV6Y0ptUS16lP8WupWsBPntCGtHc-IHdJUpC0xHpi62U-yPhrS57bYB-eR2ugO6T9N9CxeA9LymscesXbVasuV9xwSMU3nSz6E9gIw-VtxryR_bmKI-Fh_WOVVaTJgtrTmmdqT4OoYI0rXMJN6nfK4-socfJhoquOn1O0Nq6TxWFoW1P9RIheFfyGYLLDv1YGpaTDJkbkiox_fsms6Y0BDyuFPnrAzOPQAULCwIRmI-gs6Njp74KKopenz2zVS9ae77MC7OzW648Cu0CtLMbq9JZ5qRLG4q1HkjMDJoq1VFOotmrtByZp4vFxCE_robsS_g00hmEEblg6L18SD73JQsDZMR1eq6r8q4a3AycdMe52pmM_Bow==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2pwrMm4z4dUzMOKVn9oVmNVFZdSTreYNDxZK3-Dq58ERN971oSL5LJOU8E-zgAJL563GbfnNEqKW8fzjoVMfOR7NclMxkv2fDQBdun2S1kEQkqVo-yac67SsRl7wVDyuyYqxN_9xIei9yUYJ5HtmdQV2zCX7N9eLTNLm0xE8gDpZFMWRBJwrk1BzOzDNo_YFDHBlWVWh0gaqMjCKa0FzfKx1KmbMrYUuuWYNCInusBCGh_AM0Th-ZJVNgTxKdxjwbP6wAhEehsMy84tIiILkQGKxiVTJzQV-HcUQe9S35wI8=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqJIY35q_sYkY8ktQRQoFUy_5_gmp7VcG9BM0mNVP7YOKfoLRQYX4H17gpQ6Epr67tJperCmZUm9e7dYl3dkao69MMe0AGEbyJV_vNDXMWElufcbyH8F_Td1B437pXeIsvmxb02-n3pFySX2nui5h-ng150vYIRwsREJWdRV2Lz89nxXCLXuq8T5cbie1UjWNQd-la9a6BgQg-8_85fH9dhwMZflWJBGvR7x-cl63Q96oPP0d6mMY7JiMEvVLZ53i0P6lHV5iOkVQt12qBcb2eJuGTRoJ4gkx1vpQPzcxfnR8&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfRTMSbIGUwYSw8Z2jXl3WzeFK8AVfH7Emel366vhRIDbEaEi27a7iSVMscUk2F9b5Sja1hBxgX7QiUFjRZFG_-rr9bNToUFKYCJ0Ya76flrRBdLTi9rI7kbP9gyJE3ArXaJI8D7DzhHkROo6Ks_pveUydAfvjsNVxnqlZG_gA2lhmDbs8g67n9Bz4YaoAnVIuApgopxFpekeLCLBVygxqPgUccALCbN2LnwGF7os1202WAeaEschnimvWgV-oO7map8bZupbsV_nVoSIXHKPoDA==&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A1a4ftfaKhgfN2RdJ0FbPAcitoqho82KhYSrgk7DgHh3_fIiCu9w0MksM4EyerzBlhOtYkpPovN4uX7_M0cjrL-fcvBr-yl__Kwa8vLusYhrZiDnT_nZkINpU5ZqSDoiosq6e32Tkvz7a7ZFJtMvIWJs8hE3-9C3eiVI0B45a4RdHcopNrY_1HpKC3LACEMwP_o-SAZa6D6IM60FDpDthu7fm9Tc0A7eG2v1Hg8ZQneFheqbamoRArjgEvQbLUjhc6W-b3hp4T1NqIaExt9RErmFIrLpMTyMSSQmMjIs0urjYOh-5aA7PjNLR7EvXZ5xstlg2preyTGxiqH6nOj4YJhxVXX40OhTWZTLHOXFEGbtnoiHTXBVrFHhuRXBoxcvKbpe7dq2sI4e90upkVOuki0bwu3MsfrHCetvhb_F7I5Yx6AD0-K92J_drxPxEQH-YOH79N5X-LArDdH-4oRsrlv85R_8cj9Zk=&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfo8l7aR84wWz8YhN0qHFz0kmnH8ZWial0iboaGgte2X3w8gS--I1RNug_dfF3eCEI8U02RZyUjm4N08jSqIuy8MGsasW6ikTgO00gr_bZo09NrdAKtP07Fu6-QtdXRw4eMNsga8IE8P8GDW6mtCr2EW6aqRYFXJOnNjDWkKvEg9OanIDPrc0uhBVGw-Q1F5OdSB1y59TFPbokWjy-dsWdrQdrjgg9j7Ip9XkC4NDlWmrsNB1JJE7zO4tqMQ_-nm0V0FZmf36NX4CX4gmfRrIT0g==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2LuWC46v8kvv2e35BoqTwskY4JXw7vIsap2RuppGY8zhYKAAtdoud2yFYYTmiXgASs6SWxAPcjJqmkqFunbuB2w-lozDQBmyM3-RI97EoX-ACS-fe9TeXmv44tEkooDFYWy_tGTcC-EV2O62_hzg9ZZFz0TDaHQn41XLXELchuWDxe3TK7RICUgDkNaLL3bqDdRipni15emEcUblVLQvtw_gZlm84ullji8fMTrETaMV5-717O7RdZhl7YWa5OqC9bSwOFU2dYLwqVvTNWpepIRAO4R8Rb0vPAK5UAUZSCkc=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0DTxwgydKQ1OV50i7jiSaSUr6ZFblMdy_BVnttGyDfU3k6_GWKe4uRLUr7Mdauue7KnvBBkqhRQKzLhB7tOCyHaPEwcbV7sAPRMAjCSLOwOlZ8il0BKd4qbYSpXqmH4fqsb9RGeiydVGojgSekmSACJN0GUs9z8-OdzlY-WRMNQP3mUb61SMemtLdlxQVozRucOJ6H3UPRrOMuvE4YJie8-TZExa3fXhx5dtvh_-2WTf-ojmRw3sq8_nSfzuzIeHezOaG_zqwJmgYIdXCrADBt-nAderRL3K9HpPjcjdeDaM3-1g9MvN9_AjGH2cgt0WfhsXyb04dO8YKtd3yMTc4N5R3-TRFA3jKRvxCb-x6cFen6wckxNDdYHQNq1w8BXYotgxJoKl6K4K95vaGEda4DF73qu7ocBmbcyNXYfg0DzKZu0KOYWQVEDnuusdjEGsW0s1tNtNGhL-JUAvFeM8EKR&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AAuv40cjFToo23y7Sw-ngiEcGMM6wm9BrnT0S8o4n4KVPvMJNxCkFAd68a3Ur9b-VoyMeNnhO5DC6TX0VgSFJnO_zV6Y0ptUS16lP8WupWsBPntCGtHc-IHdJUpC0xHpi62U-yPhrS57bYB-eR2ugO6T9N9CxeA9LymscesXbVasuV9xwSMU3npeEYRFEJGa7LCJJrWTeeYWRI8dxzp1Pze3NIuDix8mlpv0f-TA8V3FU4OCJ4I-9XL_4m-FeRf-Bo5VkwCNFhqSWYlDtEvtqtmN3bvxSeAOyaLLnEQ-tNmBosDEW5IKg3PDUjVqBfmbj3a8dmx2kIBpMBcpM_1CNCPvJ4LT8rZu3ra3lO4BGZpeRRH9-LCum-WBM_Syk_4Yi4PRPKDu2uvA2-_mbR-KmSZhZK23_NiuOH2cHCiwL42qf1nB_YF6nPzgMoDuHV6DkUmjHINvvHpA==&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi0NiQ_FDmksDxkZtDx0h8J57xe5Yix2FOs6NEKUVLPoo-SvA4T4-hdE3rqOExMPGScOMpw9qAezQPtGp3lcBCFFnC3gRw0LC9m_Kmut9bolpNU_zzPJBtDpz8hjl-ZjahkVI_T75SNXvkBrMWxPLKggzaP0E15tR0piub8cgrKvId7oy3hfuxWN1l5VpjcvXPUTrsaJysQNpKS6dQh1NiWGFDli1pSd0I3xjIHipF3YTp_F3aO4S5BuTB7Qm9CUyo0Ido_8bevqDT8Z2FIyHqAila7JcdHUoM85d3MlJNvslfPWl-AitSrJZDejNgaZ5fyq3FVnga-COX0a4TcXB91iycyWCco-4eSUatvGQB41H2iBuYB3o7okrrZh7fDHMyh_E5YUWPxR3l49JU6PLP49&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dv3akfkDSIJNDIaM4IYdlGx62_DOB900Nj-reuzWuvY16QqBRRCGRRM5CnZWpfuR0-BmhcKyqFSIpMWTg1v48WHbZiQH5bpvB79tTJm-gm4QxWWybTeEzb47gdH6ZAatpPq4gm9Cta8zlUV5jCounS5heSven4kB3x4a-BpZXw8RyN7XeoVBWjZ1pDa_bFiNADA5SKlA6bEK1xG5hZrhwC4TQgn99PYGSYgBUfT1lzUK5x1_Oga1hcjKll3jNcg1bhQeZ5hUmqy-RD5X8l7afevLsKXmaYP1G3vmzkvM1vQbdDc9juZE6lqvcbAZStRXO0GVtNgqb-CNIehEMAEBPpjuLSkvRXrLlhFHI50ERHqmjqxOx4yP16miU5Im1Zu6wjGE8RCybBsEXylenLgATaFUb3u2uSdgRqK3toCKLW2x39ikWxvVtlIgYPUyGBmh9bBg6FpbQ-D0mFCy6Sxpal&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi1YZ7zrpkbOxUH1YTfBHVgN7L4vmtU91OlatsVlQ2bEyUoTIlmtHRsxtjTA4Q7jTTndqEfouffTdVIHNLJPgDIyxhH_h6YCI6zvFtDKQ9xpF5mJ31hy9g4JhfrbRVKos11oLjjsV71JL4wy1zM1x5JFXiIOySwcOUxI_h3kPa15FnvVGfc0S0nvOfrFR2KL4sCZu_oJDy5mqWLHjndMq-m111-moJrK-EamF2KkuMvmmbxB4dXg9C_JRh6txUZrSHlfpn5WLPhLOyjTVcCktpCg0R4pv10lZgk-CJH_BzIp6QI85iKmaOD8KawYBg_PSt4yZX4vUpRNLEkRYQ9JH4cDjBF0u9Ak3KgY-GplmaUqEQCqK-g60B42dZd12iUFRAYBLi2nMATSQ9aELffxi495&amp;p=1&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfXTyQUmnq2fV0HFYuJgJXmBSA1ngd8NItvUSEuWzRNVJZDN6U-kPYqtDIInsG7Zg2TUO-FyC9FHp885vymo5VoyLt3qUod2cz-dMwBUNjO4GhqftlPJatMnc7kjn0Re8FseLKI8gqs_7aWSuTGl0d2jlrIURUlx4YYz1qml6n3XbfSKYbd5PMnieVf3pOqqDoK7z6_7-3vH0mto1qMcVZhaTtF3ZVtEPhIrS6Uuxyr7Gw9kaI_yz75KVyz7EayZ1tPkFnDwXSQ3cqmq9ok5seTQ==&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>North Shore Veterinary Clinic</t>
-  </si>
-  <si>
-    <t>Front Desk Receptionist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CzLlx2KLQdRPlhQjyUppKRznFOWeFx9TFgXgCIYAuXK2g5Vxb3DFBclYtgjqbNPTyD7riRUmltEqny1H7iSqgO8rRtG6xFF8LNkWQkT9J86wA7tqIX_4F3sTFSVOKNirxf0TWbsRwgD_DmOJ9THP-6TYkHYlG80IMnD8e7Ad0AdKZBJ_O9YZ_ZJJq-bxhMo8in9gSYwNJqRYY_17jX6xgpMxLrWI9t4IOCCBhgqduueIBVknm_-tiUyNqIyAu0Ysjuyk5rq0jlx4nW-ObZo5Gt6CPz1QNNUpMlkjKD6FlGaxWNpBeGaULdydW0Heuvt46JpTUSy5K7YjDJq0cSdrqM8IBtL0-P6E0G9W6o6b_W83HxuEHqVA22LsafAvKo6qw7z6t0uat1zuQy39c8zok0B5fW1aMZk3iGj8JOzPvvgK6nv-1tJ1ujoRJsbNogm7c3u_A8WMMZrw==&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2mnznPecxRCcdTXSz74P_tq0hZdof15ZTOiGE0yh-C-bd725oySYGU2kSos4gI7hcXtBntqIg6SbdA76DhVMD68022cHq3F4a5vOOv_ypk6BGoMaMVRis19SzxtA13XEyLDc5I6BXqe1XORq2lLJlsgt4N8NwXqtcphrv2cExlWEQXMX-jWDn2HF5JylncKqb-IXGlB4PMhwOwKq8MOzineAG7UrZa0HgbjRzY2lpBWjNqiEFIUF3veachQi3KSlrKWnGDaN7jXU411ZOIm1WVA2CIHzNiiY2XE-aJFoXO2c=&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0DTxwgydKQ1OV50i7jiSaSUr6ZFblMdy_BVnttGyDfU3k6_GWKe4uRLUr7Mdauue7KnvBBkqhRQKzLhB7tOCyHaPEwcbV7sAPRMAjCSLOwOlZ8il0BKd4qbYSpXqmH4fqsb9RGeiydVGojgSekmSACJN0GUs9z8-OdzlY-WRMNQP3mUb61SMemt8rhhH5kcIvLHpeeB_DCSxyJh3GQKSRB_OndtYD1zqsSej2QD0RpJhsfPjRxrSWg_oLw7wbpiDZ36zlyHcAU7U19cq3mBvChHj2cRcDkL9xD-XylKADQ0ie99m7Stetyc3wTEMsRo3Fd07loHZF4f0SmPev-tp6IQtMsEIQXKAhxBKJnFmkobh5UNGfYn3GG-YjMKMupZSIrJC2TT8RkBrZ9ryArvml5q-j2rOj7V6VaOwQtbJ3g5OI8KipIKhs-HekaHtyyOaYegFwr7WfyPcLlveMvLQZpk&amp;p=6&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPWgSN8sunsUk7pYbfjs_YQ3FcB5YK4JwKRRnnZqLGIodZYTtEpJNWz5-9qpYnY94pVwdTGbEAzstuuUd1JfybgO9-ETYt6XxPM26cPCtsJ0V71w79DMddIlnMRItWtzhWeNm8C98hYb5RYTeKrPwjHIhLlqXKqev5j2RspLMl2Naynyx1hD_jh0mVhNXVDcbm4n53KILLBjMcMT-MTIMELIlcgsqIxZs97b9Q4NN69epPzZj2tn-6WadCDEDwpglotaSCSbOdY4-547YY41Yj8ynKWSgHcFEw&amp;p=9&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqFChMoy55m3cNNHeZr5Y2g4yEcesV9FVV4dKqZchcNCCG-QWkd_26KY9vR2eFf6BWSCOJjehwqpbwuTVbvoZ5vgXNlP15UfrmA0ccXdYtOg6l3MEur0sbkDvlMQlQHZdyKAWMKY4TbXB76fflZX0E0ttkgfJGV8SLqMyJvj5UQiKLCFCiaiaqsYpAl0MlVq8apP1n5XNHfqVFFnlx1met5_FQKrmvROHoeqsNHPuYLedvmIs_bD35BZZ9qWqVuSp_tquurgNkq-LLEOCdUL2FqM6ihO7tego7PtTIj9KsmB5&amp;p=10&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi2h3l6_TefI0shVuvZLUhT45uTsJGBDCWGYt-HsTRuIpwlJWz8LiqMI00feJo8DEMwDCi9bfUeIAYYTjSD8Fh7ZP4in4moZWUq0GWUQFYaB4EuVNIZv4Kk5cnBZldrTHnVORDYNvkzXfa1IDfI0SVQMb6nYfblC7M3VdhqQc5aMQdePffexNs51uUJZDSeuyS6HFsg4WnQbsTpyVOqr-_mr6SBMBF2YXiMg_mA99kGamwWSWnRbzR9g2kW4Suv7Ioazw7ey3inMjN_qButd_zc9mms58kLwOaF4csCDgxfx2Q7n8R1EnTJQxA4KF9N1MGqMPeJ83XHRQhWEGw1D9xSVYppCvgGZPY4mhkdUmWj3vUpsXZNBCEoxGAJw9zDgJRUTOjLHqt-OiNcw8raIfQK5&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfH7hoELjMYpwkux3H9fkVC4a2s4y_sG8C3hKigdklVsvt2UEEgSthSKSzqaygA_LX5-hHhZsuxQ-Ago4FuL9XhdK85XzN5r9wLeyKv4JFcwgGfcrIhuM61gweQmRUt9dODDfDjW9YHk3GLu25QzT0av0gaJjszVDUM-cOJa57gK-exf3ga5TsJgG98nkqmvaZ-AKCniBFo_5P4HR1QL7wnCx9lU_k0e5mK74OZmDqfW0XsnOZKHegDKPH3EZAuRj9VpNpSy_hd8ZKDsEuv07NSQ==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP2WjwjJ08ri0jroHBfkByyMXEAmG5BkP-sJl2IWSZJms6cfsBJTO0Y7bYLdFdDMQ2k4QKOlGNOwUtWI1DTH9vsa9zObOGdD2unYzx9_-QOk6x75_MZReSwHxT1VAhEQFcIfhqKbxcJA9mi4nEUL3xjrnkAIjCMJ76qzzlPYI_uYqJEZGYFDXvaxWpk13dwfNcE-ntfjWhwP1wqP9C1u9PImziG81UDRFdOhFkMkN45eL5gYfW-2HcWV3TZr_AS8wzEh7kEPhIkxjl4HFzb_2Jj_IOIGpgn1_ALDVoRHGL3JZw=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqFChMoy55m3c4NBj1BtG_Q8hZofTXdI-W_q99wpXYmBFkdkSpF7Oo78yctIiwaw6zz6INWReQ7wMGjgU947l3_7BUmbEmP3gvPXbqb4dMMPwbun8XEFDfNvxwt1Npwrmp_lA76h3lTrBIFi_srvr4nK3W_g65Ecwy90NbbM4RXworY_PWFf2ncbozc-8gUzOpy96dgVPQPeCBYbTuXffuUNzz7r2TN6c5CoWjoySwBEKAWTA2I25DThpXJ0dDoTK7ukmVkRcenS0dtUV0RIOQf8IqaOO4GhqR3TZJVSYbaC2&amp;p=3&amp;fvj=1&amp;vjs=3</t>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_540ad349&amp;cb=1594935689300&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>Richmond Public Library</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_41dacb4f&amp;cb=1594935689300&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>Time International Academy Ltd.</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_aa406551&amp;cb=1594935689300&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>Mountain Fire Protection Ltd</t>
+  </si>
+  <si>
+    <t>Office Assistant</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ffa57915&amp;cb=1594935689300&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>Miles Employment Group</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=0000017359933ed18465a138adfef397&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_00d4fbd4&amp;cb=1594935689300&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_f99ca729&amp;cb=1594935690232&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_05a146e5&amp;cb=1594935690232&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_282c73f5&amp;cb=1594935690232&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_4f7a8f96&amp;cb=1594935690232&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_be473c80&amp;cb=1594935690232&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_e8d34a3a&amp;cb=1594935690232&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=3949&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fe70f051&amp;cb=1594935690233&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0e1ae10a&amp;cb=1594935690233&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=14295&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c3cba1d4&amp;cb=1594935690233&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_58e539fa&amp;cb=1594935690233&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_953cb926&amp;cb=1594935690233&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9706c769&amp;cb=1594935690233&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=148364&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_cb676c00&amp;cb=1594935690234&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=37049&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_eda80837&amp;cb=1594935690234&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c1c2e618&amp;cb=1594935690234&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=66506&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_5fa14e44&amp;cb=1594935690234&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=483012&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_929a4b4c&amp;cb=1594935690234&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=37049&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3891ff85&amp;cb=1594935690234&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=483012&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_16921e36&amp;cb=1594935690234&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_99c35869&amp;cb=1594935690234&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=102921&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_a376d8d5&amp;cb=1594935690234&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_06e23ebb&amp;cb=1594935690235&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9bdfe28e&amp;cb=1594935690235&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8e0ffa88&amp;cb=1594935690235&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=127&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_70454c90&amp;cb=1594935690235&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6988c677&amp;cb=1594935690235&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=129&amp;ao=4341&amp;s=58&amp;guid=00000173599342bba020c0d929ef9bbe&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_03878f89&amp;cb=1594935690235&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_53f0ef09&amp;cb=1594935691254&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_afcd0ec5&amp;cb=1594935691254&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_82403bd5&amp;cb=1594935691254&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_e516c7b6&amp;cb=1594935691254&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_142b74a0&amp;cb=1594935691254&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_42bf021a&amp;cb=1594935691254&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c2a3a9f6&amp;cb=1594935691255&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=3949&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_32c9b8ad&amp;cb=1594935691255&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=951183&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_67f7bae5&amp;cb=1594935691255&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=14295&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fcd922cb&amp;cb=1594935691255&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=4121&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b24da5b0&amp;cb=1594935691255&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b077dbff&amp;cb=1594935691255&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=113&amp;ao=148364&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_f475ef1f&amp;cb=1594935691255&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0d7baee4&amp;cb=1594935691255&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=37049&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_211140cb&amp;cb=1594935691255&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=483012&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ad88c853&amp;cb=1594935691255&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=66506&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_60b3cd5b&amp;cb=1594935691255&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=37049&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_92fdb7a5&amp;cb=1594935691255&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=483012&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_bcfe5616&amp;cb=1594935691255&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_33af1049&amp;cb=1594935691255&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=102921&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_091a90f5&amp;cb=1594935691256&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ac8e769b&amp;cb=1594935691256&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_31b3aaae&amp;cb=1594935691256&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b11d7997&amp;cb=1594935691256&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=127&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_da2904b0&amp;cb=1594935691256&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c3e48e57&amp;cb=1594935691256&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=129&amp;ao=4341&amp;s=58&amp;guid=00000173599346729219361f4289f307&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_a9ebc7a9&amp;cb=1594935691256&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_eba8c26d&amp;cb=1594935692280&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=4134&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_76308012&amp;cb=1594935692280&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5bbdb502&amp;cb=1594935692280&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5d4eead2&amp;cb=1594935692280&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ac7359c4&amp;cb=1594935692280&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fae72f7e&amp;cb=1594935692280&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=3949&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ec449515&amp;cb=1594935692280&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1c2e844e&amp;cb=1594935692280&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=14295&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d1ffc490&amp;cb=1594935692280&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_cb204ac1&amp;cb=1594935692281&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=951183&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_06f9ca1d&amp;cb=1594935692281&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8532a22d&amp;cb=1594935692281&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=148364&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d9530944&amp;cb=1594935692281&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b5238380&amp;cb=1594935692281&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=37049&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_99496daf&amp;cb=1594935692281&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=483012&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_15d0e537&amp;cb=1594935692281&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=483012&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_890a0b11&amp;cb=1594935692281&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=66506&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_94c3769c&amp;cb=1594935692281&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=37049&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_eb217c01&amp;cb=1594935692281&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8bf73d2d&amp;cb=1594935692282&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_58fecd5c&amp;cb=1594935692282&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=102921&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fd6a2b32&amp;cb=1594935692282&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d013096f&amp;cb=1594935692282&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c5c31169&amp;cb=1594935692282&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2e59bf77&amp;cb=1594935692282&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_7bbca333&amp;cb=1594935692282&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=0000017359934aabad036d4b8548987b&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_84cd21f2&amp;cb=1594935692282&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_fa66abd2&amp;cb=1594935693448&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_065b4a1e&amp;cb=1594935693448&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2bd67f0e&amp;cb=1594935693448&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_f195a6d8&amp;cb=1594935693448&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_00a815ce&amp;cb=1594935693448&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=3949&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b1a26a09&amp;cb=1594935693448&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=14295&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_a701d062&amp;cb=1594935693448&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=14295&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8c193b8c&amp;cb=1594935693449&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_41c87b52&amp;cb=1594935693449&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5b1f3501&amp;cb=1594935693449&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_96c6b5dd&amp;cb=1594935693449&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_94fccb92&amp;cb=1594935693449&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_e8c57c9c&amp;cb=1594935693449&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=148364&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_84b5f658&amp;cb=1594935693449&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=37049&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_88870410&amp;cb=1594935693449&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=483012&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_041e8c88&amp;cb=1594935693449&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=66506&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_c9258980&amp;cb=1594935693449&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=483012&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d4ecf40d&amp;cb=1594935693450&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=102921&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d611c231&amp;cb=1594935693450&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=37049&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b6c7831d&amp;cb=1594935693450&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_4930a4e3&amp;cb=1594935693450&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=102921&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_eca4428d&amp;cb=1594935693450&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9825ee75&amp;cb=1594935693450&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8df5f673&amp;cb=1594935693450&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3f97d6c8&amp;cb=1594935693450&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6a72ca8c&amp;cb=1594935693450&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=0000017359934ee0900c1c1946991498&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_9503484d&amp;cb=1594935693450&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_0325080e&amp;cb=1594935694605&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ff18e9c2&amp;cb=1594935694605&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d295dcd2&amp;cb=1594935694605&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b5c320b1&amp;cb=1594935694605&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_44fe93a7&amp;cb=1594935694605&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_126ae51d&amp;cb=1594935694605&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_92764ef1&amp;cb=1594935694606&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=3949&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_621c5faa&amp;cb=1594935694606&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=951183&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_37225de2&amp;cb=1594935694606&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=14295&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ac0cc5cc&amp;cb=1594935694606&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6f851601&amp;cb=1594935694606&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6dbf684e&amp;cb=1594935694606&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=113&amp;ao=148364&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_a4a00818&amp;cb=1594935694606&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=37049&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1711a710&amp;cb=1594935694606&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3b7b493f&amp;cb=1594935694606&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=66506&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_a518e163&amp;cb=1594935694606&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=483012&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6823e46b&amp;cb=1594935694606&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=37049&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c22850a2&amp;cb=1594935694606&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=483012&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ec2bb111&amp;cb=1594935694607&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ccb1bccd&amp;cb=1594935694607&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=102921&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_f6043c71&amp;cb=1594935694607&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_07b34d75&amp;cb=1594935694607&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9a8e9140&amp;cb=1594935694607&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_e1c89e90&amp;cb=1594935694607&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=127&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_89c1fc28&amp;cb=1594935694607&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=128&amp;ao=389273&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_900c76cf&amp;cb=1594935694607&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=000001735993536a8a79c22def5e4622&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_6c40eb91&amp;cb=1594935694607&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_4b67bdd5&amp;cb=1594935695736&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=4134&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d6ffffaa&amp;cb=1594935695736&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fb72caba&amp;cb=1594935695736&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_4094b0df&amp;cb=1594935695736&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b1a903c9&amp;cb=1594935695736&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=3949&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_00a37c0e&amp;cb=1594935695736&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=14295&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1600c665&amp;cb=1594935695737&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=14295&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3d182d8b&amp;cb=1594935695737&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_f0c96d55&amp;cb=1594935695737&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_ea1e2306&amp;cb=1594935695737&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_27c7a3da&amp;cb=1594935695737&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_25fddd95&amp;cb=1594935695737&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_59c46a9b&amp;cb=1594935695737&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=148364&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_35b4e05f&amp;cb=1594935695737&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=37049&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_39861217&amp;cb=1594935695738&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=483012&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b51f9a8f&amp;cb=1594935695738&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=66506&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_78249f87&amp;cb=1594935695738&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=483012&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_65ede20a&amp;cb=1594935695738&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=102921&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6710d436&amp;cb=1594935695738&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=37049&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_07c6951a&amp;cb=1594935695738&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=102921&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_118dc229&amp;cb=1594935695738&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b4192447&amp;cb=1594935695738&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2924f872&amp;cb=1594935695738&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3cf4e074&amp;cb=1594935695738&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8e96c0cf&amp;cb=1594935695738&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=129&amp;ao=389273&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_975b4a28&amp;cb=1594935695738&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=00000173599357c4b8592d32b646141d&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_24025e4a&amp;cb=1594935695738&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_05f2c965&amp;cb=1594935696721&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_f9cf28a9&amp;cb=1594935696721&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d4421db9&amp;cb=1594935696721&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b314e1da&amp;cb=1594935696721&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_422952cc&amp;cb=1594935696721&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_14bd2476&amp;cb=1594935696721&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=3949&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_021e9e1d&amp;cb=1594935696722&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=14295&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_738d593b&amp;cb=1594935696722&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_be5c19e5&amp;cb=1594935696722&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_a48b57b6&amp;cb=1594935696722&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6952d76a&amp;cb=1594935696722&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=113&amp;ao=4121&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_27403f86&amp;cb=1594935696722&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_17511e2b&amp;cb=1594935696722&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=148364&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_7b2194ef&amp;cb=1594935696722&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=37049&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_771366a7&amp;cb=1594935696722&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=483012&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_fb8aee3f&amp;cb=1594935696722&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=483012&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_67500019&amp;cb=1594935696722&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=66506&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_7a997d94&amp;cb=1594935696722&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=102921&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2985a086&amp;cb=1594935696723&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=37049&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_4953e1aa&amp;cb=1594935696723&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b6a4c654&amp;cb=1594935696723&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=102921&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1330203a&amp;cb=1594935696723&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_3e490267&amp;cb=1594935696723&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_2b991a61&amp;cb=1594935696723&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c003b47f&amp;cb=1594935696723&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=129&amp;ao=389273&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d9ce3e98&amp;cb=1594935696723&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=0000017359935c118ec7ce0d4d8cce31&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_6a972afa&amp;cb=1594935696723&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=1042966&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_6216a78a&amp;cb=1594935698300&amp;jobListingId=3620917416</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9e2b4646&amp;cb=1594935698300&amp;jobListingId=3621958708</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=4134&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_b3a67356&amp;cb=1594935698300&amp;jobListingId=3624974609</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_69e5aa80&amp;cb=1594935698301&amp;jobListingId=3620861402</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=483012&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_98d81996&amp;cb=1594935698301&amp;jobListingId=3627174907</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=14295&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_73594a99&amp;cb=1594935698301&amp;jobListingId=3623290626</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=3949&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_65faf0f2&amp;cb=1594935698301&amp;jobListingId=3623145429</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=14295&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_146937d4&amp;cb=1594935698301&amp;jobListingId=3622357898</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d9b8770a&amp;cb=1594935698301&amp;jobListingId=3623298076</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=110&amp;ao=951183&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_c36f3959&amp;cb=1594935698301&amp;jobListingId=3602823177</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=111&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0eb6b985&amp;cb=1594935698301&amp;jobListingId=3626145789</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=112&amp;ao=4121&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0c8cc7ca&amp;cb=1594935698301&amp;jobListingId=3380967641</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=114&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_70b570c4&amp;cb=1594935698301&amp;jobListingId=3626362400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=115&amp;ao=148364&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1cc5fa00&amp;cb=1594935698301&amp;jobListingId=3271813475</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=116&amp;ao=483012&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_d0461673&amp;cb=1594935698302&amp;jobListingId=3621112457</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=117&amp;ao=37049&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5cdf9eeb&amp;cb=1594935698302&amp;jobListingId=3623040397</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=118&amp;ao=483012&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_00b46ef6&amp;cb=1594935698302&amp;jobListingId=3620877993</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=119&amp;ao=66506&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_1d7d137b&amp;cb=1594935698302&amp;jobListingId=3599134153</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=120&amp;ao=37049&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_629f19e6&amp;cb=1594935698302&amp;jobListingId=3623040400</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=121&amp;ao=102921&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_024958ca&amp;cb=1594935698302&amp;jobListingId=3624328644</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=122&amp;ao=102921&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_38fcd876&amp;cb=1594935698302&amp;jobListingId=3625342355</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=123&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_9d683e18&amp;cb=1594935698302&amp;jobListingId=3627023657</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=124&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_0055e22d&amp;cb=1594935698302&amp;jobListingId=3621958564</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=125&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_1585fa2b&amp;cb=1594935698302&amp;jobListingId=3623297976</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=126&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_a7e7da90&amp;cb=1594935698302&amp;jobListingId=3626146712</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=129&amp;ao=389273&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_be2a5077&amp;cb=1594935698302&amp;jobListingId=3621141503</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=130&amp;ao=4341&amp;s=58&amp;guid=0000017359936119b639f7a119034203&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_0d734415&amp;cb=1594935698302&amp;jobListingId=3505159388</t>
+  </si>
+  <si>
+    <t>Canaccord Genuity Corp.</t>
+  </si>
+  <si>
+    <t>Administrative Assistant, Non- Licensed, (15-month contract)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=101&amp;ao=483012&amp;s=58&amp;guid=0000017359936aed934b50ddc451ce69&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_27aa40f3&amp;cb=1594935700438&amp;jobListingId=3620871801</t>
+  </si>
+  <si>
+    <t>Vancouver Aquarium</t>
+  </si>
+  <si>
+    <t>Program Assistant, Ocean Wise Seafood (Contract)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=102&amp;ao=4121&amp;s=58&amp;guid=0000017359936aed934b50ddc451ce69&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8f6d0c66&amp;cb=1594935700438&amp;jobListingId=3623366266</t>
+  </si>
+  <si>
+    <t>Mustang Survival</t>
+  </si>
+  <si>
+    <t>HR &amp; Payroll Assistant (6 month Contract)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=66506&amp;s=58&amp;guid=0000017359936aed934b50ddc451ce69&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;ea=1&amp;cs=1_8fa2b697&amp;cb=1594935700438&amp;jobListingId=3623288877</t>
+  </si>
+  <si>
+    <t>Morguard</t>
+  </si>
+  <si>
+    <t>Property Operations Assistant (18 Month Contract)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=104&amp;ao=483012&amp;s=58&amp;guid=0000017359936aed934b50ddc451ce69&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_95f28397&amp;cb=1594935700438&amp;jobListingId=3621950496</t>
+  </si>
+  <si>
+    <t>Property Operations Assistant (18 Month Maternity Contract)</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=389273&amp;s=58&amp;guid=0000017359936aed934b50ddc451ce69&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_65ab89bc&amp;cb=1594935700438&amp;jobListingId=3621649049</t>
+  </si>
+  <si>
+    <t>South Granville Seniors Centre</t>
+  </si>
+  <si>
+    <t>Program Assistant - Summer</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=103&amp;ao=389273&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_09e4b2ba&amp;cb=1594935701515&amp;jobListingId=3621807611</t>
   </si>
   <si>
     <t>Olive Fertility Centre</t>
   </si>
   <si>
-    <t>WEEKEND RECEPTIONIST/REFERRAL CO-ORDINATOR</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AExTYdq4Rqdadt5IIgsUiFQ7NtdOVJFCeDn2NyGXuy5iBiSZ2xA2I-MHlQfpzHASgMrxkkz3u34lOuxeyJ8WMWof7Oe50V2M6HyWQFeniAFJg3KHGGfNTP_Hsl7V0E3lISutQtXYH7GKUZWbtNhSk__1PbW3QyQcDCIwq1uqWOYO3w-sWHVQr-VVCdFwUFdPK9y-I8xpLkCAFsYDmczaTyhIduVjq4eZWzbVj4Ssx2svPFTUtT7avgh5d9d56xGpXnFZMZLbdp1ShkwJ0pbTrYVH0gISqjIBhlH-FglC1ziWhZWO-C-3fL9p4XtX096WnGroxgvK8_QXwLUWiSytLytDtuVUBhjH4fLun09PyP0iYOZZjhzyY9D8ePGT9awS7zNyoHZCyOm9enLXU684fXm9zOVQSsHmLvzb-qLydU11ECfZ_XoQTMYTRJ9BcHhO6qn8xBpk_bswMp5UIJnzrAB5NL2-YOhYZmsO5oJGVWoA==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6i0a8HvndPwfRCUTchX6zovY6kFP26ivpOna5BJaHguOiA5PqVXdose8ZIlbEntIhLnEO6p6hovOICzuUsLAWpSY25GqqMXDcG8dXZbrudA-smiO0PzAQKRSWZfKG1XRPMo8zfHXR1RhCfhuGkvKmhNX8OMS3CTp-TdzDy0qu6Db_bWQXmZjfVQ3Ui4mikzlMWfkObA83KGAFMXtBURDFVGW47ka6XS_5ZPF-kNfiSxI2UErF0TZdbR9Jc4J4K4kCdpfZalwQdx4bv5DKj3knxZmfGcSh86RxNLmxXfmgG3-uQihqohSEpPq5zCvqPSk2r4IGEHxirn9Y3ZPaaS5B9A76rWlHNZBOj25qGtACRf0RZ8uqCtweKb9Zl2uJYQE9Ce_b0v0Aq_vOEKyQJXsrISC1lmAPpcsUeBxIpjeZH2eT-5YVLP-nCQwvY3SqW7DGAI6EdjDcGg==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0CIVgbBBY94kjMVJCEs7sGBr_qPZHmt8WKXbqG1m9bZFqkYJQbGQueErLXuJKuKbwq9WozhaRd71PaS4sPR43RS8YEk_YtrNQH7YjJeDRmF-LkeG0ifm_EiBIbzjWNJY4wcCw47Inxx26FhC9WQiwV2SMjdvo_Em-XdtLj3E2Tc8t0Ngm2ZcEP27LRD7KUKgfjuWtg8oxZ5tDVb3qR4b1oClixwnOg2D-JcQ3FSJbHWmUUuFqy9y9j60h9bmfZsu3HRigVwUkywIu-eViAtAwaHgV4e52qBJlmk9c01NuMHt9ezDletpNSIY0WDjrktxTKIkxUVYgtkx7qaPW3Zr2vumDXkgq-cOfwN34lPp7IVM5JnVbYH0TQ60JQd-3yno7L9rvk1gzeMZ6UFHLAq2lrx_gd4rdvX_8J7nb02sMxnKfXXdoM1SZRURgcEedBhpWQxi2G8ELUZijNxBMoxsX7pBevwAoJ_Glc=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BV36FuXwqMnvv3SZENKW8itWJJO9Ubi-YUruFAmlcR7Iq6GtJaMvxUmKwanEuaLigTKSN1cPOfcThOwGFEmHdkJ4H_EGPRDvbB9UaG-8L5SqkyKlR1zrnSo8MrCD3F-GgHY_044yxZVxPrSC6LcU5ao0wTdFWZs1NhRHtS62GuqDP9aU6blRWZd91zGff6tAj5htnjYcVa5XjVB3BuvxAY61Xokun17-q6qVPUDWFzppax1s5prGcm_UVloSS2JxaBJklwrn601gtN7rdo_XfVbkDzqxekbyu-H5yYzqaC6CauQiC7SMQfCmLSCwGbXXMLu6CGlfxXWIPiu-s_pzZxFXPFIGObJncq5aWJNcIBSlBM3cm7Xb6AZ24UdXnPITiioo5Ym9ddE8YSAJKl0aJViABc4cndirEU9qdhZsghNAnEosSUUJlD7gglVE3mdhOnbfrwaXUTkw_z0xurEYsP&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0BPTZBSmjiUgTWeFQbPpIwdcVVxzqaNxFK0aJqXj0tql12G-9gON8LqdKS1gbKewNJ-Z1mDxj3u4QUYqQP-AYvoRDiLCp_nN_asnUCQJRSN8XdrmnGjsO5uzdnGJ2tOheyX42LuvYUMSraAwcScOsKVIXgB9XkhZi31Sg2Yl8oHkpsPz-F5R02unV7mwsXonoIBFGq5KQ-EHrQeGwzsE6MfaWCan2rdJu-sZhzIZBNEbzHWnZKBbi0dMLywX6L0Foa2OARBeweNGbf7oYrXWJFPEhfAmH-QbwahRe7Zr3biDhaXsFqlos4RXGl0nsXtkYoDnCa4bIJFZMKRMl7SSpLEnZDTq0qsvJ-j97-482EamWn4VKEqrdD0mzWjxTzJznQk0RBIkAfeyt7HNI_Upzc_weguLJ1SHVNbDq4WxDEaiVBK73Hp4fx-vTmOzDBo_Bs3HEBNlfTAJHu4sHexuTFiEBcPB0HMQONOgrxfKpC07G0_00rxCxAbXIUrBO1Re2V2qEWcMlqhe7jKNucizQJMAZkdaXeXPVDvi8M-h1C6rfVIYjaMcINX&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0A_5to5HK39BlJTI4YJjqEkBGd5KiOUDyecG26W-sk7vTQYk2Vyfc2CDqorf-7vBwvR_35cIlrYWfyehfxz0QSKIhMtANPqD8zLfWlhtRUXD_0SACbafTEBS0gmjG1S4WfUKoRU9RgdqtR_5PosOxh4HMcYg3P9gT2vd-U646ltsbC2tYqR99mPksybLkeTSmSHxB9Ebn08DUxDh8R6GnzWA9WmDItQQUX_U8v8QZLYAWSH1llnkYSo6u9Zm7fW4993hQbZkffGdx6YmAwOdyuAJ6ENBdV76K6mIK3Rzj6-aFrU11wjfXWfDCJhY7baeiwEZimOTo7T-3JV13huGLrI1BkUkpYVMeqpxuZSWq47m8lF7IwLEG17TNK8L2U7J2vGFR6mZTNpK0-zovrxlY06b92STkk8fJ6QM7wdxUsLTHn_IZCoD-nlTq8fc2bUXBI0CnC2fJjDV96mVhRLB9yk&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Bloo Recruitment Inc.</t>
-  </si>
-  <si>
-    <t>Office Administrator (Part-time)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0D5hb6eF5o35gaadRFhguMOIgjs-LmiZeqpHTsdwCbpYWCDyjqP8xnBA0ggGB-M7-1KhnFN8TxjtcVoUrb9aOZ0FlZpiaOvByInjWcJh4oeyow91TxCySwEsD6H7r3iBDmnEd_nuxaEsN1yUCWp2Oy2nHzpCyT7NkclCDGJdpk7vHY08J4IPs_yIzt8mNcVUi_pvjvL4K1uLhmwT_Gpa-eoY4GNxLDPRhe4kBdYkIxgA6EeVh3PdtREGkJeCF83nFVju3ZjLi-2cKFla5cGRZ5m7Ys6DIWjB0eX0691s1AS473-SxSQFNayr6CkajYovYzG53n3A_xvW-_JfB6oTBMbpsppbKtyJZvk9uJ81qNgZMopm6XqjrQsQHfLPObkiemcnhKsO96JvL3Z93El6RecAUKbBe0M6-_okVBcGv8oD1AwVc_A3dMZcXlq2z4rw89fRlzLIPSTXiJSWDpNXg0pwF2YSFTHoPA=&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Time International Academy Ltd.</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Time-International-Academy-Ltd./jobs/Administrative-Assistant-f3dea05023dfeba7?fccid=8ce4f2207c9e1982&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Boutique Real Estate and Property Management Broke...</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/AISA-Real-Estate-Services/jobs/Administrative-Assistant-9a0dc3fca16cb3fe?fccid=94f2d00953731873&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Atomy-Canada-Inc./jobs/Marketing-Assistant-8b59a242369aceb7?fccid=85827ca9bee5da7f&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Morguard</t>
-  </si>
-  <si>
-    <t>Property Operations Assistant (18 Month Maternity Contract)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Morguard/jobs/Property-Operation-Assistant-808ff3ed9521370c?fccid=3f5351ed685af814&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Aarm Dental Group on Hornby</t>
-  </si>
-  <si>
-    <t>DENTAL RECEPTIONIST</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Aarm-Dental-Group-on-Hornby/jobs/Dental-Receptionist-ee575148ec9bd2aa?fccid=125f59f3d19e4fcd&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Mustang Survival</t>
-  </si>
-  <si>
-    <t>HR &amp; Payroll Assistant (6 month Contract)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=26d0a415f4f7ec80&amp;fccid=878c8999e4320c9f&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/KT-Energy-Corporation/jobs/Resource-Teacher-Teaching-Assistant-3e6b1ea9c83ddd12?fccid=7981895d5533f096&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Re/Max team</t>
-  </si>
-  <si>
-    <t>Commercial Real Estate Assistant - Chinese Speaking (Mandari...</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?cmp=RE%2FMAX&amp;ti=Commercial+Real+Estate+Assistant&amp;jk=a02e2424e39b418f&amp;fccid=8c5e75d52bdc1416&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Bright Star Montessori School Inc.</t>
-  </si>
-  <si>
-    <t>Full time ECE assistant or ECE teacher</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Bright-Star-Montesosri-School-Inc./jobs/Ece-Assistant-or-Ece-Teacher-68846aa6eeb9f5ed?fccid=d05e82cc592a6932&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>David Aplin Group</t>
-  </si>
-  <si>
-    <t>Project Coordinator</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AhSjcQU9YA05cVmbzEjSfOJvAFt-aSYlp4ceWh2c326N0B1GwAT0GuOrTgG50CbpPQl6eCJF4sBRnYEm_pIq4RFUeRUs526rsPeQJzVfTVWqGHuQe-sGw8ANvwfC2FRNjNPxOBjMfEBl4vxRRG5HXw-y6RWHYDgF1N0Iyb16SgI3JDNiFuCD9y3V__jQg6MGLAtlK7qc7YwywGOJUncDOt8E119QIwPJSzObqGGYr0Em-mvmBYqkQI7DB_kONNa5yzKP5gdIYc3O6fh8QarVS8CW8leypHCIR9kiLD6xJq_-Drie5fKXDcCPbGrNU4tbhJ9fCdnU53X-378bzmkVVcGXvPVstp9OLbnBkwnRDz99NAgvmDJ1ErlsRNwOyj3VAElSU4P-bqBxXbkp2ePXRxPaXFsZuY8CsWAOplaHytVqtOeFFZaH7eFmFRHi61_ww6ZnjGeDJhE0lEuKjVxVox6YurGMUFaECLvAhTD-6e1Yk7svY0c820l0U5iKHcF3eUVScmhFOp7F5LxsuCzs1A&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>ProVita Care Management</t>
-  </si>
-  <si>
-    <t>Casual Receptionist - Royal Arch Masonic</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0DcB7ROGvMHLKuKaSca8PqmSA_8V7UyvVF8nchE4Ch_ZuMTMIw4IeYCOHB23yJ6cIzrScHtsLNw7NHeHGeAg7IMi6ZTcUymE-4ZkLAAuzJ48K2LeyNJZH4rF8bEDHGUZQN29dG-oaSMoSUEIAG5vVHeGrK5XS3yGdcKcmgdul5_hhIweJY5G4PQZguVw831HYKI__Qg6_3oUGQIgZ1U9Dhh5UapRFNViuxZh9ruFGoD5HLAzIM2SM0v7Dl5XG64coYB-GUZz-nncWeBrrnt6x3BqGrDZOLfEp3tF8VbgUJKvKxKaHMu0xoaVDVj0jn5ttNn8lISqZ4l3xYaHhGTS-bSsqE2AJ5wBSPO42qwiYsAMw7AcTh2WW4FBXoLHXfaj1cN9LjjsPrr2U5fyYbMn6Oj1CZb2gpJd4M2eu92NPR6ygXuM95FJ-3oTUNFfAwHglyufgC1qNXOWaddKb5hSk77Q4t2W4aHQuR5PSDv_AYXLg==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Plan A Real Estate Services</t>
-  </si>
-  <si>
-    <t>Executive Assistant to CEO</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Plan-A-Health-Care-Staffing-Solutions/jobs/Executive-Assistant-CEO-3b1394d0841b5989?fccid=e26e95be3cdcdaef&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>South Granville Seniors Centre</t>
-  </si>
-  <si>
-    <t>Program Assistant - Summer</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/South-Granville-Seniors-Centre/jobs/Program-Assistant-581d16545cf2524a?fccid=89e2bf467e34454e&amp;vjs=3</t>
-  </si>
-  <si>
     <t>MEDICAL OFFICE ASSISTANT - TEMP COVID SCREENER</t>
   </si>
   <si>
-    <t>https://ca.indeed.com//company/Olive-Fertility-Centre/jobs/Medical-Office-Assistant-c6b12474645c6ac2?fccid=62e0878ffa50ac39&amp;vjs=3</t>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=105&amp;ao=389273&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_45077f49&amp;cb=1594935701515&amp;jobListingId=3620988541</t>
   </si>
   <si>
     <t>BAPTIST HOUSING</t>
@@ -877,37 +961,34 @@
     <t>Activity Assistant - Summer Student</t>
   </si>
   <si>
-    <t>https://ca.indeed.com//company/BAPTIST-HOUSING/jobs/Activity-Assistant-003bc045cc5d0771?fccid=9f2e924b94e0725b&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Total Rescue</t>
-  </si>
-  <si>
-    <t>Data Entry Specialist</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=0a8de83fbf288a1d&amp;fccid=dd616958bd9ddc12&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Prim Properties</t>
-  </si>
-  <si>
-    <t>Office Administrator</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//company/Prim-Properties/jobs/Office-Administrator-e570a9c56f5c0385?fccid=e038954300a9fe13&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Conseil scolaire francophone de la Colombie-Britan...</t>
-  </si>
-  <si>
-    <t>Aide pédagogique spécialisée (31.00h/sem)</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//rc/clk?jk=5479e61df3b833ba&amp;fccid=ec279cd1e4364761&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com//pagead/clk?mo=r&amp;ad=-6NYlbfkN0AhSjcQU9YA05cVmbzEjSfOJvAFt-aSYlp4ceWh2c326N0B1GwAT0GuOrTgG50CbpPQl6eCJF4sBRnYEm_pIq4RFUeRUs526rsPeQJzVfTVWqGHuQe-sGw8ANvwfC2FRNjNPxOBjMfEBl4vxRRG5HXw-y6RWHYDgF1N0Iyb16SgI0aNeS7cnqGXleDmNrngIcQdZchdi6YSIwS3T-mknyByHEe2Q_3iw03s5IBIUtpBeNqouYXeMpxlOxislexaVkQOGxC74St9wD-az3OVETmo8sx9oEDq2VUkd37Qt3GDwIhem4vtLNWrWDtqca1-BYfY4ezdcWwtak4CeoO0Gvtwi6Q_wdwxQxSmIvae-Km9Y-jopL490q9DERtdsM0ah_F2urhKsPOFEyWvlUT_xdwF7R7u-MDMZiqqw9SckIPrs6qk6mU1xhZy3aaHt1_W8EoT0zggGeSQWg9IgQZ8W3vQ17xi9p4vac_SFI51tBlStfgaFvMoHe6_e2lybOmvA2bDJxuYedJYElujqIgAinvT&amp;p=14&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=106&amp;ao=389273&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_271b5dad&amp;cb=1594935701516&amp;jobListingId=3621958643</t>
+  </si>
+  <si>
+    <t>LifeLabs</t>
+  </si>
+  <si>
+    <t>Lab Technical Assistant, Specimen Management - Full Time Temp - Burnaby, BC</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=107&amp;ao=215489&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_5cea74be&amp;cb=1594935701516&amp;jobListingId=3623792476</t>
+  </si>
+  <si>
+    <t>Provincial Health Services Authority</t>
+  </si>
+  <si>
+    <t>Administrative Assistant, Perinatal Services Vancouver, British Columbia Temporary,Full-Time 07/10</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=108&amp;ao=4120&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_8bedd276&amp;cb=1594935701516&amp;jobListingId=3621526227</t>
+  </si>
+  <si>
+    <t>EDO Dental</t>
+  </si>
+  <si>
+    <t>Temp Dental Assistant Opportunities</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.ca/partner/jobListing.htm?pos=109&amp;ao=483012&amp;s=58&amp;guid=0000017359936ee98ce72ab89bf18438&amp;src=GD_JOB_AD&amp;t=SR&amp;extid=1&amp;exst=OL&amp;ist=&amp;ast=OL&amp;slr=true&amp;cs=1_6ced5dfd&amp;cb=1594935701516&amp;jobListingId=3620855379</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,74 +1459,74 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1462,298 +1543,298 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1762,225 +1843,225 @@
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1991,287 +2072,287 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2280,127 +2361,127 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -2411,598 +2492,598 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -3013,707 +3094,707 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" t="s">
         <v>30</v>
       </c>
-      <c r="B171" t="s">
-        <v>31</v>
-      </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -3722,40 +3803,40 @@
         <v>7</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B179" t="s">
         <v>25</v>
@@ -3764,329 +3845,329 @@
         <v>7</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B183" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B188" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B189" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" t="s">
         <v>30</v>
       </c>
-      <c r="B198" t="s">
-        <v>31</v>
-      </c>
       <c r="D198" t="s">
         <v>7</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4094,377 +4175,377 @@
         <v>44</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B205" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B207" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="B211" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B216" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4472,144 +4553,144 @@
         <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B231" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="B234" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B240" t="s">
         <v>25</v>
@@ -4618,497 +4699,217 @@
         <v>7</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="B245" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="B247" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="B250" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="B252" t="s">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>250</v>
-      </c>
-      <c r="B256" t="s">
-        <v>16</v>
-      </c>
-      <c r="D256" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>252</v>
-      </c>
-      <c r="B257" t="s">
-        <v>16</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>154</v>
-      </c>
-      <c r="B258" t="s">
-        <v>155</v>
-      </c>
-      <c r="D258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>255</v>
-      </c>
-      <c r="B259" t="s">
-        <v>256</v>
-      </c>
-      <c r="D259" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>259</v>
-      </c>
-      <c r="D260" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>261</v>
-      </c>
-      <c r="B261" t="s">
-        <v>262</v>
-      </c>
-      <c r="D261" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>79</v>
-      </c>
-      <c r="B262" t="s">
-        <v>80</v>
-      </c>
-      <c r="D262" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>265</v>
-      </c>
-      <c r="B263" t="s">
-        <v>266</v>
-      </c>
-      <c r="D263" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>268</v>
-      </c>
-      <c r="B264" t="s">
-        <v>269</v>
-      </c>
-      <c r="D264" t="s">
-        <v>7</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
-        <v>271</v>
-      </c>
-      <c r="B265" t="s">
-        <v>272</v>
-      </c>
-      <c r="D265" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>274</v>
-      </c>
-      <c r="B266" t="s">
-        <v>275</v>
-      </c>
-      <c r="D266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
-        <v>277</v>
-      </c>
-      <c r="B267" t="s">
-        <v>278</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
-        <v>280</v>
-      </c>
-      <c r="B268" t="s">
-        <v>281</v>
-      </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>239</v>
-      </c>
-      <c r="B269" t="s">
-        <v>283</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
-        <v>285</v>
-      </c>
-      <c r="B270" t="s">
-        <v>286</v>
-      </c>
-      <c r="D270" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>288</v>
-      </c>
-      <c r="B271" t="s">
-        <v>289</v>
-      </c>
-      <c r="D271" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>291</v>
-      </c>
-      <c r="B272" t="s">
-        <v>292</v>
-      </c>
-      <c r="D272" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>294</v>
-      </c>
-      <c r="B273" t="s">
-        <v>295</v>
-      </c>
-      <c r="D273" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>261</v>
-      </c>
-      <c r="B274" t="s">
-        <v>262</v>
-      </c>
-      <c r="D274" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>271</v>
-      </c>
-      <c r="B275" t="s">
-        <v>272</v>
-      </c>
-      <c r="D275" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5367,26 +5168,6 @@
     <hyperlink ref="E253" r:id="rId252"/>
     <hyperlink ref="E254" r:id="rId253"/>
     <hyperlink ref="E255" r:id="rId254"/>
-    <hyperlink ref="E256" r:id="rId255"/>
-    <hyperlink ref="E257" r:id="rId256"/>
-    <hyperlink ref="E258" r:id="rId257"/>
-    <hyperlink ref="E259" r:id="rId258"/>
-    <hyperlink ref="E260" r:id="rId259"/>
-    <hyperlink ref="E261" r:id="rId260"/>
-    <hyperlink ref="E262" r:id="rId261"/>
-    <hyperlink ref="E263" r:id="rId262"/>
-    <hyperlink ref="E264" r:id="rId263"/>
-    <hyperlink ref="E265" r:id="rId264"/>
-    <hyperlink ref="E266" r:id="rId265"/>
-    <hyperlink ref="E267" r:id="rId266"/>
-    <hyperlink ref="E268" r:id="rId267"/>
-    <hyperlink ref="E269" r:id="rId268"/>
-    <hyperlink ref="E270" r:id="rId269"/>
-    <hyperlink ref="E271" r:id="rId270"/>
-    <hyperlink ref="E272" r:id="rId271"/>
-    <hyperlink ref="E273" r:id="rId272"/>
-    <hyperlink ref="E274" r:id="rId273"/>
-    <hyperlink ref="E275" r:id="rId274"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
